--- a/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.004473882565059956</v>
+        <v>0.004319649857380383</v>
       </c>
       <c r="F2">
         <v>0.5003572360651602</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>105</v>
       </c>
       <c r="E3">
-        <v>0.008031202892782587</v>
+        <v>0.007759161124024368</v>
       </c>
       <c r="F3">
         <v>0.5049289025996073</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.006355391960898846</v>
+        <v>0.006349619342386191</v>
       </c>
       <c r="F4">
         <v>0.5155214987605198</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.008012553901229499</v>
+        <v>0.007763863460492989</v>
       </c>
       <c r="F5">
         <v>0.507573597974374</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.0100062970292303</v>
+        <v>0.009960658459728077</v>
       </c>
       <c r="F6">
         <v>0.5412292444432683</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>116</v>
       </c>
       <c r="E2">
-        <v>0.004473882565059956</v>
+        <v>0.004319649857380383</v>
       </c>
       <c r="F2">
         <v>0.7256446120810083</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>116</v>
       </c>
       <c r="E3">
-        <v>0.008031202892782587</v>
+        <v>0.007759161124024368</v>
       </c>
       <c r="F3">
         <v>0.7079328080529609</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>118</v>
       </c>
       <c r="E4">
-        <v>0.006355391960898846</v>
+        <v>0.006349619342386191</v>
       </c>
       <c r="F4">
         <v>0.7021974657562078</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>119</v>
       </c>
       <c r="E5">
-        <v>0.008012553901229499</v>
+        <v>0.007763863460492989</v>
       </c>
       <c r="F5">
         <v>0.7130623525847735</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.0100062970292303</v>
+        <v>0.009960658459728077</v>
       </c>
       <c r="F6">
         <v>0.7065843871797667</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.004473882565059956</v>
+        <v>0.004319649857380383</v>
       </c>
       <c r="F2">
         <v>0.8030809940282796</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.008031202892782587</v>
+        <v>0.007759161124024368</v>
       </c>
       <c r="F3">
         <v>0.8162037634675292</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>153</v>
       </c>
       <c r="E4">
-        <v>0.006355391960898846</v>
+        <v>0.006349619342386191</v>
       </c>
       <c r="F4">
         <v>0.8015982805142253</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.008012553901229499</v>
+        <v>0.007763863460492989</v>
       </c>
       <c r="F5">
         <v>0.8033426592498718</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.0100062970292303</v>
+        <v>0.009960658459728077</v>
       </c>
       <c r="F6">
         <v>0.8066708208578803</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.004473882565059956</v>
+        <v>0.004319649857380383</v>
       </c>
       <c r="F2">
         <v>0.9009624573791951</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>165</v>
       </c>
       <c r="E3">
-        <v>0.008031202892782587</v>
+        <v>0.007759161124024368</v>
       </c>
       <c r="F3">
         <v>0.9077679111073089</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.006355391960898846</v>
+        <v>0.006349619342386191</v>
       </c>
       <c r="F4">
         <v>0.9019711536005912</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.008012553901229499</v>
+        <v>0.007763863460492989</v>
       </c>
       <c r="F5">
         <v>0.9127744107342801</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>168</v>
       </c>
       <c r="E6">
-        <v>0.0100062970292303</v>
+        <v>0.009960658459728077</v>
       </c>
       <c r="F6">
         <v>0.9163598008465206</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>38</v>

--- a/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.424015048176905E-08</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.789150019483593E-05</v>
+        <v>1.596086667715688E-05</v>
       </c>
       <c r="D2">
-        <v>4.366280347548182E-05</v>
+        <v>4.1741894665745E-05</v>
       </c>
       <c r="E2">
-        <v>2.272229224744258E-05</v>
+        <v>2.079348161164613E-05</v>
       </c>
       <c r="F2">
-        <v>2.11419062302324E-05</v>
+        <v>1.921249924149695E-05</v>
       </c>
       <c r="G2">
-        <v>4.696702351146431E-05</v>
+        <v>4.504736153718929E-05</v>
       </c>
       <c r="H2">
-        <v>6.932300075491778E-05</v>
+        <v>6.74117747276761E-05</v>
       </c>
       <c r="I2">
-        <v>7.034865076608696E-05</v>
+        <v>6.843781176416181E-05</v>
       </c>
       <c r="J2">
-        <v>7.373401680295312E-05</v>
+        <v>7.182445525663927E-05</v>
       </c>
       <c r="K2">
-        <v>8.749604095281964E-05</v>
+        <v>8.559167245646893E-05</v>
       </c>
       <c r="L2">
-        <v>6.529574671106154E-05</v>
+        <v>6.338300101409424E-05</v>
       </c>
       <c r="M2">
-        <v>4.106685444721229E-05</v>
+        <v>3.91449660655129E-05</v>
       </c>
       <c r="N2">
-        <v>2.605394028372376E-05</v>
+        <v>2.412638683324566E-05</v>
       </c>
       <c r="O2">
-        <v>1.624407217689567E-05</v>
+        <v>1.431281700822149E-05</v>
       </c>
       <c r="P2">
-        <v>2.20132672397214E-06</v>
+        <v>2.647725761679641E-07</v>
       </c>
       <c r="Q2">
-        <v>1.936654021089891E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.097630011953037E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.195068078353284E-07</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.336452114553776E-05</v>
+        <v>1.143217938871242E-05</v>
       </c>
       <c r="U2">
-        <v>1.712134818644908E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.644005417902989E-05</v>
+        <v>1.450887296345431E-05</v>
       </c>
       <c r="W2">
-        <v>1.237405313475171E-05</v>
+        <v>1.044133762841024E-05</v>
       </c>
       <c r="X2">
-        <v>2.150746923421333E-05</v>
+        <v>1.957820018935326E-05</v>
       </c>
       <c r="Y2">
-        <v>1.439311665673902E-05</v>
+        <v>1.246116303670398E-05</v>
       </c>
       <c r="Z2">
-        <v>4.625062550366284E-05</v>
+        <v>4.433069319919456E-05</v>
       </c>
       <c r="AA2">
-        <v>5.161447256207438E-05</v>
+        <v>4.969656428586428E-05</v>
       </c>
       <c r="AB2">
-        <v>2.8061426305585E-05</v>
+        <v>2.613463037268559E-05</v>
       </c>
       <c r="AC2">
-        <v>4.197235045707302E-05</v>
+        <v>4.0050803761013E-05</v>
       </c>
       <c r="AD2">
-        <v>7.49456458161476E-05</v>
+        <v>7.303654147365302E-05</v>
       </c>
       <c r="AE2">
-        <v>2.179300323732276E-05</v>
+        <v>1.986384193768448E-05</v>
       </c>
       <c r="AF2">
-        <v>1.439311665673902E-05</v>
+        <v>1.246116303670398E-05</v>
       </c>
       <c r="AG2">
-        <v>3.021420032902841E-05</v>
+        <v>2.828821673760881E-05</v>
       </c>
       <c r="AH2">
-        <v>5.384239058633609E-05</v>
+        <v>5.192532300692231E-05</v>
       </c>
       <c r="AI2">
-        <v>3.5668778388428E-05</v>
+        <v>3.374485306228114E-05</v>
       </c>
       <c r="AJ2">
-        <v>1.90223842071511E-05</v>
+        <v>1.709217742445773E-05</v>
       </c>
       <c r="AK2">
-        <v>2.661764728986245E-05</v>
+        <v>2.469030655218122E-05</v>
       </c>
       <c r="AL2">
-        <v>1.997068121747792E-05</v>
+        <v>1.80408322712264E-05</v>
       </c>
       <c r="AM2">
-        <v>1.712134818644908E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.199052067506809E-06</v>
+        <v>4.26400644688016E-06</v>
       </c>
       <c r="AO2">
-        <v>2.273842524761827E-06</v>
+        <v>3.37315740532407E-07</v>
       </c>
       <c r="AP2">
-        <v>2.366650725772495E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.544064638594368E-06</v>
+        <v>1.60801716807851E-06</v>
       </c>
       <c r="AR2">
-        <v>9.767117106362539E-06</v>
+        <v>7.833417882153795E-06</v>
       </c>
       <c r="AS2">
-        <v>8.381688591275415E-06</v>
+        <v>6.447466580634905E-06</v>
       </c>
       <c r="AT2">
-        <v>2.636811428714507E-05</v>
+        <v>2.444067938908914E-05</v>
       </c>
       <c r="AU2">
-        <v>3.147859834279753E-05</v>
+        <v>2.955309186738843E-05</v>
       </c>
       <c r="AV2">
-        <v>3.648334039729847E-05</v>
+        <v>3.455972244317509E-05</v>
       </c>
       <c r="AW2">
-        <v>5.348724558246862E-05</v>
+        <v>5.157004399037406E-05</v>
       </c>
       <c r="AX2">
-        <v>7.138183077733814E-05</v>
+        <v>6.947138164214779E-05</v>
       </c>
       <c r="AY2">
-        <v>8.157265088831475E-05</v>
+        <v>7.966604722217932E-05</v>
       </c>
       <c r="AZ2">
-        <v>6.480080670567171E-05</v>
+        <v>6.288787424488617E-05</v>
       </c>
       <c r="BA2">
-        <v>7.216165078583027E-05</v>
+        <v>7.02514959128954E-05</v>
       </c>
       <c r="BB2">
-        <v>8.951663097482358E-05</v>
+        <v>8.761302494079853E-05</v>
       </c>
       <c r="BC2">
-        <v>6.881301074936405E-05</v>
+        <v>6.69015922792411E-05</v>
       </c>
       <c r="BD2">
-        <v>5.806942063236786E-05</v>
+        <v>5.615394810743049E-05</v>
       </c>
       <c r="BE2">
-        <v>2.9613420322486E-05</v>
+        <v>2.768721002890712E-05</v>
       </c>
       <c r="BF2">
-        <v>3.959940043123193E-06</v>
+        <v>2.02404950168482E-06</v>
       </c>
       <c r="BG2">
-        <v>2.366650725772495E-07</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>2.304373525094305E-07</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>7.735519084238719E-06</v>
+        <v>5.801053243875331E-06</v>
       </c>
       <c r="BJ2">
-        <v>4.857447052896918E-05</v>
+        <v>4.66554151190036E-05</v>
       </c>
       <c r="BK2">
-        <v>5.008293754539618E-05</v>
+        <v>4.816445134999517E-05</v>
       </c>
       <c r="BL2">
-        <v>5.051816755013577E-05</v>
+        <v>4.859984558720053E-05</v>
       </c>
       <c r="BM2">
-        <v>0.000115094961253368</v>
+        <v>0.0001132010071096219</v>
       </c>
       <c r="BN2">
-        <v>0.0001614754717584453</v>
+        <v>0.0001595990191323353</v>
       </c>
       <c r="BO2">
-        <v>0.0001321422214390103</v>
+        <v>0.0001302547000171454</v>
       </c>
       <c r="BP2">
-        <v>0.0001300344014160564</v>
+        <v>0.000128146084615941</v>
       </c>
       <c r="BQ2">
-        <v>0.00016303883177547</v>
+        <v>0.0001611629690775996</v>
       </c>
       <c r="BR2">
-        <v>0.000145514821584636</v>
+        <v>0.0001436323462649968</v>
       </c>
       <c r="BS2">
-        <v>5.49740035986592E-05</v>
+        <v>5.305736302931661E-05</v>
       </c>
       <c r="BT2">
-        <v>5.49740035986592E-05</v>
+        <v>5.305736302931661E-05</v>
       </c>
       <c r="BU2">
-        <v>2.8061426305585E-05</v>
+        <v>2.613463037268559E-05</v>
       </c>
       <c r="BV2">
-        <v>1.644005417902989E-05</v>
+        <v>1.450887296345431E-05</v>
       </c>
       <c r="BW2">
-        <v>3.106337333827578E-05</v>
+        <v>2.913771017921528E-05</v>
       </c>
       <c r="BX2">
-        <v>1.681539818311733E-05</v>
+        <v>1.48843586022421E-05</v>
       </c>
       <c r="BY2">
-        <v>1.080800611769767E-05</v>
+        <v>8.874699669186973E-06</v>
       </c>
       <c r="BZ2">
-        <v>1.313709014306107E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.044989611379791E-05</v>
+        <v>8.516454533774406E-06</v>
       </c>
       <c r="CB2">
-        <v>4.823718052529614E-05</v>
+        <v>4.631799784016943E-05</v>
       </c>
       <c r="CC2">
-        <v>9.156029099707875E-05</v>
+        <v>8.965745613076041E-05</v>
       </c>
       <c r="CD2">
-        <v>0.0001081009551772043</v>
+        <v>0.0001062043618705995</v>
       </c>
       <c r="CE2">
-        <v>0.0001394427715185123</v>
+        <v>0.0001375580049327752</v>
       </c>
       <c r="CF2">
-        <v>0.0001659588518072687</v>
+        <v>0.0001640840909683801</v>
       </c>
       <c r="CG2">
-        <v>0.0001909465020793807</v>
+        <v>0.0001890811702398102</v>
       </c>
       <c r="CH2">
-        <v>0.0001624204217687357</v>
+        <v>0.0001605443257160892</v>
       </c>
       <c r="CI2">
-        <v>0.0001632034417772626</v>
+        <v>0.0001613276411943801</v>
       </c>
       <c r="CJ2">
-        <v>0.0001482741616146849</v>
+        <v>0.0001463927275220109</v>
       </c>
       <c r="CK2">
-        <v>8.893696096851105E-05</v>
+        <v>8.703313619810885E-05</v>
       </c>
       <c r="CL2">
-        <v>6.529574671106154E-05</v>
+        <v>6.338300101409424E-05</v>
       </c>
       <c r="CM2">
-        <v>0.001467843315984608</v>
+        <v>0.001466459816532495</v>
       </c>
       <c r="CN2">
-        <v>0.1379269515020052</v>
+        <v>0.1379770603527348</v>
       </c>
       <c r="CO2">
-        <v>0.004456334748528861</v>
+        <v>0.004456078945493685</v>
       </c>
       <c r="CP2">
-        <v>0.1507534716416842</v>
+        <v>0.1508084205333274</v>
       </c>
       <c r="CQ2">
-        <v>0.02096661722832353</v>
+        <v>0.02097259152057734</v>
       </c>
       <c r="CR2">
-        <v>0.01386688315100842</v>
+        <v>0.01387017838432533</v>
       </c>
       <c r="CS2">
-        <v>0.003035587033057118</v>
+        <v>0.003034795116017845</v>
       </c>
       <c r="CT2">
-        <v>0.01156351262592503</v>
+        <v>0.01156593869071775</v>
       </c>
       <c r="CU2">
-        <v>0.03223954035108408</v>
+        <v>0.03224976844004465</v>
       </c>
       <c r="CV2">
-        <v>0.000501504605461315</v>
+        <v>0.0004997564615971293</v>
       </c>
       <c r="CW2">
-        <v>0.02772455130191648</v>
+        <v>0.02773307567611388</v>
       </c>
       <c r="CX2">
-        <v>0.0171161701863927</v>
+        <v>0.01712069152640261</v>
       </c>
       <c r="CY2">
-        <v>0.06472213070481495</v>
+        <v>0.06474461598158467</v>
       </c>
       <c r="CZ2">
-        <v>0.009542255103913821</v>
+        <v>0.009543918454502153</v>
       </c>
       <c r="DA2">
-        <v>0.001436763315646152</v>
+        <v>0.001435368088268491</v>
       </c>
       <c r="DB2">
-        <v>0.03466347637748041</v>
+        <v>0.03467461912992038</v>
       </c>
       <c r="DC2">
-        <v>0.02686283029253246</v>
+        <v>0.02687102949942836</v>
       </c>
       <c r="DD2">
-        <v>0.07928972086345396</v>
+        <v>0.07931770316760224</v>
       </c>
       <c r="DE2">
-        <v>0.003239079635273124</v>
+        <v>0.003238364505430191</v>
       </c>
       <c r="DF2">
-        <v>0.02385630025979177</v>
+        <v>0.02386336496347029</v>
       </c>
       <c r="DG2">
-        <v>0.001532009216683366</v>
+        <v>0.001530649930001455</v>
       </c>
       <c r="DH2">
-        <v>0.01442366215707166</v>
+        <v>0.01442716748892971</v>
       </c>
       <c r="DI2">
-        <v>5.822962563411247E-06</v>
+        <v>3.887775026772528E-06</v>
       </c>
       <c r="DJ2">
-        <v>0.001693905318446392</v>
+        <v>0.001692607122672049</v>
       </c>
       <c r="DK2">
-        <v>0.002974062232387121</v>
+        <v>0.002973247099187175</v>
       </c>
       <c r="DL2">
-        <v>0.008119039088415199</v>
+        <v>0.00812016539359536</v>
       </c>
       <c r="DM2">
-        <v>0.02719070429610296</v>
+        <v>0.02719902722506646</v>
       </c>
       <c r="DN2">
-        <v>8.464949092182111E-05</v>
+        <v>8.274404829012717E-05</v>
       </c>
       <c r="DO2">
-        <v>0.01450639815797265</v>
+        <v>0.01450993470996094</v>
       </c>
       <c r="DP2">
-        <v>0.004145335045142118</v>
+        <v>0.004144961887495395</v>
       </c>
       <c r="DQ2">
-        <v>0.0002524748027494153</v>
+        <v>0.0002506326883912302</v>
       </c>
       <c r="DR2">
-        <v>0.003143746934234964</v>
+        <v>0.003142995830942616</v>
       </c>
       <c r="DS2">
-        <v>0.004270726346507612</v>
+        <v>0.004270400504814258</v>
       </c>
       <c r="DT2">
-        <v>0.0001614754717584453</v>
+        <v>0.0001595990191323353</v>
       </c>
       <c r="DU2">
-        <v>0.000286715803122295</v>
+        <v>0.0002848866094815704</v>
       </c>
       <c r="DV2">
-        <v>0.004232713046093652</v>
+        <v>0.004232372860219081</v>
       </c>
       <c r="DW2">
-        <v>0.002900892431590313</v>
+        <v>0.002900049688031077</v>
       </c>
       <c r="DX2">
-        <v>0.004140555445090069</v>
+        <v>0.004140180483878579</v>
       </c>
       <c r="DY2">
-        <v>0.0005425643059084493</v>
+        <v>0.0005408316557734978</v>
       </c>
       <c r="DZ2">
-        <v>0.001412443515381312</v>
+        <v>0.001411039111015115</v>
       </c>
       <c r="EA2">
-        <v>0.001646980017935382</v>
+        <v>0.001645664115068868</v>
       </c>
       <c r="EB2">
-        <v>0.003565760038830627</v>
+        <v>0.003565168180654651</v>
       </c>
       <c r="EC2">
-        <v>0.0001060625511550063</v>
+        <v>0.0001041651886640274</v>
       </c>
       <c r="ED2">
-        <v>0.001320114114375858</v>
+        <v>0.001318674869844634</v>
       </c>
       <c r="EE2">
-        <v>0.002767898430142027</v>
+        <v>0.002767005501778085</v>
       </c>
       <c r="EF2">
-        <v>0.0001174107312785864</v>
+        <v>0.0001155176509822709</v>
       </c>
       <c r="EG2">
-        <v>0.0005507568059976645</v>
+        <v>0.0005490272472729462</v>
       </c>
       <c r="EH2">
-        <v>0.002361116225712225</v>
+        <v>0.002360069799556919</v>
       </c>
       <c r="EI2">
-        <v>0.008868221096573687</v>
+        <v>0.008869630102870885</v>
       </c>
       <c r="EJ2">
-        <v>0.001307879614242626</v>
+        <v>0.001306435753067093</v>
       </c>
       <c r="EK2">
-        <v>0.000160860011751743</v>
+        <v>0.0001589833268840289</v>
       </c>
       <c r="EL2">
-        <v>0.0004936883053761966</v>
+        <v>0.0004919372120594865</v>
       </c>
       <c r="EM2">
-        <v>0.0006050147065885255</v>
+        <v>0.0006033056218860581</v>
       </c>
       <c r="EN2">
-        <v>0.002274585024769913</v>
+        <v>0.00227350594637937</v>
       </c>
       <c r="EO2">
-        <v>0.003765292541003509</v>
+        <v>0.003764775975694467</v>
       </c>
       <c r="EP2">
-        <v>0.0003848449641909077</v>
+        <v>0.0003830527992336617</v>
       </c>
       <c r="EQ2">
-        <v>0.000106828645163349</v>
+        <v>0.0001049315717551691</v>
       </c>
       <c r="ER2">
-        <v>0.0001195549213019364</v>
+        <v>0.0001176626501079593</v>
       </c>
       <c r="ES2">
-        <v>1.789150019483593E-05</v>
+        <v>1.596086667715688E-05</v>
       </c>
       <c r="ET2">
-        <v>0.0003951457343030817</v>
+        <v>0.0003933574563041253</v>
       </c>
       <c r="EU2">
-        <v>0.001033722711257095</v>
+        <v>0.001032175397967292</v>
       </c>
       <c r="EV2">
-        <v>0.005386062458653466</v>
+        <v>0.005386157485001977</v>
       </c>
       <c r="EW2">
-        <v>0.02222642324204264</v>
+        <v>0.02223287291753237</v>
       </c>
       <c r="EX2">
-        <v>0.02362936225732045</v>
+        <v>0.02363634132676576</v>
       </c>
       <c r="EY2">
-        <v>0.00691343407528633</v>
+        <v>0.006914105449781819</v>
       </c>
       <c r="EZ2">
-        <v>0.002319554625259625</v>
+        <v>0.002318492515984935</v>
       </c>
       <c r="FA2">
-        <v>0.01464189715944821</v>
+        <v>0.0146454848414939</v>
       </c>
       <c r="FB2">
-        <v>0.007463757481279274</v>
+        <v>0.007464636518318592</v>
       </c>
       <c r="FC2">
-        <v>0.01080432211765756</v>
+        <v>0.01080646170466197</v>
       </c>
       <c r="FD2">
-        <v>0.006674646472685966</v>
+        <v>0.006675227741544568</v>
       </c>
       <c r="FE2">
-        <v>0.001612298417557704</v>
+        <v>0.001610969427714914</v>
       </c>
       <c r="FF2">
-        <v>2.630198528642494E-05</v>
+        <v>2.437452543483012E-05</v>
       </c>
       <c r="FG2">
-        <v>0.00156946551709126</v>
+        <v>0.001568120364408631</v>
       </c>
       <c r="FH2">
-        <v>0.00555988876054641</v>
+        <v>0.005560049379620293</v>
       </c>
       <c r="FI2">
-        <v>0.007331805079842331</v>
+        <v>0.007332634325120935</v>
       </c>
       <c r="FJ2">
-        <v>0.01070885311661791</v>
+        <v>0.0107109566787406</v>
       </c>
       <c r="FK2">
-        <v>0.0001846395920106993</v>
+        <v>0.0001827718802814598</v>
       </c>
       <c r="FL2">
-        <v>0.01533461316699179</v>
+        <v>0.01533846224291372</v>
       </c>
       <c r="FM2">
-        <v>0.006992748076150048</v>
+        <v>0.006993449379496466</v>
       </c>
       <c r="FN2">
-        <v>0.0001763951319209183</v>
+        <v>0.0001745243091745275</v>
       </c>
       <c r="FO2">
-        <v>0.003614331439359563</v>
+        <v>0.003613757909425638</v>
       </c>
       <c r="FP2">
-        <v>0.008837677096241068</v>
+        <v>0.008839074576870378</v>
       </c>
       <c r="FQ2">
-        <v>0.0044428670483822</v>
+        <v>0.004442606163359157</v>
       </c>
       <c r="FR2">
-        <v>0.0006421098069924859</v>
+        <v>0.0006404147199917874</v>
       </c>
       <c r="FS2">
-        <v>0.0006320419568828484</v>
+        <v>0.0006303430708153795</v>
       </c>
       <c r="FT2">
-        <v>0.0001284368613986595</v>
+        <v>0.0001265479417726051</v>
       </c>
       <c r="FU2">
-        <v>0.002814910130653977</v>
+        <v>0.002814034941984935</v>
       </c>
       <c r="FV2">
-        <v>0.00529319565764216</v>
+        <v>0.005293255641039698</v>
       </c>
       <c r="FW2">
-        <v>0.0006355799069213763</v>
+        <v>0.000633882355886539</v>
       </c>
       <c r="FX2">
-        <v>0.0002655999328923461</v>
+        <v>0.0002637627712544777</v>
       </c>
       <c r="FY2">
-        <v>0.00230332802508292</v>
+        <v>0.00230225979275943</v>
       </c>
       <c r="FZ2">
-        <v>0.0007014056376382092</v>
+        <v>0.000699732925704419</v>
       </c>
       <c r="GA2">
-        <v>0.0001531710316680111</v>
+        <v>0.000151291445391514</v>
       </c>
       <c r="GB2">
-        <v>3.989555643445702E-05</v>
+        <v>3.797322606769528E-05</v>
       </c>
       <c r="GC2">
-        <v>2.567630927961142E-05</v>
+        <v>2.37486133314418E-05</v>
       </c>
       <c r="GD2">
-        <v>0.0001425688415525547</v>
+        <v>0.0001406852545780216</v>
       </c>
       <c r="GE2">
-        <v>7.952934086606339E-05</v>
+        <v>7.76219661642925E-05</v>
       </c>
       <c r="GF2">
-        <v>0.001550584016885643</v>
+        <v>0.001549231739337305</v>
       </c>
       <c r="GG2">
-        <v>0.005163232356226877</v>
+        <v>0.005163243298443389</v>
       </c>
       <c r="GH2">
-        <v>1.515014716498298E-05</v>
+        <v>1.321847920766805E-05</v>
       </c>
       <c r="GI2">
-        <v>0.0007243434078879983</v>
+        <v>0.0007226793514387252</v>
       </c>
       <c r="GJ2">
-        <v>0.001487895616202975</v>
+        <v>0.001486519683413714</v>
       </c>
       <c r="GK2">
-        <v>0.002236087024350675</v>
+        <v>0.002234993418879124</v>
       </c>
       <c r="GL2">
-        <v>1.152564812551269E-05</v>
+        <v>9.592612476614147E-06</v>
       </c>
       <c r="GM2">
-        <v>0.002747628129921285</v>
+        <v>0.00274672755263298</v>
       </c>
       <c r="GN2">
-        <v>0.005057946355080328</v>
+        <v>0.005057917568005682</v>
       </c>
       <c r="GO2">
-        <v>0.001354244914747538</v>
+        <v>0.001352818549350202</v>
       </c>
       <c r="GP2">
-        <v>0.0002875373531312415</v>
+        <v>0.0002857084694994369</v>
       </c>
       <c r="GQ2">
-        <v>0.0002959222832225522</v>
+        <v>0.0002940965636137451</v>
       </c>
       <c r="GR2">
-        <v>5.065952355167511E-06</v>
+        <v>3.130479163468809E-06</v>
       </c>
       <c r="GS2">
-        <v>0.001059111911533581</v>
+        <v>0.001057574178766535</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.636492387965275E-05</v>
+        <v>7.175872144828085E-06</v>
       </c>
       <c r="C3">
-        <v>1.034364795278463E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.842457691589784E-08</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001156673494720164</v>
+        <v>9.679147309534773E-05</v>
       </c>
       <c r="F3">
-        <v>6.415677470714532E-05</v>
+        <v>4.510025550253772E-05</v>
       </c>
       <c r="G3">
-        <v>7.646541965096039E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001162897234691755</v>
+        <v>9.741602970062942E-05</v>
       </c>
       <c r="I3">
-        <v>0.0002059908090597194</v>
+        <v>0.0001874316887131207</v>
       </c>
       <c r="J3">
-        <v>0.0001150466554748497</v>
+        <v>9.616860238166319E-05</v>
       </c>
       <c r="K3">
-        <v>0.0001647464692479863</v>
+        <v>0.0001460427088111912</v>
       </c>
       <c r="L3">
-        <v>0.0002097401990426046</v>
+        <v>0.0001911942274603645</v>
       </c>
       <c r="M3">
-        <v>7.675648964963175E-05</v>
+        <v>5.77441564815579E-05</v>
       </c>
       <c r="N3">
-        <v>5.916595472992678E-05</v>
+        <v>4.009193318063493E-05</v>
       </c>
       <c r="O3">
-        <v>8.938895959196866E-05</v>
+        <v>7.042092732918762E-05</v>
       </c>
       <c r="P3">
-        <v>6.00583477258533E-05</v>
+        <v>4.098745571637249E-05</v>
       </c>
       <c r="Q3">
-        <v>1.051066645202225E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.921412891229379E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5.377169975454979E-10</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5.635734474274717E-05</v>
+        <v>3.727347365764684E-05</v>
       </c>
       <c r="U3">
-        <v>3.217477985313267E-05</v>
+        <v>1.300610274658108E-05</v>
       </c>
       <c r="V3">
-        <v>7.986633963543631E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.472571693278192E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001089948045024744</v>
+        <v>9.00955281269055E-05</v>
       </c>
       <c r="Y3">
-        <v>0.0001288286094119396</v>
+        <v>0.0001099988883582437</v>
       </c>
       <c r="Z3">
-        <v>5.6792024740763E-05</v>
+        <v>3.77096780382666E-05</v>
       </c>
       <c r="AA3">
-        <v>3.781092982740549E-05</v>
+        <v>1.866201817823208E-05</v>
       </c>
       <c r="AB3">
-        <v>0.0001391963693646141</v>
+        <v>0.0001204030070874567</v>
       </c>
       <c r="AC3">
-        <v>0.0003290863984978283</v>
+        <v>0.0003109589630136955</v>
       </c>
       <c r="AD3">
-        <v>0.0001986789690930955</v>
+        <v>0.0001800942067990903</v>
       </c>
       <c r="AE3">
-        <v>0.0001018749095349744</v>
+        <v>8.29506643453818E-05</v>
       </c>
       <c r="AF3">
-        <v>3.979067681836859E-05</v>
+        <v>2.064870795903365E-05</v>
       </c>
       <c r="AG3">
-        <v>4.721681978447068E-05</v>
+        <v>2.8100893722604E-05</v>
       </c>
       <c r="AH3">
-        <v>7.404922466198953E-05</v>
+        <v>5.502739736565987E-05</v>
       </c>
       <c r="AI3">
-        <v>4.219550480739133E-05</v>
+        <v>2.306196945769255E-05</v>
       </c>
       <c r="AJ3">
-        <v>2.712778387617055E-09</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>5.310622475758747E-05</v>
+        <v>3.401095229498808E-05</v>
       </c>
       <c r="AL3">
-        <v>8.242697962374782E-05</v>
+        <v>6.343453234025979E-05</v>
       </c>
       <c r="AM3">
-        <v>7.802749964383E-05</v>
+        <v>5.901962379040928E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0001197426244534141</v>
+        <v>0.0001008810396896934</v>
       </c>
       <c r="AO3">
-        <v>0.0002509215588546253</v>
+        <v>0.0002325200064975398</v>
       </c>
       <c r="AP3">
-        <v>0.0003279289985031115</v>
+        <v>0.0003097975041241002</v>
       </c>
       <c r="AQ3">
-        <v>0.000450693217942733</v>
+        <v>0.0004329922463422096</v>
       </c>
       <c r="AR3">
-        <v>0.0002639013987953765</v>
+        <v>0.0002455453655380836</v>
       </c>
       <c r="AS3">
-        <v>0.000102983285529915</v>
+        <v>8.40629273125618E-05</v>
       </c>
       <c r="AT3">
-        <v>0.0001251782794286022</v>
+        <v>0.0001063357570048165</v>
       </c>
       <c r="AU3">
-        <v>7.300611466675099E-05</v>
+        <v>5.398062928001463E-05</v>
       </c>
       <c r="AV3">
-        <v>4.048448681520157E-05</v>
+        <v>2.134495108344193E-05</v>
       </c>
       <c r="AW3">
-        <v>5.587896474493082E-05</v>
+        <v>3.67934160253636E-05</v>
       </c>
       <c r="AX3">
-        <v>2.779571787312165E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>7.346706266464691E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>2.764950587378906E-07</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.755480973728114E-08</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.071871795107256E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>3.588169783621179E-05</v>
+        <v>1.672602054863831E-05</v>
       </c>
       <c r="BD3">
-        <v>4.544673679255053E-05</v>
+        <v>2.632460321312446E-05</v>
       </c>
       <c r="BE3">
-        <v>5.210236976216974E-05</v>
+        <v>3.300357687282223E-05</v>
       </c>
       <c r="BF3">
-        <v>0.000157488399281117</v>
+        <v>0.0001387591854633379</v>
       </c>
       <c r="BG3">
-        <v>0.0001711912192185681</v>
+        <v>0.0001525100599246521</v>
       </c>
       <c r="BH3">
-        <v>0.00017960980918014</v>
+        <v>0.0001609581731036382</v>
       </c>
       <c r="BI3">
-        <v>0.0001018749095349744</v>
+        <v>8.29506643453818E-05</v>
       </c>
       <c r="BJ3">
-        <v>6.867991968649864E-05</v>
+        <v>4.963926273355447E-05</v>
       </c>
       <c r="BK3">
-        <v>0.0001354715793816166</v>
+        <v>0.0001166651546100281</v>
       </c>
       <c r="BL3">
-        <v>0.0001062966595147906</v>
+        <v>8.738792099396334E-05</v>
       </c>
       <c r="BM3">
-        <v>6.466928570480588E-05</v>
+        <v>4.561456382892913E-05</v>
       </c>
       <c r="BN3">
-        <v>1.528535493022736E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>2.684056987748159E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>3.334753284777943E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>9.328102957420263E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>5.24763817604625E-05</v>
+        <v>3.337890049664748E-05</v>
       </c>
       <c r="BS3">
-        <v>0.0001534496292995527</v>
+        <v>0.0001347062518884882</v>
       </c>
       <c r="BT3">
-        <v>3.430525184340776E-05</v>
+        <v>1.514404610534555E-05</v>
       </c>
       <c r="BU3">
-        <v>8.775729959941665E-05</v>
+        <v>6.87835452557496E-05</v>
       </c>
       <c r="BV3">
-        <v>0.0002997808586315985</v>
+        <v>0.0002815506513259538</v>
       </c>
       <c r="BW3">
-        <v>0.0002338295889326445</v>
+        <v>0.0002153680966157382</v>
       </c>
       <c r="BX3">
-        <v>9.186462558066806E-05</v>
+        <v>7.290527524984513E-05</v>
       </c>
       <c r="BY3">
-        <v>3.214036385328976E-05</v>
+        <v>1.297156605300555E-05</v>
       </c>
       <c r="BZ3">
-        <v>5.395186175372741E-05</v>
+        <v>3.485955486196643E-05</v>
       </c>
       <c r="CA3">
-        <v>7.474459965881538E-05</v>
+        <v>5.572521097837145E-05</v>
       </c>
       <c r="CB3">
-        <v>1.809108791742011E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>2.863743586927948E-05</v>
+        <v>9.456353624102423E-06</v>
       </c>
       <c r="CD3">
-        <v>1.907941591290871E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1.571651392825926E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>3.084318985921094E-05</v>
+        <v>1.166984298954265E-05</v>
       </c>
       <c r="CG3">
-        <v>0.0001268682994208877</v>
+        <v>0.0001080317037411168</v>
       </c>
       <c r="CH3">
-        <v>0.0002031844590725295</v>
+        <v>0.0001846154971157336</v>
       </c>
       <c r="CI3">
-        <v>1.597070092709898E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.240293889773792E-05</v>
+        <v>3.199992847529436E-06</v>
       </c>
       <c r="CK3">
-        <v>0.0002195655289977553</v>
+        <v>0.0002010540139401537</v>
       </c>
       <c r="CL3">
-        <v>0.0002720417687582184</v>
+        <v>0.0002537142830265019</v>
       </c>
       <c r="CM3">
-        <v>0.0002536754188420547</v>
+        <v>0.0002352835240175856</v>
       </c>
       <c r="CN3">
-        <v>0.06920814968408745</v>
+        <v>0.06943157476154825</v>
       </c>
       <c r="CO3">
-        <v>0.01477287143256668</v>
+        <v>0.01480539701710039</v>
       </c>
       <c r="CP3">
-        <v>0.1423629793501596</v>
+        <v>0.1428429516583316</v>
       </c>
       <c r="CQ3">
-        <v>0.05725984573862755</v>
+        <v>0.05744136921775376</v>
       </c>
       <c r="CR3">
-        <v>0.021651716901167</v>
+        <v>0.02170836596139624</v>
       </c>
       <c r="CS3">
-        <v>0.007203792967117043</v>
+        <v>0.007209774492588487</v>
       </c>
       <c r="CT3">
-        <v>0.03000032286305835</v>
+        <v>0.03008624971327901</v>
       </c>
       <c r="CU3">
-        <v>0.01407537693575051</v>
+        <v>0.0141054564715078</v>
       </c>
       <c r="CV3">
-        <v>0.01350533493835257</v>
+        <v>0.01353341538947677</v>
       </c>
       <c r="CW3">
-        <v>0.01547209442937495</v>
+        <v>0.01550707212437492</v>
       </c>
       <c r="CX3">
-        <v>1.308745494026005E-05</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.08930100959237013</v>
+        <v>0.08959489847365724</v>
       </c>
       <c r="CZ3">
-        <v>0.0003740319982926663</v>
+        <v>0.0003560621828756248</v>
       </c>
       <c r="DA3">
-        <v>0.003661838083284908</v>
+        <v>0.003655398300130539</v>
       </c>
       <c r="DB3">
-        <v>0.01778157191883294</v>
+        <v>0.01782464873807412</v>
       </c>
       <c r="DC3">
-        <v>0.002178287390056831</v>
+        <v>0.002166644931649104</v>
       </c>
       <c r="DD3">
-        <v>0.09553517356391321</v>
+        <v>0.09585092508243151</v>
       </c>
       <c r="DE3">
-        <v>0.005080373976809756</v>
+        <v>0.005078908868011262</v>
       </c>
       <c r="DF3">
-        <v>0.02522348988486303</v>
+        <v>0.02529266482304016</v>
       </c>
       <c r="DG3">
-        <v>0.0002899615786764203</v>
+        <v>0.0002716969360629281</v>
       </c>
       <c r="DH3">
-        <v>0.02499359088591244</v>
+        <v>0.02506195958953482</v>
       </c>
       <c r="DI3">
-        <v>0.00496976497731465</v>
+        <v>0.004967911972971299</v>
       </c>
       <c r="DJ3">
-        <v>0.001137707694806737</v>
+        <v>0.001122416019520653</v>
       </c>
       <c r="DK3">
-        <v>0.002911341986710677</v>
+        <v>0.002902270283065008</v>
       </c>
       <c r="DL3">
-        <v>0.005502783674881593</v>
+        <v>0.005502799917878469</v>
       </c>
       <c r="DM3">
-        <v>0.03518142983940829</v>
+        <v>0.03528552635324335</v>
       </c>
       <c r="DN3">
-        <v>0.002024656190758107</v>
+        <v>0.002012474961924547</v>
       </c>
       <c r="DO3">
-        <v>0.01396588793625029</v>
+        <v>0.01399558350419926</v>
       </c>
       <c r="DP3">
-        <v>0.01120187894886709</v>
+        <v>0.01122188139259431</v>
       </c>
       <c r="DQ3">
-        <v>0.0009289795957595123</v>
+        <v>0.0009129559303091895</v>
       </c>
       <c r="DR3">
-        <v>0.002287802989556928</v>
+        <v>0.002276544592241267</v>
       </c>
       <c r="DS3">
-        <v>0.006833443968807565</v>
+        <v>0.006838126714549131</v>
       </c>
       <c r="DT3">
-        <v>0.0006722667569313223</v>
+        <v>0.0006553428232664469</v>
       </c>
       <c r="DU3">
-        <v>0.0003301356284930389</v>
+        <v>0.0003120118725615874</v>
       </c>
       <c r="DV3">
-        <v>0.004119829981194325</v>
+        <v>0.004114996333323615</v>
       </c>
       <c r="DW3">
-        <v>0.009279906957640263</v>
+        <v>0.009293169223116717</v>
       </c>
       <c r="DX3">
-        <v>0.001137503094807671</v>
+        <v>0.001122210702008289</v>
       </c>
       <c r="DY3">
-        <v>0.001133608294825449</v>
+        <v>0.001118302243322272</v>
       </c>
       <c r="DZ3">
-        <v>0.001956600691068758</v>
+        <v>0.001944180797883717</v>
       </c>
       <c r="EA3">
-        <v>0.0001150466554748497</v>
+        <v>9.616860238166319E-05</v>
       </c>
       <c r="EB3">
-        <v>0.004143585481085888</v>
+        <v>0.004138835141559128</v>
       </c>
       <c r="EC3">
-        <v>0.0001730069792102798</v>
+        <v>0.0001543321876189425</v>
       </c>
       <c r="ED3">
-        <v>0.0002555196688336363</v>
+        <v>0.000237134241623544</v>
       </c>
       <c r="EE3">
-        <v>0.00145746919334713</v>
+        <v>0.001443298892101736</v>
       </c>
       <c r="EF3">
-        <v>0.001171868394650804</v>
+        <v>0.00115669651778383</v>
       </c>
       <c r="EG3">
-        <v>0.0005687090974040291</v>
+        <v>0.0005514219965922691</v>
       </c>
       <c r="EH3">
-        <v>0.0008630727460603555</v>
+        <v>0.0008468179513756077</v>
       </c>
       <c r="EI3">
-        <v>0.008167955962715955</v>
+        <v>0.008177318718758287</v>
       </c>
       <c r="EJ3">
-        <v>0.006638483969697494</v>
+        <v>0.006642483008729613</v>
       </c>
       <c r="EK3">
-        <v>1.590667392739124E-07</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>5.480418274983685E-05</v>
+        <v>3.571486486908481E-05</v>
       </c>
       <c r="EM3">
-        <v>0.002638636887955486</v>
+        <v>0.002628608832716822</v>
       </c>
       <c r="EN3">
-        <v>2.36290538921411E-06</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.002883345786838471</v>
+        <v>0.002874175903105712</v>
       </c>
       <c r="EP3">
-        <v>0.0002588607588183854</v>
+        <v>0.0002404870485022706</v>
       </c>
       <c r="EQ3">
-        <v>0.0001297452994077552</v>
+        <v>0.0001109187931012048</v>
       </c>
       <c r="ER3">
-        <v>7.350073966449319E-05</v>
+        <v>5.4476988881938E-05</v>
       </c>
       <c r="ES3">
-        <v>2.219076489870642E-07</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0006338722971065805</v>
+        <v>0.0006168137176173946</v>
       </c>
       <c r="EU3">
-        <v>0.00142370129350127</v>
+        <v>0.00140941257135008</v>
       </c>
       <c r="EV3">
-        <v>0.003860673182377291</v>
+        <v>0.003854930695550084</v>
       </c>
       <c r="EW3">
-        <v>0.01688385192293074</v>
+        <v>0.01692378052106398</v>
       </c>
       <c r="EX3">
-        <v>0.02354963889250361</v>
+        <v>0.02361294378985537</v>
       </c>
       <c r="EY3">
-        <v>0.01359278493795339</v>
+        <v>0.01362117206814889</v>
       </c>
       <c r="EZ3">
-        <v>7.802749964383E-05</v>
+        <v>5.901962379040928E-05</v>
       </c>
       <c r="FA3">
-        <v>0.008275378462225607</v>
+        <v>0.008285117939051668</v>
       </c>
       <c r="FB3">
-        <v>0.004051105981508027</v>
+        <v>0.004046031324918093</v>
       </c>
       <c r="FC3">
-        <v>0.00660791296983704</v>
+        <v>0.006611804799196331</v>
       </c>
       <c r="FD3">
-        <v>0.007530635965625112</v>
+        <v>0.007537763699303551</v>
       </c>
       <c r="FE3">
-        <v>0.002925062786648046</v>
+        <v>0.002916039200580439</v>
       </c>
       <c r="FF3">
-        <v>6.176207371807635E-07</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>5.164243676426918E-05</v>
+        <v>3.254203093237964E-05</v>
       </c>
       <c r="FH3">
-        <v>0.005134064176564678</v>
+        <v>0.005132787354337641</v>
       </c>
       <c r="FI3">
-        <v>0.007225366967018565</v>
+        <v>0.007231424150514986</v>
       </c>
       <c r="FJ3">
-        <v>0.01254190894275029</v>
+        <v>0.01256661074789452</v>
       </c>
       <c r="FK3">
-        <v>0.0003337101684767223</v>
+        <v>0.0003155989481268321</v>
       </c>
       <c r="FL3">
-        <v>0.01113469794917375</v>
+        <v>0.0111544647953402</v>
       </c>
       <c r="FM3">
-        <v>0.01224663094409814</v>
+        <v>0.01227029723657437</v>
       </c>
       <c r="FN3">
-        <v>0.000691887296841761</v>
+        <v>0.0006750321705981052</v>
       </c>
       <c r="FO3">
-        <v>0.001616244292622374</v>
+        <v>0.001602630800984916</v>
       </c>
       <c r="FP3">
-        <v>0.008968027959063887</v>
+        <v>0.00898019649369896</v>
       </c>
       <c r="FQ3">
-        <v>0.004990584677219615</v>
+        <v>0.004988804685640824</v>
       </c>
       <c r="FR3">
-        <v>0.0005201766576255638</v>
+        <v>0.0005027193580301875</v>
       </c>
       <c r="FS3">
-        <v>0.0001629746992560738</v>
+        <v>0.0001442647253855662</v>
       </c>
       <c r="FT3">
-        <v>0.0003656963783307158</v>
+        <v>0.0003476973306643851</v>
       </c>
       <c r="FU3">
-        <v>0.001084533795049458</v>
+        <v>0.00106905564380832</v>
       </c>
       <c r="FV3">
-        <v>0.006377418470889172</v>
+        <v>0.00638050197733022</v>
       </c>
       <c r="FW3">
-        <v>0.002606083188104083</v>
+        <v>0.002595940970046855</v>
       </c>
       <c r="FX3">
-        <v>0.0004294785280395711</v>
+        <v>0.000411703158481047</v>
       </c>
       <c r="FY3">
-        <v>0.003804841482632144</v>
+        <v>0.003798903199190812</v>
       </c>
       <c r="FZ3">
-        <v>0.00338573028454525</v>
+        <v>0.003378322216843329</v>
       </c>
       <c r="GA3">
-        <v>0.0002527558188462524</v>
+        <v>0.0002343606990695366</v>
       </c>
       <c r="GB3">
-        <v>1.638778692519512E-06</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0004806193178061302</v>
+        <v>0.0004630232942737109</v>
       </c>
       <c r="GD3">
-        <v>0.0003750329982880971</v>
+        <v>0.0003570666932855824</v>
       </c>
       <c r="GE3">
-        <v>0.0002903504386746453</v>
+        <v>0.0002720871597572499</v>
       </c>
       <c r="GF3">
-        <v>0.001517883993071356</v>
+        <v>0.001503925560948397</v>
       </c>
       <c r="GG3">
-        <v>0.007906863963907754</v>
+        <v>0.007915311094425965</v>
       </c>
       <c r="GH3">
-        <v>0.001411733493555899</v>
+        <v>0.001397402801435703</v>
       </c>
       <c r="GI3">
-        <v>0.0003497337684035798</v>
+        <v>0.0003316787413386172</v>
       </c>
       <c r="GJ3">
-        <v>0.0006646390969661401</v>
+        <v>0.0006476884138022938</v>
       </c>
       <c r="GK3">
-        <v>0.001496334893169721</v>
+        <v>0.001482300890343784</v>
       </c>
       <c r="GL3">
-        <v>1.700186492239205E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.002866303286916263</v>
+        <v>0.002857073636710404</v>
       </c>
       <c r="GN3">
-        <v>0.009213220957944662</v>
+        <v>0.009226249361779619</v>
       </c>
       <c r="GO3">
-        <v>0.005913605973006325</v>
+        <v>0.005915062931857225</v>
       </c>
       <c r="GP3">
-        <v>0.0002658813287863388</v>
+        <v>0.0002475322389606484</v>
       </c>
       <c r="GQ3">
-        <v>8.42735996153186E-05</v>
+        <v>6.528762825757842E-05</v>
       </c>
       <c r="GR3">
-        <v>6.168374971843387E-05</v>
+        <v>4.261855784361121E-05</v>
       </c>
       <c r="GS3">
-        <v>0.000343814798430598</v>
+        <v>0.0003257390140846444</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.415775585004219E-05</v>
+        <v>1.128306807650396E-06</v>
       </c>
       <c r="C4">
-        <v>0.0002027567909816529</v>
+        <v>0.0001706646087632571</v>
       </c>
       <c r="D4">
-        <v>0.0001018679555173419</v>
+        <v>6.921491742976222E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001277970969217083</v>
+        <v>9.528820274333927E-05</v>
       </c>
       <c r="F4">
-        <v>0.000218432351830668</v>
+        <v>0.0001864273123596778</v>
       </c>
       <c r="G4">
-        <v>0.0003755204203388251</v>
+        <v>0.0003443886565360103</v>
       </c>
       <c r="H4">
-        <v>0.0002428123431511298</v>
+        <v>0.0002109428356362753</v>
       </c>
       <c r="I4">
-        <v>0.0003342818181052722</v>
+        <v>0.000302920802849676</v>
       </c>
       <c r="J4">
-        <v>0.0003148206870512242</v>
+        <v>0.0002833514845068921</v>
       </c>
       <c r="K4">
-        <v>5.399646692454055E-05</v>
+        <v>2.107730419373086E-05</v>
       </c>
       <c r="L4">
-        <v>1.422279177033061E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>7.991630432840307E-05</v>
+        <v>4.714123378449732E-05</v>
       </c>
       <c r="N4">
-        <v>6.691910362445254E-05</v>
+        <v>3.407177973096434E-05</v>
       </c>
       <c r="O4">
-        <v>1.791769597045291E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.371040882581312E-05</v>
+        <v>6.784729155439533E-07</v>
       </c>
       <c r="Q4">
-        <v>3.303568678926902E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>9.373659907693375E-07</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>4.966074268971035E-05</v>
+        <v>1.671747703043414E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001233375466801715</v>
+        <v>9.080386120635957E-05</v>
       </c>
       <c r="U4">
-        <v>0.000112248836079588</v>
+        <v>7.965350683326754E-05</v>
       </c>
       <c r="V4">
-        <v>0.0001736832894069826</v>
+        <v>0.0001414294833189005</v>
       </c>
       <c r="W4">
-        <v>0.0001141126761805368</v>
+        <v>8.152770829536223E-05</v>
       </c>
       <c r="X4">
-        <v>0.0001710000292616526</v>
+        <v>0.0001387313065359255</v>
       </c>
       <c r="Y4">
-        <v>0.0002634202342672882</v>
+        <v>0.0002316652890489535</v>
       </c>
       <c r="Z4">
-        <v>0.0002304035724790496</v>
+        <v>0.0001984650827836718</v>
       </c>
       <c r="AA4">
-        <v>0.0001710000292616526</v>
+        <v>0.0001387313065359255</v>
       </c>
       <c r="AB4">
-        <v>1.144145961968893E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.638838588762287E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>9.732707027139977E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>3.754330203340914E-05</v>
+        <v>4.532673739999079E-06</v>
       </c>
       <c r="AF4">
-        <v>1.603927486871443E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001403022575990091</v>
+        <v>0.0001078628814473739</v>
       </c>
       <c r="AH4">
-        <v>0.0003070973166329133</v>
+        <v>0.0002755851787369235</v>
       </c>
       <c r="AI4">
-        <v>0.0001552045184061409</v>
+        <v>0.0001228479861132867</v>
       </c>
       <c r="AJ4">
-        <v>8.228284445657891E-05</v>
+        <v>4.95209298571782E-05</v>
       </c>
       <c r="AK4">
-        <v>0.0001045375816619333</v>
+        <v>7.18993844185842E-05</v>
       </c>
       <c r="AL4">
-        <v>0.0001057351757267971</v>
+        <v>7.31036360849267E-05</v>
       </c>
       <c r="AM4">
-        <v>5.082597875282152E-05</v>
+        <v>1.788919081213501E-05</v>
       </c>
       <c r="AN4">
-        <v>9.069854891238778E-05</v>
+        <v>5.798341845134723E-05</v>
       </c>
       <c r="AO4">
-        <v>0.0001036438656135282</v>
+        <v>7.100070007127038E-05</v>
       </c>
       <c r="AP4">
-        <v>5.124316277541691E-05</v>
+        <v>1.830869402204708E-05</v>
       </c>
       <c r="AQ4">
-        <v>5.550885300645396E-05</v>
+        <v>2.259809785222705E-05</v>
       </c>
       <c r="AR4">
-        <v>6.176728834542147E-05</v>
+        <v>2.889132475336903E-05</v>
       </c>
       <c r="AS4">
-        <v>1.896862302737291E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.515288382070598E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.084045258713736E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.03442016434936E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>4.0407205188523E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.702176954677907E-05</v>
+        <v>1.406383344781526E-05</v>
       </c>
       <c r="AY4">
-        <v>9.37174150758947E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1.124477760903629E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>7.349185998044422E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.13766971577983E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>2.66636044441462E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>6.300576341249938E-05</v>
+        <v>3.013668468542741E-05</v>
       </c>
       <c r="BE4">
-        <v>0.0001055460957165562</v>
+        <v>7.291350495111004E-05</v>
       </c>
       <c r="BF4">
-        <v>1.234763066876869E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>2.260898822454128E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>2.5030860355714E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1.991745507876327E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.751844394882874E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>4.271994231378478E-05</v>
+        <v>9.738091724771254E-06</v>
       </c>
       <c r="BL4">
-        <v>6.300576341249938E-05</v>
+        <v>3.013668468542741E-05</v>
       </c>
       <c r="BM4">
-        <v>3.70378040060305E-07</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>3.280616177683756E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>6.521858953234981E-07</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.318210471396523E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>5.208191282084504E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>4.132497223823083E-05</v>
+        <v>8.335366805476571E-06</v>
       </c>
       <c r="BS4">
-        <v>1.523113482494419E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>5.399646692454055E-05</v>
+        <v>2.107730419373086E-05</v>
       </c>
       <c r="BU4">
-        <v>1.130654861238192E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>3.314150479500031E-05</v>
+        <v>1.06406263582679E-07</v>
       </c>
       <c r="BW4">
-        <v>0.0001084546808740901</v>
+        <v>7.583825936115953E-05</v>
       </c>
       <c r="BX4">
-        <v>3.960708714518725E-06</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>6.654032760393739E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>9.881757535212807E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>8.334571451414576E-05</v>
+        <v>5.058970856565993E-05</v>
       </c>
       <c r="CB4">
-        <v>7.951974430692469E-08</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>9.19381649795275E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>7.2277233914658E-05</v>
+        <v>3.945969665521393E-05</v>
       </c>
       <c r="CE4">
-        <v>0.0002065160511852608</v>
+        <v>0.0001744447672470292</v>
       </c>
       <c r="CF4">
-        <v>8.522216461577749E-05</v>
+        <v>5.247659012928531E-05</v>
       </c>
       <c r="CG4">
-        <v>6.848917370949021E-07</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>9.764958528886772E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>5.183744880760446E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.753861694992135E-07</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>3.208252173764398E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.564366338890446E-06</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0004883786564514193</v>
+        <v>0.0004578742881757526</v>
       </c>
       <c r="CN4">
-        <v>0.07563008409625407</v>
+        <v>0.07601730351597177</v>
       </c>
       <c r="CO4">
-        <v>0.04059416619864913</v>
+        <v>0.04078661579973746</v>
       </c>
       <c r="CP4">
-        <v>0.1180461413935799</v>
+        <v>0.1186691579118899</v>
       </c>
       <c r="CQ4">
-        <v>0.0001953418605800476</v>
+        <v>0.0001632084576733944</v>
       </c>
       <c r="CR4">
-        <v>0.03248221175929187</v>
+        <v>0.03262956581301931</v>
       </c>
       <c r="CS4">
-        <v>0.007653760714540707</v>
+        <v>0.007663089758591868</v>
       </c>
       <c r="CT4">
-        <v>0.00311577246875554</v>
+        <v>0.003099874168966104</v>
       </c>
       <c r="CU4">
-        <v>0.047173480554996</v>
+        <v>0.04740250553189255</v>
       </c>
       <c r="CV4">
-        <v>1.14231806186989E-09</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01633914088495568</v>
+        <v>0.01639675323431264</v>
       </c>
       <c r="CX4">
-        <v>0.04251284030256779</v>
+        <v>0.04271595609508632</v>
       </c>
       <c r="CY4">
-        <v>0.0562273670453699</v>
+        <v>0.05650672390838329</v>
       </c>
       <c r="CZ4">
-        <v>0.0060220393261639</v>
+        <v>0.00602229739111879</v>
       </c>
       <c r="DA4">
-        <v>0.004433490240125377</v>
+        <v>0.004424917327159957</v>
       </c>
       <c r="DB4">
-        <v>0.01662165790025728</v>
+        <v>0.01668084080323841</v>
       </c>
       <c r="DC4">
-        <v>0.04163023225476423</v>
+        <v>0.04182844149938258</v>
       </c>
       <c r="DD4">
-        <v>0.06324408342540719</v>
+        <v>0.06356244724638606</v>
       </c>
       <c r="DE4">
-        <v>0.01183254064087054</v>
+        <v>0.01186510013690307</v>
       </c>
       <c r="DF4">
-        <v>0.018426174997993</v>
+        <v>0.01849538947682342</v>
       </c>
       <c r="DG4">
-        <v>0.01001706404254124</v>
+        <v>0.01003953103724938</v>
       </c>
       <c r="DH4">
-        <v>0.01834553099362518</v>
+        <v>0.01841429716057891</v>
       </c>
       <c r="DI4">
-        <v>1.776372596211363E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.00187851150174338</v>
+        <v>0.001855735086334242</v>
       </c>
       <c r="DK4">
-        <v>0.000198209040735339</v>
+        <v>0.0001660915769047063</v>
       </c>
       <c r="DL4">
-        <v>0.02783876950779514</v>
+        <v>0.02796030998336022</v>
       </c>
       <c r="DM4">
-        <v>0.02360876727869102</v>
+        <v>0.02370679254996283</v>
       </c>
       <c r="DN4">
-        <v>0.0006332882642999703</v>
+        <v>0.0006035894698391755</v>
       </c>
       <c r="DO4">
-        <v>0.01063526357602398</v>
+        <v>0.01066116723282744</v>
       </c>
       <c r="DP4">
-        <v>0.002580866139784102</v>
+        <v>0.002561994217069133</v>
       </c>
       <c r="DQ4">
-        <v>3.253411876210324E-05</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004889894564845012</v>
+        <v>0.004883858870622001</v>
       </c>
       <c r="DS4">
-        <v>0.00282521715301857</v>
+        <v>0.002807703613511046</v>
       </c>
       <c r="DT4">
-        <v>0.0003777871804615967</v>
+        <v>0.0003466680179115671</v>
       </c>
       <c r="DU4">
-        <v>0.0004205750827790623</v>
+        <v>0.0003896937844687613</v>
       </c>
       <c r="DV4">
-        <v>0.01031549955870501</v>
+        <v>0.01033962560032398</v>
       </c>
       <c r="DW4">
-        <v>0.00109127405910526</v>
+        <v>0.001064121275011591</v>
       </c>
       <c r="DX4">
-        <v>0.00433417823474647</v>
+        <v>0.004325053231742139</v>
       </c>
       <c r="DY4">
-        <v>0.0007675980415744164</v>
+        <v>0.0007386458949119281</v>
       </c>
       <c r="DZ4">
-        <v>0.005217827282606407</v>
+        <v>0.005213614614574622</v>
       </c>
       <c r="EA4">
-        <v>0.0008838437478704816</v>
+        <v>0.0008555378281799225</v>
       </c>
       <c r="EB4">
-        <v>0.001182452164043622</v>
+        <v>0.001155806252440455</v>
       </c>
       <c r="EC4">
-        <v>0.0004387314537624423</v>
+        <v>0.0004079510893878165</v>
       </c>
       <c r="ED4">
-        <v>4.245888229964533E-05</v>
+        <v>9.475580439631738E-06</v>
       </c>
       <c r="EE4">
-        <v>0.002514003136162689</v>
+        <v>0.002494759512180282</v>
       </c>
       <c r="EF4">
-        <v>3.490758689065432E-05</v>
+        <v>1.882306269258644E-06</v>
       </c>
       <c r="EG4">
-        <v>0.0007174780888598344</v>
+        <v>0.0006882473180114903</v>
       </c>
       <c r="EH4">
-        <v>0.001143617661940279</v>
+        <v>0.00111675586363041</v>
       </c>
       <c r="EI4">
-        <v>0.007787172221766501</v>
+        <v>0.007797242920000703</v>
       </c>
       <c r="EJ4">
-        <v>0.0005076854274971068</v>
+        <v>0.0004772883884001954</v>
       </c>
       <c r="EK4">
-        <v>4.158963525256543E-06</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.002253220522038258</v>
+        <v>0.002232527169163257</v>
       </c>
       <c r="EM4">
-        <v>0.0005076854274971068</v>
+        <v>0.0004772883884001954</v>
       </c>
       <c r="EN4">
-        <v>0.001354324573352524</v>
+        <v>0.001328634125741662</v>
       </c>
       <c r="EO4">
-        <v>0.001241786067257247</v>
+        <v>0.00121547000154541</v>
       </c>
       <c r="EP4">
-        <v>0.0001929009304478427</v>
+        <v>0.0001607539580517151</v>
       </c>
       <c r="EQ4">
-        <v>9.49177391409063E-05</v>
+        <v>6.222606377865816E-05</v>
       </c>
       <c r="ER4">
-        <v>1.94807190551089E-05</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0001965680806464618</v>
+        <v>0.0001644414944774386</v>
       </c>
       <c r="ET4">
-        <v>7.96556743142869E-06</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0002229304320742916</v>
+        <v>0.0001909503980926907</v>
       </c>
       <c r="EV4">
-        <v>0.00502144577197005</v>
+        <v>0.005016141390248315</v>
       </c>
       <c r="EW4">
-        <v>0.01681798991089095</v>
+        <v>0.01687826425238424</v>
       </c>
       <c r="EX4">
-        <v>0.0233598382652086</v>
+        <v>0.02345647970349652</v>
       </c>
       <c r="EY4">
-        <v>0.002507229435795813</v>
+        <v>0.002487948155817187</v>
       </c>
       <c r="EZ4">
-        <v>0.005704576908969594</v>
+        <v>0.005703070153673471</v>
       </c>
       <c r="FA4">
-        <v>0.01383434124929147</v>
+        <v>0.01387802904921413</v>
       </c>
       <c r="FB4">
-        <v>0.007405464001092535</v>
+        <v>0.007413412727208658</v>
       </c>
       <c r="FC4">
-        <v>0.008929042483612138</v>
+        <v>0.008945461006511529</v>
       </c>
       <c r="FD4">
-        <v>0.004844325262376901</v>
+        <v>0.004838036241701799</v>
       </c>
       <c r="FE4">
-        <v>0.0004263613930924587</v>
+        <v>0.0003955122617319024</v>
       </c>
       <c r="FF4">
-        <v>0.0007174780888598344</v>
+        <v>0.0006882473180114903</v>
       </c>
       <c r="FG4">
-        <v>0.0009109590793390942</v>
+        <v>0.0008828038977627084</v>
       </c>
       <c r="FH4">
-        <v>0.004110311822621484</v>
+        <v>0.004099942313318953</v>
       </c>
       <c r="FI4">
-        <v>0.00813627644067458</v>
+        <v>0.008148287860587551</v>
       </c>
       <c r="FJ4">
-        <v>0.003224273174632123</v>
+        <v>0.003208978046218603</v>
       </c>
       <c r="FK4">
-        <v>0.003894877810953211</v>
+        <v>0.003883310672306364</v>
       </c>
       <c r="FL4">
-        <v>0.02604823541081677</v>
+        <v>0.02615982204408956</v>
       </c>
       <c r="FM4">
-        <v>0.009679120524237641</v>
+        <v>0.00969970884124254</v>
       </c>
       <c r="FN4">
-        <v>0.001010824354747967</v>
+        <v>0.0009832243389199318</v>
       </c>
       <c r="FO4">
-        <v>0.009872548534714032</v>
+        <v>0.009894212146467265</v>
       </c>
       <c r="FP4">
-        <v>0.01047925556757432</v>
+        <v>0.01050429195292226</v>
       </c>
       <c r="FQ4">
-        <v>0.003887591910558594</v>
+        <v>0.003875984268520269</v>
       </c>
       <c r="FR4">
-        <v>0.0001752259694905368</v>
+        <v>0.0001429807393878464</v>
       </c>
       <c r="FS4">
-        <v>1.751844394882874E-05</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.000182500819884555</v>
+        <v>0.0001502960317447652</v>
       </c>
       <c r="FU4">
-        <v>0.006563936355513965</v>
+        <v>0.006567206905725579</v>
       </c>
       <c r="FV4">
-        <v>0.009092574492469311</v>
+        <v>0.009109902113848677</v>
       </c>
       <c r="FW4">
-        <v>0.00173534169398906</v>
+        <v>0.001711769376569561</v>
       </c>
       <c r="FX4">
-        <v>0.003023561963761262</v>
+        <v>0.003007151052217628</v>
       </c>
       <c r="FY4">
-        <v>0.006547386654617605</v>
+        <v>0.006550565202608773</v>
       </c>
       <c r="FZ4">
-        <v>0.003531356991264305</v>
+        <v>0.003517768986935396</v>
       </c>
       <c r="GA4">
-        <v>7.784170421603919E-05</v>
+        <v>4.50551006650978E-05</v>
       </c>
       <c r="GB4">
-        <v>0.0005791166313659423</v>
+        <v>0.0005491166888332673</v>
       </c>
       <c r="GC4">
-        <v>0.0008300006049542455</v>
+        <v>0.0008013953633161102</v>
       </c>
       <c r="GD4">
-        <v>0.0007456157903838202</v>
+        <v>0.0007165414411550977</v>
       </c>
       <c r="GE4">
-        <v>3.892080910801727E-05</v>
+        <v>5.917838578958245E-06</v>
       </c>
       <c r="GF4">
-        <v>0.003369066382474369</v>
+        <v>0.003354576180790973</v>
       </c>
       <c r="GG4">
-        <v>0.005133799978055345</v>
+        <v>0.005129120189883733</v>
       </c>
       <c r="GH4">
-        <v>0.0001107073759960999</v>
+        <v>7.810347754654741E-05</v>
       </c>
       <c r="GI4">
-        <v>0.001011409254779647</v>
+        <v>0.0009838124904968802</v>
       </c>
       <c r="GJ4">
-        <v>0.001592446886249634</v>
+        <v>0.001568080195585289</v>
       </c>
       <c r="GK4">
-        <v>0.0002608814141297814</v>
+        <v>0.0002291123552370409</v>
       </c>
       <c r="GL4">
-        <v>0.0005495488597645016</v>
+        <v>0.0005193845456423932</v>
       </c>
       <c r="GM4">
-        <v>0.01003276354339155</v>
+        <v>0.01005531781393309</v>
       </c>
       <c r="GN4">
-        <v>0.01237865967044928</v>
+        <v>0.01241425512245852</v>
       </c>
       <c r="GO4">
-        <v>0.004298439232810785</v>
+        <v>0.004289115551440288</v>
       </c>
       <c r="GP4">
-        <v>0.0001675808290764629</v>
+        <v>0.00013529309851421</v>
       </c>
       <c r="GQ4">
-        <v>0.000114737366214371</v>
+        <v>8.215587107293751E-05</v>
       </c>
       <c r="GR4">
-        <v>0.0003302208978853259</v>
+        <v>0.000298837307377184</v>
       </c>
       <c r="GS4">
-        <v>0.0002874654155696162</v>
+        <v>0.000255844141049302</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.054706575050563E-05</v>
+        <v>3.16965474021801E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001556879167213883</v>
+        <v>0.0001470320164696676</v>
       </c>
       <c r="D5">
-        <v>0.0002319843900152742</v>
+        <v>0.0002234574507212405</v>
       </c>
       <c r="E5">
-        <v>9.45553880821632E-05</v>
+        <v>8.57961578978939E-05</v>
       </c>
       <c r="F5">
-        <v>3.167327436740462E-05</v>
+        <v>2.28077569950656E-05</v>
       </c>
       <c r="G5">
-        <v>3.323399643478441E-05</v>
+        <v>2.437111709017856E-05</v>
       </c>
       <c r="H5">
-        <v>2.87720912421542E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.87542071048259E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.498254194199485E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.904003384405327E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.299856956117672E-05</v>
+        <v>4.101487062530234E-06</v>
       </c>
       <c r="M5">
-        <v>1.241263953588083E-05</v>
+        <v>3.51456666252976E-06</v>
       </c>
       <c r="N5">
-        <v>3.499414151077373E-05</v>
+        <v>2.613423727084662E-05</v>
       </c>
       <c r="O5">
-        <v>5.110122220615168E-05</v>
+        <v>4.226854313748534E-05</v>
       </c>
       <c r="P5">
-        <v>4.399501789936128E-05</v>
+        <v>3.515032749028352E-05</v>
       </c>
       <c r="Q5">
-        <v>8.528697368202544E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.907572082354065E-05</v>
+        <v>1.018891029701776E-05</v>
       </c>
       <c r="S5">
-        <v>4.166424179873657E-05</v>
+        <v>3.281561176958053E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001033732744628507</v>
+        <v>9.462894880854633E-05</v>
       </c>
       <c r="U5">
-        <v>6.575195883865607E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6.470417679342103E-05</v>
+        <v>5.589449026917009E-05</v>
       </c>
       <c r="W5">
-        <v>0.0001554692067119462</v>
+        <v>0.0001468129367832134</v>
       </c>
       <c r="X5">
-        <v>7.836043738299171E-05</v>
+        <v>6.957383350421604E-05</v>
       </c>
       <c r="Y5">
-        <v>6.647930287005712E-05</v>
+        <v>5.767261677228692E-05</v>
       </c>
       <c r="Z5">
-        <v>0.0001171768650587819</v>
+        <v>0.0001084558710761253</v>
       </c>
       <c r="AA5">
-        <v>0.0001095925807313517</v>
+        <v>0.0001008587673282421</v>
       </c>
       <c r="AB5">
-        <v>2.543959409828299E-05</v>
+        <v>1.656354017893577E-05</v>
       </c>
       <c r="AC5">
-        <v>3.250515140331857E-05</v>
+        <v>2.364104012033857E-05</v>
       </c>
       <c r="AD5">
-        <v>2.00892308672961E-05</v>
+        <v>1.120413343733227E-05</v>
       </c>
       <c r="AE5">
-        <v>4.268818584294248E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.34991785827891E-07</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.520230924664839E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>7.872896339890177E-06</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0002103943190831836</v>
+        <v>0.0002018308869330095</v>
       </c>
       <c r="AJ5">
-        <v>0.0001772398876518341</v>
+        <v>0.0001686204158573047</v>
       </c>
       <c r="AK5">
-        <v>9.269964000204648E-05</v>
+        <v>8.393727311906352E-05</v>
       </c>
       <c r="AL5">
-        <v>0.0002192282494645637</v>
+        <v>0.0002106797489629042</v>
       </c>
       <c r="AM5">
-        <v>0.0003244310340063983</v>
+        <v>0.0003160603536746646</v>
       </c>
       <c r="AN5">
-        <v>0.0004601224698644947</v>
+        <v>0.000451981143482724</v>
       </c>
       <c r="AO5">
-        <v>0.0002787846720357448</v>
+        <v>0.0002703368374359234</v>
       </c>
       <c r="AP5">
-        <v>0.0001077759746529249</v>
+        <v>9.903909071130277E-05</v>
       </c>
       <c r="AQ5">
-        <v>5.735315647606137E-05</v>
+        <v>4.853104480842993E-05</v>
       </c>
       <c r="AR5">
-        <v>1.02601374429526E-05</v>
+        <v>1.358426279136147E-06</v>
       </c>
       <c r="AS5">
-        <v>5.412121233653127E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>8.055369347767936E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.108365791022769E-05</v>
+        <v>1.220024132156976E-05</v>
       </c>
       <c r="AV5">
-        <v>7.982239344610754E-05</v>
+        <v>7.103826065473416E-05</v>
       </c>
       <c r="AW5">
-        <v>3.974159471573168E-05</v>
+        <v>3.088971491108256E-05</v>
       </c>
       <c r="AX5">
-        <v>2.641612914044215E-05</v>
+        <v>1.754172582024866E-05</v>
       </c>
       <c r="AY5">
-        <v>5.136793221766614E-05</v>
+        <v>4.25357039585461E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.0001836286579276513</v>
+        <v>0.0001750199848227289</v>
       </c>
       <c r="BA5">
-        <v>0.0001777363076732657</v>
+        <v>0.000169117674958167</v>
       </c>
       <c r="BB5">
-        <v>4.237464782940636E-05</v>
+        <v>3.352721857189946E-05</v>
       </c>
       <c r="BC5">
-        <v>2.72677941772104E-05</v>
+        <v>1.839483039326319E-05</v>
       </c>
       <c r="BD5">
-        <v>1.41078666090675E-05</v>
+        <v>5.212659112023048E-06</v>
       </c>
       <c r="BE5">
-        <v>7.264770313636045E-05</v>
+        <v>6.385144324535182E-05</v>
       </c>
       <c r="BF5">
-        <v>5.496336237288873E-05</v>
+        <v>4.613721132934756E-05</v>
       </c>
       <c r="BG5">
-        <v>3.08095813301171E-05</v>
+        <v>2.194260409107091E-05</v>
       </c>
       <c r="BH5">
-        <v>4.638922200272432E-05</v>
+        <v>3.754857842360787E-05</v>
       </c>
       <c r="BI5">
-        <v>2.755468518959611E-05</v>
+        <v>1.868220632635508E-05</v>
       </c>
       <c r="BJ5">
-        <v>5.37140363189526E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.635326656945014E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>1.709339373795924E-07</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.57643379757467E-05</v>
+        <v>3.692263817949355E-05</v>
       </c>
       <c r="BN5">
-        <v>6.774520692470894E-05</v>
+        <v>5.894066053526575E-05</v>
       </c>
       <c r="BO5">
-        <v>4.142407678836812E-05</v>
+        <v>3.257504081764751E-05</v>
       </c>
       <c r="BP5">
-        <v>9.968513430362557E-05</v>
+        <v>9.093457472963288E-05</v>
       </c>
       <c r="BQ5">
-        <v>0.0001834950279218822</v>
+        <v>0.0001748861289473648</v>
       </c>
       <c r="BR5">
-        <v>0.0002688112516051705</v>
+        <v>0.0002603465593211781</v>
       </c>
       <c r="BS5">
-        <v>0.00012705725548534</v>
+        <v>0.0001183529619418613</v>
       </c>
       <c r="BT5">
-        <v>0.0001016091893866912</v>
+        <v>9.286188196807932E-05</v>
       </c>
       <c r="BU5">
-        <v>0.0001732502474795926</v>
+        <v>0.0001646240321516438</v>
       </c>
       <c r="BV5">
-        <v>0.0002139862592382555</v>
+        <v>0.0002054288984046489</v>
       </c>
       <c r="BW5">
-        <v>0.0001584348468399793</v>
+        <v>0.0001497835896172677</v>
       </c>
       <c r="BX5">
-        <v>0.0001109274787889822</v>
+        <v>0.0001021959217120761</v>
       </c>
       <c r="BY5">
-        <v>3.434883348291437E-05</v>
+        <v>2.548783850395722E-05</v>
       </c>
       <c r="BZ5">
-        <v>9.68011741791187E-07</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>2.456557506054968E-07</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>7.885111940417552E-07</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>1.770825076450397E-05</v>
+        <v>8.819128856592034E-06</v>
       </c>
       <c r="CD5">
-        <v>7.056117304628038E-05</v>
+        <v>6.176138637471371E-05</v>
       </c>
       <c r="CE5">
-        <v>0.0001346918058149402</v>
+        <v>0.0001260004166545805</v>
       </c>
       <c r="CF5">
-        <v>0.0001976227585318073</v>
+        <v>0.0001890377391101807</v>
       </c>
       <c r="CG5">
-        <v>0.0003251025740353902</v>
+        <v>0.0003167330287816165</v>
       </c>
       <c r="CH5">
-        <v>0.000278492032023111</v>
+        <v>0.0002700437027852721</v>
       </c>
       <c r="CI5">
-        <v>0.0001530870466091031</v>
+        <v>0.000144426750207914</v>
       </c>
       <c r="CJ5">
-        <v>0.0001784675877048366</v>
+        <v>0.0001698501910438979</v>
       </c>
       <c r="CK5">
-        <v>0.0002895735525015245</v>
+        <v>0.000281143953926216</v>
       </c>
       <c r="CL5">
-        <v>0.0001623767370101594</v>
+        <v>0.000153732142610898</v>
       </c>
       <c r="CM5">
-        <v>8.631370372635163E-05</v>
+        <v>7.754054294396167E-05</v>
       </c>
       <c r="CN5">
-        <v>0.0008504871367173923</v>
+        <v>0.0008430056285305026</v>
       </c>
       <c r="CO5">
-        <v>0.08661377373930632</v>
+        <v>0.08675125457468752</v>
       </c>
       <c r="CP5">
-        <v>0.004697665802808522</v>
+        <v>0.004696687030904886</v>
       </c>
       <c r="CQ5">
-        <v>0.2018737087153301</v>
+        <v>0.2022060089303727</v>
       </c>
       <c r="CR5">
-        <v>0.02911618525700949</v>
+        <v>0.02915648015763833</v>
       </c>
       <c r="CS5">
-        <v>0.01873744080893636</v>
+        <v>0.01876019292199155</v>
       </c>
       <c r="CT5">
-        <v>3.157466736314755E-05</v>
+        <v>2.270898331922916E-05</v>
       </c>
       <c r="CU5">
-        <v>0.01591122068692225</v>
+        <v>0.01592919575016328</v>
       </c>
       <c r="CV5">
-        <v>0.009859338425649233</v>
+        <v>0.009867084227975191</v>
       </c>
       <c r="CW5">
-        <v>0.01000953343213348</v>
+        <v>0.01001753310323003</v>
       </c>
       <c r="CX5">
-        <v>0.01621680170011485</v>
+        <v>0.01623529327504261</v>
       </c>
       <c r="CY5">
-        <v>0.0019496601841711</v>
+        <v>0.001944036565382551</v>
       </c>
       <c r="CZ5">
-        <v>0.07213993311443892</v>
+        <v>0.07225294938064923</v>
       </c>
       <c r="DA5">
-        <v>0.0007348562717253547</v>
+        <v>0.0007271793171902423</v>
       </c>
       <c r="DB5">
-        <v>0.0004357698188131375</v>
+        <v>0.0004275873300936306</v>
       </c>
       <c r="DC5">
-        <v>0.02227300896157458</v>
+        <v>0.02230173710779681</v>
       </c>
       <c r="DD5">
-        <v>0.008110085350130147</v>
+        <v>0.008114874458101608</v>
       </c>
       <c r="DE5">
-        <v>0.0852455386802366</v>
+        <v>0.08538070684117899</v>
       </c>
       <c r="DF5">
-        <v>0.0002950259127369148</v>
+        <v>0.0002866055300737875</v>
       </c>
       <c r="DG5">
-        <v>0.02974299328407016</v>
+        <v>0.02978434765389812</v>
       </c>
       <c r="DH5">
-        <v>3.499090151063385E-07</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01949748284174904</v>
+        <v>0.0195215196242549</v>
       </c>
       <c r="DJ5">
-        <v>0.002553669810247519</v>
+        <v>0.002549067125408708</v>
       </c>
       <c r="DK5">
-        <v>0.002409500604023418</v>
+        <v>0.002404654235589534</v>
       </c>
       <c r="DL5">
-        <v>0.005385949932523255</v>
+        <v>0.005386134540481057</v>
       </c>
       <c r="DM5">
-        <v>0.005803199250536822</v>
+        <v>0.005804089118768425</v>
       </c>
       <c r="DN5">
-        <v>0.03967417171282089</v>
+        <v>0.03973231236680905</v>
       </c>
       <c r="DO5">
-        <v>6.850503295751231E-05</v>
+        <v>5.970177087242338E-05</v>
       </c>
       <c r="DP5">
-        <v>0.01481236763948235</v>
+        <v>0.01482848535420861</v>
       </c>
       <c r="DQ5">
-        <v>0.007663303830841611</v>
+        <v>0.007667337761409493</v>
       </c>
       <c r="DR5">
-        <v>0.0004039769874405713</v>
+        <v>0.0003957407605362653</v>
       </c>
       <c r="DS5">
-        <v>0.00315035813600786</v>
+        <v>0.003146764010209968</v>
       </c>
       <c r="DT5">
-        <v>0.005774765549309276</v>
+        <v>0.005775607357162954</v>
       </c>
       <c r="DU5">
-        <v>3.635326656945014E-06</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0001669471272074731</v>
+        <v>0.0001583102579607832</v>
       </c>
       <c r="DW5">
-        <v>0.003414008447390222</v>
+        <v>0.003410859959446644</v>
       </c>
       <c r="DX5">
-        <v>0.005638167543412041</v>
+        <v>0.005638778464975723</v>
       </c>
       <c r="DY5">
-        <v>0.002633198713680956</v>
+        <v>0.00262873045345062</v>
       </c>
       <c r="DZ5">
-        <v>0.002820597421771368</v>
+        <v>0.002816445914279676</v>
       </c>
       <c r="EA5">
-        <v>0.001556786567209886</v>
+        <v>0.00155049888944579</v>
       </c>
       <c r="EB5">
-        <v>0.0008456997365107098</v>
+        <v>0.0008382101363676808</v>
       </c>
       <c r="EC5">
-        <v>0.00513094262151403</v>
+        <v>0.005130696200544476</v>
       </c>
       <c r="ED5">
-        <v>0.0003485513550477254</v>
+        <v>0.0003402214443553593</v>
       </c>
       <c r="EE5">
-        <v>0.0006449483578438331</v>
+        <v>0.0006371194354630623</v>
       </c>
       <c r="EF5">
-        <v>0.002180710294146039</v>
+        <v>0.002175477210360875</v>
       </c>
       <c r="EG5">
-        <v>0.0005971615557807722</v>
+        <v>0.000589251861229378</v>
       </c>
       <c r="EH5">
-        <v>0.0005741942247892223</v>
+        <v>0.0005662457094526421</v>
       </c>
       <c r="EI5">
-        <v>0.001231649253172996</v>
+        <v>0.001224812008468414</v>
       </c>
       <c r="EJ5">
-        <v>0.008764292378373697</v>
+        <v>0.008770187267009002</v>
       </c>
       <c r="EK5">
-        <v>0.003435878648334406</v>
+        <v>0.003432767126739819</v>
       </c>
       <c r="EL5">
-        <v>4.237464782940636E-05</v>
+        <v>3.352721857189946E-05</v>
       </c>
       <c r="EM5">
-        <v>2.376022402578091E-05</v>
+        <v>1.488133153259781E-05</v>
       </c>
       <c r="EN5">
-        <v>0.0009023932389582925</v>
+        <v>0.0008949994656347039</v>
       </c>
       <c r="EO5">
-        <v>0.0004859584209798894</v>
+        <v>0.0004778607641001908</v>
       </c>
       <c r="EP5">
-        <v>0.004254210883663601</v>
+        <v>0.004252482557179065</v>
       </c>
       <c r="EQ5">
-        <v>0.0008700625375625053</v>
+        <v>0.0008626141169133628</v>
       </c>
       <c r="ER5">
-        <v>1.698256373317447E-05</v>
+        <v>8.092215224733035E-06</v>
       </c>
       <c r="ES5">
-        <v>9.431559407181076E-06</v>
+        <v>5.284477301770696E-07</v>
       </c>
       <c r="ET5">
-        <v>0.0002937848726833364</v>
+        <v>0.0002853623923385348</v>
       </c>
       <c r="EU5">
-        <v>0.002088761090176391</v>
+        <v>0.002083372588232424</v>
       </c>
       <c r="EV5">
-        <v>0.002398753603559447</v>
+        <v>0.002393889069889186</v>
       </c>
       <c r="EW5">
-        <v>0.004725876204026426</v>
+        <v>0.004724945115065405</v>
       </c>
       <c r="EX5">
-        <v>0.01718818274205149</v>
+        <v>0.01720831620452712</v>
       </c>
       <c r="EY5">
-        <v>0.02442860505463638</v>
+        <v>0.02446097672099194</v>
       </c>
       <c r="EZ5">
-        <v>0.009193569396906527</v>
+        <v>0.009200189875769442</v>
       </c>
       <c r="FA5">
-        <v>0.00203852848800774</v>
+        <v>0.002033055079852474</v>
       </c>
       <c r="FB5">
-        <v>0.01326966457288048</v>
+        <v>0.01328317471668889</v>
       </c>
       <c r="FC5">
-        <v>0.005815728851077752</v>
+        <v>0.005816639897605225</v>
       </c>
       <c r="FD5">
-        <v>0.009620419415334576</v>
+        <v>0.009627761382161334</v>
       </c>
       <c r="FE5">
-        <v>0.008542559368800997</v>
+        <v>0.008548079470764903</v>
       </c>
       <c r="FF5">
-        <v>0.003591783455065158</v>
+        <v>0.003588935453294174</v>
       </c>
       <c r="FG5">
-        <v>0.0003383961346093023</v>
+        <v>0.0003300490589432916</v>
       </c>
       <c r="FH5">
-        <v>0.0009677323817791263</v>
+        <v>0.0009604490486642243</v>
       </c>
       <c r="FI5">
-        <v>0.008219013354832808</v>
+        <v>0.008223986579568767</v>
       </c>
       <c r="FJ5">
-        <v>0.009885580426782158</v>
+        <v>0.009893370584940721</v>
       </c>
       <c r="FK5">
-        <v>0.01352017058369537</v>
+        <v>0.01353410414805871</v>
       </c>
       <c r="FL5">
-        <v>1.848209079791234E-05</v>
+        <v>9.594276881674154E-06</v>
       </c>
       <c r="FM5">
-        <v>0.01693053073092809</v>
+        <v>0.01695022869424275</v>
       </c>
       <c r="FN5">
-        <v>0.01414970461087374</v>
+        <v>0.01416470225208803</v>
       </c>
       <c r="FO5">
-        <v>0.0009002214988645338</v>
+        <v>0.000892824054733236</v>
       </c>
       <c r="FP5">
-        <v>0.001870632480759301</v>
+        <v>0.001864875284521156</v>
       </c>
       <c r="FQ5">
-        <v>0.007543849325684498</v>
+        <v>0.007547681346954087</v>
       </c>
       <c r="FR5">
-        <v>0.005104209220359891</v>
+        <v>0.005103917612963412</v>
       </c>
       <c r="FS5">
-        <v>0.0008523737367988411</v>
+        <v>0.0008448954174586016</v>
       </c>
       <c r="FT5">
-        <v>0.0006754713291615767</v>
+        <v>0.0006676939985706049</v>
       </c>
       <c r="FU5">
-        <v>0.0006648323287022676</v>
+        <v>0.0006570370154231213</v>
       </c>
       <c r="FV5">
-        <v>0.001517728265523653</v>
+        <v>0.001511374569033218</v>
       </c>
       <c r="FW5">
-        <v>0.004073255175851347</v>
+        <v>0.004071220986980636</v>
       </c>
       <c r="FX5">
-        <v>0.001185927751199098</v>
+        <v>0.001179013225220208</v>
       </c>
       <c r="FY5">
-        <v>0.0004199024881281101</v>
+        <v>0.0004116931794774486</v>
       </c>
       <c r="FZ5">
-        <v>0.003217825338920568</v>
+        <v>0.003214345250308465</v>
       </c>
       <c r="GA5">
-        <v>0.001141070749262523</v>
+        <v>0.001134080403240071</v>
       </c>
       <c r="GB5">
-        <v>4.527632195467798E-05</v>
+        <v>3.643379728394865E-05</v>
       </c>
       <c r="GC5">
-        <v>4.601675198664397E-05</v>
+        <v>3.717547883596399E-05</v>
       </c>
       <c r="GD5">
-        <v>0.0002299025299253957</v>
+        <v>0.0002213720717443235</v>
       </c>
       <c r="GE5">
-        <v>0.0001640007470802714</v>
+        <v>0.0001553588976819897</v>
       </c>
       <c r="GF5">
-        <v>6.008228259388372E-05</v>
+        <v>5.126478386185217E-05</v>
       </c>
       <c r="GG5">
-        <v>0.001868263180657013</v>
+        <v>0.00186250197968317</v>
       </c>
       <c r="GH5">
-        <v>0.00804940234751033</v>
+        <v>0.008054088885365568</v>
       </c>
       <c r="GI5">
-        <v>0.0003897860768279186</v>
+        <v>0.0003815258635800235</v>
       </c>
       <c r="GJ5">
-        <v>0.0006666986287828399</v>
+        <v>0.0006589064700380427</v>
       </c>
       <c r="GK5">
-        <v>0.001459589763013687</v>
+        <v>0.001453137797276477</v>
       </c>
       <c r="GL5">
-        <v>0.002493113107633153</v>
+        <v>0.0024884080661581</v>
       </c>
       <c r="GM5">
-        <v>0.0001732502474795926</v>
+        <v>0.0001646240321516438</v>
       </c>
       <c r="GN5">
-        <v>0.002573590611107543</v>
+        <v>0.002569021597622674</v>
       </c>
       <c r="GO5">
-        <v>0.005887743854186798</v>
+        <v>0.005888776624869632</v>
       </c>
       <c r="GP5">
-        <v>0.002016765387068179</v>
+        <v>0.002011255193590889</v>
       </c>
       <c r="GQ5">
-        <v>0.0001526263565892141</v>
+        <v>0.0001439652815016245</v>
       </c>
       <c r="GR5">
-        <v>0.00055443492393617</v>
+        <v>0.0005464530102228205</v>
       </c>
       <c r="GS5">
-        <v>0.0001290290255704656</v>
+        <v>0.0001203280648331775</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001080381888216451</v>
+        <v>3.078472182016956E-05</v>
       </c>
       <c r="C6">
-        <v>0.000158254218273947</v>
+        <v>8.16383261929561E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001467353683995813</v>
+        <v>6.997322561193701E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001147900287480039</v>
+        <v>3.762228743713201E-05</v>
       </c>
       <c r="F6">
-        <v>8.983041902023426E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.859376657906408E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.810987914806828E-05</v>
+        <v>4.764231297690725E-07</v>
       </c>
       <c r="I6">
-        <v>7.763942915319939E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001338693785399085</v>
+        <v>5.694388089224833E-05</v>
       </c>
       <c r="K6">
-        <v>0.0004457566951382044</v>
+        <v>0.0003727911189190035</v>
       </c>
       <c r="L6">
-        <v>0.0004268274553446625</v>
+        <v>0.0003536215413550756</v>
       </c>
       <c r="M6">
-        <v>0.0006481014929312626</v>
+        <v>0.000577705016056842</v>
       </c>
       <c r="N6">
-        <v>0.0005002277245440978</v>
+        <v>0.0004279537474541184</v>
       </c>
       <c r="O6">
-        <v>0.0001914330179120713</v>
+        <v>0.0001152383851534874</v>
       </c>
       <c r="P6">
-        <v>0.0001569958982876713</v>
+        <v>8.036402976899814E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0001407404184649672</v>
+        <v>6.390215994755383E-05</v>
       </c>
       <c r="R6">
-        <v>0.0001326385685533327</v>
+        <v>5.569744375259254E-05</v>
       </c>
       <c r="S6">
-        <v>7.438602918868371E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3.711779559516226E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.481549383840982E-07</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>6.404425930147971E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>3.739112959218104E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2.224506875737666E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>9.803000893080267E-05</v>
+        <v>2.064947165778844E-05</v>
       </c>
       <c r="Z6">
-        <v>0.0001633240882186508</v>
+        <v>8.6772566458494E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0001276998786071983</v>
+        <v>5.06960490310298E-05</v>
       </c>
       <c r="AB6">
-        <v>0.0002211855275875655</v>
+        <v>0.0001453686517762646</v>
       </c>
       <c r="AC6">
-        <v>0.0002647693271122041</v>
+        <v>0.0001895058191760501</v>
       </c>
       <c r="AD6">
-        <v>0.0003029202266960985</v>
+        <v>0.0002281411070525657</v>
       </c>
       <c r="AE6">
-        <v>0.0001670927981775461</v>
+        <v>9.058912637642786E-05</v>
       </c>
       <c r="AF6">
-        <v>7.318623920176963E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001328719985507868</v>
+        <v>5.593383752702552E-05</v>
       </c>
       <c r="AH6">
-        <v>0.0001467353683995813</v>
+        <v>6.997322561193701E-05</v>
       </c>
       <c r="AI6">
-        <v>0.0001142195687542258</v>
+        <v>3.704458451735718E-05</v>
       </c>
       <c r="AJ6">
-        <v>8.210814910445981E-05</v>
+        <v>4.525457686176298E-06</v>
       </c>
       <c r="AK6">
-        <v>5.3089819420958E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.376947663168182E-06</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.171206937225837E-08</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>5.762959937144336E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>4.232285153839156E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>8.265008309854903E-05</v>
+        <v>5.074272421872486E-06</v>
       </c>
       <c r="AQ6">
-        <v>8.583043306386146E-05</v>
+        <v>8.295002150347462E-06</v>
       </c>
       <c r="AR6">
-        <v>0.0002776036269722225</v>
+        <v>0.0002025030715395216</v>
       </c>
       <c r="AS6">
-        <v>0.0004990360945570947</v>
+        <v>0.0004267469877684414</v>
       </c>
       <c r="AT6">
-        <v>0.0001812456780231829</v>
+        <v>0.0001049217002628049</v>
       </c>
       <c r="AU6">
-        <v>8.756779304491236E-05</v>
+        <v>1.005442076812956E-05</v>
       </c>
       <c r="AV6">
-        <v>0.0001637467582140408</v>
+        <v>8.720060294326283E-05</v>
       </c>
       <c r="AW6">
-        <v>0.0002566949672002698</v>
+        <v>0.0001813289420114584</v>
       </c>
       <c r="AX6">
-        <v>7.693640916086713E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0001490824383739822</v>
+        <v>7.235009549223692E-05</v>
       </c>
       <c r="AZ6">
-        <v>4.009852256265195E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>7.905505413775941E-05</v>
+        <v>1.433598667402154E-06</v>
       </c>
       <c r="BB6">
-        <v>9.033310901475151E-05</v>
+        <v>1.285484696330542E-05</v>
       </c>
       <c r="BC6">
-        <v>2.149713876553421E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001270981586137611</v>
+        <v>5.008668921458885E-05</v>
       </c>
       <c r="BE6">
-        <v>2.783869569636788E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>2.088363177222563E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0002810607269345165</v>
+        <v>0.0002060040650604582</v>
       </c>
       <c r="BH6">
-        <v>0.0004261448953521071</v>
+        <v>0.0003529303151430336</v>
       </c>
       <c r="BI6">
-        <v>7.318623920176963E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2.557858372101856E-12</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>3.328562963695906E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.000216846277634893</v>
+        <v>0.0001409743079228255</v>
       </c>
       <c r="BM6">
-        <v>0.0001913445179130365</v>
+        <v>0.0001151487615016975</v>
       </c>
       <c r="BN6">
-        <v>3.675491459912013E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>9.386941897618155E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.082663688191564E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>2.950480767819588E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1.192679086991644E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.889193979394869E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.815462369292211E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>8.220217910343423E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>2.240123575567337E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>6.65571692740718E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001075511088269576</v>
+        <v>3.029145754543702E-05</v>
       </c>
       <c r="BY6">
-        <v>0.0001713368681312567</v>
+        <v>9.488708176458606E-05</v>
       </c>
       <c r="BZ6">
-        <v>0.0001751963980891614</v>
+        <v>9.87956147904923E-05</v>
       </c>
       <c r="CA6">
-        <v>2.553142772153288E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>3.440835562471368E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>5.454178940512159E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>4.726461548449255E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>5.59444593898229E-07</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1.557604583011461E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>5.59444593898229E-07</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>1.806243580299596E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.303650974874455E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>1.920371979054816E-07</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>4.563856950222756E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>4.563856950222756E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>4.009852256265195E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.04554140150328736</v>
+        <v>0.04604099915969226</v>
       </c>
       <c r="CO6">
-        <v>0.02467434973088089</v>
+        <v>0.02490900591302652</v>
       </c>
       <c r="CP6">
-        <v>0.08729299904790948</v>
+        <v>0.08832270176787584</v>
       </c>
       <c r="CQ6">
-        <v>0.1166871327273125</v>
+        <v>0.1180900422230387</v>
       </c>
       <c r="CR6">
-        <v>0.007615933616934254</v>
+        <v>0.00763400520615078</v>
       </c>
       <c r="CS6">
-        <v>0.03459185962271222</v>
+        <v>0.03495243487192977</v>
       </c>
       <c r="CT6">
-        <v>0.01999311478193835</v>
+        <v>0.02016833500244196</v>
       </c>
       <c r="CU6">
-        <v>6.370908430513539E-05</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02407508973741692</v>
+        <v>0.02430213733029634</v>
       </c>
       <c r="CW6">
-        <v>0.001990051478294833</v>
+        <v>0.001936693259214672</v>
       </c>
       <c r="CX6">
-        <v>0.006420620629971337</v>
+        <v>0.0064235157587841</v>
       </c>
       <c r="CY6">
-        <v>0.06516132428929607</v>
+        <v>0.0659100290703908</v>
       </c>
       <c r="CZ6">
-        <v>0.01168866087251368</v>
+        <v>0.01175844241937626</v>
       </c>
       <c r="DA6">
-        <v>0.004065611955657033</v>
+        <v>0.004038606383744489</v>
       </c>
       <c r="DB6">
-        <v>0.01253635486326802</v>
+        <v>0.01261689927678185</v>
       </c>
       <c r="DC6">
-        <v>0.001833625680000944</v>
+        <v>0.001778281378647916</v>
       </c>
       <c r="DD6">
-        <v>0.06695100926977626</v>
+        <v>0.06772243703935829</v>
       </c>
       <c r="DE6">
-        <v>0.02594750171699483</v>
+        <v>0.02619832265340647</v>
       </c>
       <c r="DF6">
-        <v>0.02146568076587732</v>
+        <v>0.02165959762867539</v>
       </c>
       <c r="DG6">
-        <v>0.0125154708634958</v>
+        <v>0.01259575012035269</v>
       </c>
       <c r="DH6">
-        <v>0.01417833734535919</v>
+        <v>0.0142797294216985</v>
       </c>
       <c r="DI6">
-        <v>0.02162312276416013</v>
+        <v>0.02181903861155796</v>
       </c>
       <c r="DJ6">
-        <v>1.79764398039339E-05</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.008790935904118695</v>
+        <v>0.008823926076066505</v>
       </c>
       <c r="DL6">
-        <v>0.001223176586659012</v>
+        <v>0.001160081632050593</v>
       </c>
       <c r="DM6">
-        <v>0.05052432944893937</v>
+        <v>0.0510871935547904</v>
       </c>
       <c r="DN6">
-        <v>0.00906861090109014</v>
+        <v>0.009105126612911284</v>
       </c>
       <c r="DO6">
-        <v>0.01138233487585473</v>
+        <v>0.01144822711137405</v>
       </c>
       <c r="DP6">
-        <v>0.01081235288207143</v>
+        <v>0.01087100826058856</v>
       </c>
       <c r="DQ6">
-        <v>0.0005709842937723673</v>
+        <v>0.0004996086874713871</v>
       </c>
       <c r="DR6">
-        <v>0.0003451218962358117</v>
+        <v>0.0002708785960585842</v>
       </c>
       <c r="DS6">
-        <v>0.004294384653161847</v>
+        <v>0.004270283726160729</v>
       </c>
       <c r="DT6">
-        <v>0.000726878752072052</v>
+        <v>0.0006574824818105495</v>
       </c>
       <c r="DU6">
-        <v>0.0001996327478226382</v>
+        <v>0.0001235422240946317</v>
       </c>
       <c r="DV6">
-        <v>0.001086244888152504</v>
+        <v>0.001021411360866409</v>
       </c>
       <c r="DW6">
-        <v>0.01269203036157009</v>
+        <v>0.01277455133106682</v>
       </c>
       <c r="DX6">
-        <v>1.540308083200111E-06</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.00298325996746207</v>
+        <v>0.002942512160443797</v>
       </c>
       <c r="DZ6">
-        <v>0.0004456216351396774</v>
+        <v>0.0003726543441121024</v>
       </c>
       <c r="EA6">
-        <v>5.793972936806082E-05</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.002614003371489491</v>
+        <v>0.002568567245872886</v>
       </c>
       <c r="EC6">
-        <v>5.557496439385292E-06</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>1.404598884680269E-07</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0004673988949021564</v>
+        <v>0.0003947081019333262</v>
       </c>
       <c r="EF6">
-        <v>0.0003086253666338735</v>
+        <v>0.0002339186831064943</v>
       </c>
       <c r="EG6">
-        <v>0.001846202879863766</v>
+        <v>0.001791018266707714</v>
       </c>
       <c r="EH6">
-        <v>3.115552466019177E-07</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.005126407944087104</v>
+        <v>0.005112870918480399</v>
       </c>
       <c r="EJ6">
-        <v>0.007639772916674242</v>
+        <v>0.007658147184931742</v>
       </c>
       <c r="EK6">
-        <v>0.000504864794493522</v>
+        <v>0.0004326496926180215</v>
       </c>
       <c r="EL6">
-        <v>0.001401483684714246</v>
+        <v>0.001340652631395999</v>
       </c>
       <c r="EM6">
-        <v>0.001700575981452095</v>
+        <v>0.001643542395782924</v>
       </c>
       <c r="EN6">
-        <v>0.000259693157167569</v>
+        <v>0.0001843651989217407</v>
       </c>
       <c r="EO6">
-        <v>0.002452703373248764</v>
+        <v>0.002405219279390261</v>
       </c>
       <c r="EP6">
-        <v>0.00112077768777586</v>
+        <v>0.001056382611064495</v>
       </c>
       <c r="EQ6">
-        <v>0.0005609901938813714</v>
+        <v>0.0004894876960775621</v>
       </c>
       <c r="ER6">
-        <v>0.001449020884195765</v>
+        <v>0.001388793393654385</v>
       </c>
       <c r="ES6">
-        <v>8.806737903946345E-05</v>
+        <v>1.05603498269218E-05</v>
       </c>
       <c r="ET6">
-        <v>0.0006913899524591225</v>
+        <v>0.0006215430936338069</v>
       </c>
       <c r="EU6">
-        <v>0.0007907462913754592</v>
+        <v>0.0007221609243601322</v>
       </c>
       <c r="EV6">
-        <v>0.0008171986910869471</v>
+        <v>0.0007489491807059782</v>
       </c>
       <c r="EW6">
-        <v>0.007474694918474721</v>
+        <v>0.007490973250579487</v>
       </c>
       <c r="EX6">
-        <v>0.01716747881275711</v>
+        <v>0.01730682294652071</v>
       </c>
       <c r="EY6">
-        <v>0.01560514582979722</v>
+        <v>0.01572465358186666</v>
       </c>
       <c r="EZ6">
-        <v>7.392694419369087E-05</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01281315986024895</v>
+        <v>0.01289721876755819</v>
       </c>
       <c r="FB6">
-        <v>0.007791964915014308</v>
+        <v>0.007812271510504734</v>
       </c>
       <c r="FC6">
-        <v>0.005907989535562521</v>
+        <v>0.005904375971178701</v>
       </c>
       <c r="FD6">
-        <v>0.008156125911042464</v>
+        <v>0.008181056128125806</v>
       </c>
       <c r="FE6">
-        <v>0.005899796935651877</v>
+        <v>0.005896079352764531</v>
       </c>
       <c r="FF6">
-        <v>0.0004002695456343253</v>
+        <v>0.0003267264353877566</v>
       </c>
       <c r="FG6">
-        <v>9.619128895085729E-05</v>
+        <v>1.878740610954956E-05</v>
       </c>
       <c r="FH6">
-        <v>0.003476766562079474</v>
+        <v>0.003442284631341218</v>
       </c>
       <c r="FI6">
-        <v>0.00528991594230375</v>
+        <v>0.005278454919122935</v>
       </c>
       <c r="FJ6">
-        <v>0.009270254398890846</v>
+        <v>0.009309330305902227</v>
       </c>
       <c r="FK6">
-        <v>0.0002520186972512731</v>
+        <v>0.0001765932991396437</v>
       </c>
       <c r="FL6">
-        <v>0.01351269385261925</v>
+        <v>0.01360563449220454</v>
       </c>
       <c r="FM6">
-        <v>0.02114275976939936</v>
+        <v>0.02133257662009178</v>
       </c>
       <c r="FN6">
-        <v>0.00326897796434579</v>
+        <v>0.003231857816286838</v>
       </c>
       <c r="FO6">
-        <v>0.0009792046893199742</v>
+        <v>0.0009130121110096613</v>
       </c>
       <c r="FP6">
-        <v>0.01204581686861824</v>
+        <v>0.01212013309710142</v>
       </c>
       <c r="FQ6">
-        <v>0.009017305901649713</v>
+        <v>0.009053170212288896</v>
       </c>
       <c r="FR6">
-        <v>0.001496855483674041</v>
+        <v>0.001437235331890652</v>
       </c>
       <c r="FS6">
-        <v>0.0001356517285204687</v>
+        <v>5.874886073143187E-05</v>
       </c>
       <c r="FT6">
-        <v>0.001194225986974772</v>
+        <v>0.001130763456982695</v>
       </c>
       <c r="FU6">
-        <v>3.420227262696138E-07</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.006723127226671947</v>
+        <v>0.006729863173276182</v>
       </c>
       <c r="FW6">
-        <v>0.00541275994096391</v>
+        <v>0.00540285862398711</v>
       </c>
       <c r="FX6">
-        <v>0.0007722961915766913</v>
+        <v>0.0007034765702596913</v>
       </c>
       <c r="FY6">
-        <v>0.003028563966967946</v>
+        <v>0.002988391368587187</v>
       </c>
       <c r="FZ6">
-        <v>0.005143598943899604</v>
+        <v>0.005130280186253509</v>
       </c>
       <c r="GA6">
-        <v>0.001417736584536978</v>
+        <v>0.001357111888460136</v>
       </c>
       <c r="GB6">
-        <v>9.314140898412183E-05</v>
+        <v>1.569880291044214E-05</v>
       </c>
       <c r="GC6">
-        <v>0.001408718084635341</v>
+        <v>0.001347978883898924</v>
       </c>
       <c r="GD6">
-        <v>0.0009138056900332703</v>
+        <v>0.0008467827640784946</v>
       </c>
       <c r="GE6">
-        <v>0.0009636192894899615</v>
+        <v>0.0008972288289463116</v>
       </c>
       <c r="GF6">
-        <v>0.0001044663788606022</v>
+        <v>2.716756186876036E-05</v>
       </c>
       <c r="GG6">
-        <v>0.00491069594643984</v>
+        <v>0.004894420102944752</v>
       </c>
       <c r="GH6">
-        <v>0.001517552283448305</v>
+        <v>0.0014581949115106</v>
       </c>
       <c r="GI6">
-        <v>0.0004720205248517491</v>
+        <v>0.0003993884110612561</v>
       </c>
       <c r="GJ6">
-        <v>0.0007604892917054673</v>
+        <v>0.0006915197624142873</v>
       </c>
       <c r="GK6">
-        <v>0.002108290577005218</v>
+        <v>0.002056433597365544</v>
       </c>
       <c r="GL6">
-        <v>0.0001426441884442031</v>
+        <v>6.583010141159985E-05</v>
       </c>
       <c r="GM6">
-        <v>0.002126394276807764</v>
+        <v>0.002074767153353216</v>
       </c>
       <c r="GN6">
-        <v>0.009663831894598162</v>
+        <v>0.0097079049139513</v>
       </c>
       <c r="GO6">
-        <v>0.006417971930000227</v>
+        <v>0.006420833429219175</v>
       </c>
       <c r="GP6">
-        <v>0.0005825069336466919</v>
+        <v>0.0005112776261726355</v>
       </c>
       <c r="GQ6">
-        <v>4.843073947177382E-06</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.000797506821301723</v>
+        <v>0.0007290072903108125</v>
       </c>
       <c r="GS6">
-        <v>1.523705883381188E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.424015048176905E-08</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.79357403453177E-05</v>
+        <v>1.596086667715688E-05</v>
       </c>
       <c r="D2">
-        <v>6.159854382079951E-05</v>
+        <v>5.770276134290189E-05</v>
       </c>
       <c r="E2">
-        <v>8.43208360682421E-05</v>
+        <v>7.849624295454802E-05</v>
       </c>
       <c r="F2">
-        <v>0.0001054627422984745</v>
+        <v>9.770874219604496E-05</v>
       </c>
       <c r="G2">
-        <v>0.0001524297658099388</v>
+        <v>0.0001427561037332343</v>
       </c>
       <c r="H2">
-        <v>0.0002217527665648566</v>
+        <v>0.0002101678784609104</v>
       </c>
       <c r="I2">
-        <v>0.0002921014173309436</v>
+        <v>0.0002786056902250722</v>
       </c>
       <c r="J2">
-        <v>0.0003658354341338967</v>
+        <v>0.0003504301454817114</v>
       </c>
       <c r="K2">
-        <v>0.0004533314750867163</v>
+        <v>0.0004360218179381803</v>
       </c>
       <c r="L2">
-        <v>0.0005186272217977779</v>
+        <v>0.0004994048189522745</v>
       </c>
       <c r="M2">
-        <v>0.0005596940762449902</v>
+        <v>0.0005385497850177875</v>
       </c>
       <c r="N2">
-        <v>0.0005857480165287139</v>
+        <v>0.0005626761718510331</v>
       </c>
       <c r="O2">
-        <v>0.0006019920887056096</v>
+        <v>0.0005769889888592546</v>
       </c>
       <c r="P2">
-        <v>0.0006041934154295817</v>
+        <v>0.0005772537614354226</v>
       </c>
       <c r="Q2">
-        <v>0.0006061300694506716</v>
+        <v>0.0005772537614354226</v>
       </c>
       <c r="R2">
-        <v>0.0006072276994626247</v>
+        <v>0.0005772537614354226</v>
       </c>
       <c r="S2">
-        <v>0.00060794720627046</v>
+        <v>0.0005772537614354226</v>
       </c>
       <c r="T2">
-        <v>0.0006213117274159977</v>
+        <v>0.0005886859408241351</v>
       </c>
       <c r="U2">
-        <v>0.0006230238622346426</v>
+        <v>0.0005886859408241351</v>
       </c>
       <c r="V2">
-        <v>0.0006394639164136725</v>
+        <v>0.0006031948137875894</v>
       </c>
       <c r="W2">
-        <v>0.0006518379695484242</v>
+        <v>0.0006136361514159997</v>
       </c>
       <c r="X2">
-        <v>0.0006733454387826376</v>
+        <v>0.000633214351605353</v>
       </c>
       <c r="Y2">
-        <v>0.0006877385554393766</v>
+        <v>0.000645675514642057</v>
       </c>
       <c r="Z2">
-        <v>0.0007339891809430394</v>
+        <v>0.0006900062078412515</v>
       </c>
       <c r="AA2">
-        <v>0.0007856036535051138</v>
+        <v>0.0007397027721271158</v>
       </c>
       <c r="AB2">
-        <v>0.0008136650798106988</v>
+        <v>0.0007658374024998014</v>
       </c>
       <c r="AC2">
-        <v>0.0008556374302677718</v>
+        <v>0.0008058882062608144</v>
       </c>
       <c r="AD2">
-        <v>0.0009305830760839195</v>
+        <v>0.0008789247477344673</v>
       </c>
       <c r="AE2">
-        <v>0.0009523760793212422</v>
+        <v>0.0008987885896721518</v>
       </c>
       <c r="AF2">
-        <v>0.0009667691959779812</v>
+        <v>0.0009112497527088558</v>
       </c>
       <c r="AG2">
-        <v>0.0009969833963070097</v>
+        <v>0.0009395379694464646</v>
       </c>
       <c r="AH2">
-        <v>0.001050825786893346</v>
+        <v>0.000991463292453387</v>
       </c>
       <c r="AI2">
-        <v>0.001086494565281774</v>
+        <v>0.001025208145515668</v>
       </c>
       <c r="AJ2">
-        <v>0.001105516949488925</v>
+        <v>0.001042300322940126</v>
       </c>
       <c r="AK2">
-        <v>0.001132134596778787</v>
+        <v>0.001066990629492307</v>
       </c>
       <c r="AL2">
-        <v>0.001152105277996265</v>
+        <v>0.001085031461763533</v>
       </c>
       <c r="AM2">
-        <v>0.00115381741281491</v>
+        <v>0.001085031461763533</v>
       </c>
       <c r="AN2">
-        <v>0.001160016464882417</v>
+        <v>0.001089295468210413</v>
       </c>
       <c r="AO2">
-        <v>0.001162290307407179</v>
+        <v>0.001089632783950946</v>
       </c>
       <c r="AP2">
-        <v>0.001162526972479756</v>
+        <v>0.001089632783950946</v>
       </c>
       <c r="AQ2">
-        <v>0.001166071037118351</v>
+        <v>0.001091240801119024</v>
       </c>
       <c r="AR2">
-        <v>0.001175838154224713</v>
+        <v>0.001099074219001178</v>
       </c>
       <c r="AS2">
-        <v>0.001184219842815988</v>
+        <v>0.001105521685581813</v>
       </c>
       <c r="AT2">
-        <v>0.001210587957103133</v>
+        <v>0.001129962364970902</v>
       </c>
       <c r="AU2">
-        <v>0.001242066555445931</v>
+        <v>0.001159515456838291</v>
       </c>
       <c r="AV2">
-        <v>0.001278549895843229</v>
+        <v>0.001194075179281466</v>
       </c>
       <c r="AW2">
-        <v>0.001332037141425698</v>
+        <v>0.00124564522327184</v>
       </c>
       <c r="AX2">
-        <v>0.001403418972203036</v>
+        <v>0.001315116604913988</v>
       </c>
       <c r="AY2">
-        <v>0.001484991623091351</v>
+        <v>0.001394782652136167</v>
       </c>
       <c r="AZ2">
-        <v>0.001549792429797023</v>
+        <v>0.001457670526381053</v>
       </c>
       <c r="BA2">
-        <v>0.001621954080582853</v>
+        <v>0.001527922022293949</v>
       </c>
       <c r="BB2">
-        <v>0.001711470711557677</v>
+        <v>0.001615535047234747</v>
       </c>
       <c r="BC2">
-        <v>0.001780283722307041</v>
+        <v>0.001682436639513988</v>
       </c>
       <c r="BD2">
-        <v>0.001838353142939409</v>
+        <v>0.001738590587621419</v>
       </c>
       <c r="BE2">
-        <v>0.001867966563261895</v>
+        <v>0.001766277797650326</v>
       </c>
       <c r="BF2">
-        <v>0.001871926503305018</v>
+        <v>0.001768301847152011</v>
       </c>
       <c r="BG2">
-        <v>0.001872163168377595</v>
+        <v>0.001768301847152011</v>
       </c>
       <c r="BH2">
-        <v>0.001872393605730105</v>
+        <v>0.001768301847152011</v>
       </c>
       <c r="BI2">
-        <v>0.001880129124814343</v>
+        <v>0.001774102900395886</v>
       </c>
       <c r="BJ2">
-        <v>0.001928703595343312</v>
+        <v>0.00182075831551489</v>
       </c>
       <c r="BK2">
-        <v>0.001978786532888709</v>
+        <v>0.001868922766864885</v>
       </c>
       <c r="BL2">
-        <v>0.002029304700438845</v>
+        <v>0.001917522612452086</v>
       </c>
       <c r="BM2">
-        <v>0.002144399661692213</v>
+        <v>0.002030723619561707</v>
       </c>
       <c r="BN2">
-        <v>0.002305875133450658</v>
+        <v>0.002190322638694043</v>
       </c>
       <c r="BO2">
-        <v>0.002438017354889668</v>
+        <v>0.002320577338711188</v>
       </c>
       <c r="BP2">
-        <v>0.002568051756305725</v>
+        <v>0.002448723423327129</v>
       </c>
       <c r="BQ2">
-        <v>0.002731090588081195</v>
+        <v>0.002609886392404729</v>
       </c>
       <c r="BR2">
-        <v>0.002876605409665831</v>
+        <v>0.002753518738669726</v>
       </c>
       <c r="BS2">
-        <v>0.00293157941326449</v>
+        <v>0.002806576101699043</v>
       </c>
       <c r="BT2">
-        <v>0.002986553416863149</v>
+        <v>0.002859633464728359</v>
       </c>
       <c r="BU2">
-        <v>0.003014614843168734</v>
+        <v>0.002885768095101045</v>
       </c>
       <c r="BV2">
-        <v>0.003031054897347764</v>
+        <v>0.002900276968064499</v>
       </c>
       <c r="BW2">
-        <v>0.00306211827068604</v>
+        <v>0.002929414678243715</v>
       </c>
       <c r="BX2">
-        <v>0.003078933668869157</v>
+        <v>0.002944299036845957</v>
       </c>
       <c r="BY2">
-        <v>0.003089741674986855</v>
+        <v>0.002953173736515144</v>
       </c>
       <c r="BZ2">
-        <v>0.003091055384001161</v>
+        <v>0.002953173736515144</v>
       </c>
       <c r="CA2">
-        <v>0.003101505280114959</v>
+        <v>0.002961690191048918</v>
       </c>
       <c r="CB2">
-        <v>0.003149742460640255</v>
+        <v>0.003008008188889088</v>
       </c>
       <c r="CC2">
-        <v>0.003241302751637334</v>
+        <v>0.003097665645019848</v>
       </c>
       <c r="CD2">
-        <v>0.003349403706814538</v>
+        <v>0.003203870006890448</v>
       </c>
       <c r="CE2">
-        <v>0.00348884647833305</v>
+        <v>0.003341428011823223</v>
       </c>
       <c r="CF2">
-        <v>0.003654805330140319</v>
+        <v>0.003505512102791603</v>
       </c>
       <c r="CG2">
-        <v>0.0038457518322197</v>
+        <v>0.003694593273031413</v>
       </c>
       <c r="CH2">
-        <v>0.004008172253988435</v>
+        <v>0.003855137598747503</v>
       </c>
       <c r="CI2">
-        <v>0.004171375695765698</v>
+        <v>0.004016465239941883</v>
       </c>
       <c r="CJ2">
-        <v>0.004319649857380383</v>
+        <v>0.004162857967463894</v>
       </c>
       <c r="CK2">
-        <v>0.004408586818348894</v>
+        <v>0.004249891103662002</v>
       </c>
       <c r="CL2">
-        <v>0.004473882565059956</v>
+        <v>0.004313274104676097</v>
       </c>
       <c r="CM2">
-        <v>0.005941725881044564</v>
+        <v>0.005779733921208592</v>
       </c>
       <c r="CN2">
-        <v>0.1438686773830497</v>
+        <v>0.1437567942739434</v>
       </c>
       <c r="CO2">
-        <v>0.1483250121315786</v>
+        <v>0.1482128732194371</v>
       </c>
       <c r="CP2">
-        <v>0.2990784837732628</v>
+        <v>0.2990212937527645</v>
       </c>
       <c r="CQ2">
-        <v>0.3200451010015863</v>
+        <v>0.3199938852733418</v>
       </c>
       <c r="CR2">
-        <v>0.3339119841525948</v>
+        <v>0.3338640636576672</v>
       </c>
       <c r="CS2">
-        <v>0.3369475711856519</v>
+        <v>0.336898858773685</v>
       </c>
       <c r="CT2">
-        <v>0.3485110838115769</v>
+        <v>0.3484647974644028</v>
       </c>
       <c r="CU2">
-        <v>0.380750624162661</v>
+        <v>0.3807145659044474</v>
       </c>
       <c r="CV2">
-        <v>0.3812521287681223</v>
+        <v>0.3812143223660445</v>
       </c>
       <c r="CW2">
-        <v>0.4089766800700388</v>
+        <v>0.4089473980421584</v>
       </c>
       <c r="CX2">
-        <v>0.4260928502564315</v>
+        <v>0.426068089568561</v>
       </c>
       <c r="CY2">
-        <v>0.4908149809612464</v>
+        <v>0.4908127055501457</v>
       </c>
       <c r="CZ2">
-        <v>0.5003572360651602</v>
+        <v>0.5003566240046479</v>
       </c>
       <c r="DA2">
-        <v>0.5017939993808064</v>
+        <v>0.5017919920929164</v>
       </c>
       <c r="DB2">
-        <v>0.5364574757582867</v>
+        <v>0.5364666112228368</v>
       </c>
       <c r="DC2">
-        <v>0.5633203060508192</v>
+        <v>0.5633376407222651</v>
       </c>
       <c r="DD2">
-        <v>0.6426100269142732</v>
+        <v>0.6426553438898673</v>
       </c>
       <c r="DE2">
-        <v>0.6458491065495463</v>
+        <v>0.6458937083952976</v>
       </c>
       <c r="DF2">
-        <v>0.6697054068093381</v>
+        <v>0.6697570733587679</v>
       </c>
       <c r="DG2">
-        <v>0.6712374160260215</v>
+        <v>0.6712877232887693</v>
       </c>
       <c r="DH2">
-        <v>0.6856610781830932</v>
+        <v>0.685714890777699</v>
       </c>
       <c r="DI2">
-        <v>0.6856669011456566</v>
+        <v>0.6857187785527258</v>
       </c>
       <c r="DJ2">
-        <v>0.687360806464103</v>
+        <v>0.6874113856753978</v>
       </c>
       <c r="DK2">
-        <v>0.6903348686964902</v>
+        <v>0.6903846327745851</v>
       </c>
       <c r="DL2">
-        <v>0.6984539077849053</v>
+        <v>0.6985047981681805</v>
       </c>
       <c r="DM2">
-        <v>0.7256446120810083</v>
+        <v>0.725703825393247</v>
       </c>
       <c r="DN2">
-        <v>0.7257292615719301</v>
+        <v>0.7257865694415371</v>
       </c>
       <c r="DO2">
-        <v>0.7402356597299027</v>
+        <v>0.7402965041514981</v>
       </c>
       <c r="DP2">
-        <v>0.7443809947750448</v>
+        <v>0.7444414660389934</v>
       </c>
       <c r="DQ2">
-        <v>0.7446334695777942</v>
+        <v>0.7446920987273846</v>
       </c>
       <c r="DR2">
-        <v>0.7477772165120291</v>
+        <v>0.7478350945583272</v>
       </c>
       <c r="DS2">
-        <v>0.7520479428585367</v>
+        <v>0.7521054950631415</v>
       </c>
       <c r="DT2">
-        <v>0.7522094183302952</v>
+        <v>0.7522650940822738</v>
       </c>
       <c r="DU2">
-        <v>0.7524961341334175</v>
+        <v>0.7525499806917554</v>
       </c>
       <c r="DV2">
-        <v>0.7567288471795112</v>
+        <v>0.7567823535519744</v>
       </c>
       <c r="DW2">
-        <v>0.7596297396111015</v>
+        <v>0.7596824032400055</v>
       </c>
       <c r="DX2">
-        <v>0.7637702950561915</v>
+        <v>0.763822583723884</v>
       </c>
       <c r="DY2">
-        <v>0.7643128593621</v>
+        <v>0.7643634153796575</v>
       </c>
       <c r="DZ2">
-        <v>0.7657253028774813</v>
+        <v>0.7657744544906726</v>
       </c>
       <c r="EA2">
-        <v>0.7673722828954167</v>
+        <v>0.7674201186057414</v>
       </c>
       <c r="EB2">
-        <v>0.7709380429342473</v>
+        <v>0.7709852867863961</v>
       </c>
       <c r="EC2">
-        <v>0.7710441054854023</v>
+        <v>0.7710894519750602</v>
       </c>
       <c r="ED2">
-        <v>0.7723642195997781</v>
+        <v>0.7724081268449048</v>
       </c>
       <c r="EE2">
-        <v>0.7751321180299201</v>
+        <v>0.7751751323466829</v>
       </c>
       <c r="EF2">
-        <v>0.7752495287611987</v>
+        <v>0.7752906499976652</v>
       </c>
       <c r="EG2">
-        <v>0.7758002855671964</v>
+        <v>0.7758396772449381</v>
       </c>
       <c r="EH2">
-        <v>0.7781614017929086</v>
+        <v>0.778199747044495</v>
       </c>
       <c r="EI2">
-        <v>0.7870296228894823</v>
+        <v>0.7870693771473659</v>
       </c>
       <c r="EJ2">
-        <v>0.7883375025037249</v>
+        <v>0.788375812900433</v>
       </c>
       <c r="EK2">
-        <v>0.7884983625154767</v>
+        <v>0.788534796227317</v>
       </c>
       <c r="EL2">
-        <v>0.7889920508208529</v>
+        <v>0.7890267334393766</v>
       </c>
       <c r="EM2">
-        <v>0.7895970655274415</v>
+        <v>0.7896300390612626</v>
       </c>
       <c r="EN2">
-        <v>0.7918716505522114</v>
+        <v>0.7919035450076419</v>
       </c>
       <c r="EO2">
-        <v>0.795636943093215</v>
+        <v>0.7956683209833364</v>
       </c>
       <c r="EP2">
-        <v>0.7960217880574059</v>
+        <v>0.7960513737825701</v>
       </c>
       <c r="EQ2">
-        <v>0.7961286167025692</v>
+        <v>0.7961563053543252</v>
       </c>
       <c r="ER2">
-        <v>0.7962481716238711</v>
+        <v>0.7962739680044332</v>
       </c>
       <c r="ES2">
-        <v>0.7962660631240659</v>
+        <v>0.7962899288711104</v>
       </c>
       <c r="ET2">
-        <v>0.796661208858369</v>
+        <v>0.7966832863274145</v>
       </c>
       <c r="EU2">
-        <v>0.7976949315696261</v>
+        <v>0.7977154617253818</v>
       </c>
       <c r="EV2">
-        <v>0.8030809940282796</v>
+        <v>0.8031016192103837</v>
       </c>
       <c r="EW2">
-        <v>0.8253074172703222</v>
+        <v>0.8253344921279161</v>
       </c>
       <c r="EX2">
-        <v>0.8489367795276427</v>
+        <v>0.8489708334546818</v>
       </c>
       <c r="EY2">
-        <v>0.855850213602929</v>
+        <v>0.8558849389044636</v>
       </c>
       <c r="EZ2">
-        <v>0.8581697682281887</v>
+        <v>0.8582034314204485</v>
       </c>
       <c r="FA2">
-        <v>0.8728116653876369</v>
+        <v>0.8728489162619424</v>
       </c>
       <c r="FB2">
-        <v>0.8802754228689161</v>
+        <v>0.880313552780261</v>
       </c>
       <c r="FC2">
-        <v>0.8910797449865737</v>
+        <v>0.891120014484923</v>
       </c>
       <c r="FD2">
-        <v>0.8977543914592597</v>
+        <v>0.8977952422264676</v>
       </c>
       <c r="FE2">
-        <v>0.8993666898768174</v>
+        <v>0.8994062116541824</v>
       </c>
       <c r="FF2">
-        <v>0.8993929918621039</v>
+        <v>0.8994305861796172</v>
       </c>
       <c r="FG2">
-        <v>0.9009624573791951</v>
+        <v>0.9009987065440259</v>
       </c>
       <c r="FH2">
-        <v>0.9065223461397415</v>
+        <v>0.9065587559236462</v>
       </c>
       <c r="FI2">
-        <v>0.9138541512195838</v>
+        <v>0.9138913902487671</v>
       </c>
       <c r="FJ2">
-        <v>0.9245630043362018</v>
+        <v>0.9246023469275076</v>
       </c>
       <c r="FK2">
-        <v>0.9247476439282124</v>
+        <v>0.9247851188077891</v>
       </c>
       <c r="FL2">
-        <v>0.9400822570952042</v>
+        <v>0.9401235810507028</v>
       </c>
       <c r="FM2">
-        <v>0.9470750051713542</v>
+        <v>0.9471170304301992</v>
       </c>
       <c r="FN2">
-        <v>0.9472514003032751</v>
+        <v>0.9472915547393738</v>
       </c>
       <c r="FO2">
-        <v>0.9508657317426347</v>
+        <v>0.9509053126487994</v>
       </c>
       <c r="FP2">
-        <v>0.9597034088388757</v>
+        <v>0.9597443872256698</v>
       </c>
       <c r="FQ2">
-        <v>0.9641462758872579</v>
+        <v>0.9641869933890289</v>
       </c>
       <c r="FR2">
-        <v>0.9647883856942504</v>
+        <v>0.9648274081090207</v>
       </c>
       <c r="FS2">
-        <v>0.9654204276511332</v>
+        <v>0.965457751179836</v>
       </c>
       <c r="FT2">
-        <v>0.9655488645125319</v>
+        <v>0.9655842991216086</v>
       </c>
       <c r="FU2">
-        <v>0.9683637746431858</v>
+        <v>0.9683983340635935</v>
       </c>
       <c r="FV2">
-        <v>0.973656970300828</v>
+        <v>0.9736915897046332</v>
       </c>
       <c r="FW2">
-        <v>0.9742925502077494</v>
+        <v>0.9743254720605198</v>
       </c>
       <c r="FX2">
-        <v>0.9745581501406417</v>
+        <v>0.9745892348317743</v>
       </c>
       <c r="FY2">
-        <v>0.9768614781657247</v>
+        <v>0.9768914946245337</v>
       </c>
       <c r="FZ2">
-        <v>0.9775628838033629</v>
+        <v>0.9775912275502382</v>
       </c>
       <c r="GA2">
-        <v>0.9777160548350309</v>
+        <v>0.9777425189956297</v>
       </c>
       <c r="GB2">
-        <v>0.9777559503914653</v>
+        <v>0.9777804922216974</v>
       </c>
       <c r="GC2">
-        <v>0.977781626700745</v>
+        <v>0.9778042408350288</v>
       </c>
       <c r="GD2">
-        <v>0.9779241955422975</v>
+        <v>0.9779449260896068</v>
       </c>
       <c r="GE2">
-        <v>0.9780037248831636</v>
+        <v>0.9780225480557712</v>
       </c>
       <c r="GF2">
-        <v>0.9795543089000492</v>
+        <v>0.9795717797951085</v>
       </c>
       <c r="GG2">
-        <v>0.9847175412562761</v>
+        <v>0.9847350230935519</v>
       </c>
       <c r="GH2">
-        <v>0.9847326914034411</v>
+        <v>0.9847482415727595</v>
       </c>
       <c r="GI2">
-        <v>0.9854570348113291</v>
+        <v>0.9854709209241983</v>
       </c>
       <c r="GJ2">
-        <v>0.9869449304275321</v>
+        <v>0.986957440607612</v>
       </c>
       <c r="GK2">
-        <v>0.9891810174518827</v>
+        <v>0.9891924340264912</v>
       </c>
       <c r="GL2">
-        <v>0.9891925431000083</v>
+        <v>0.9892020266389677</v>
       </c>
       <c r="GM2">
-        <v>0.9919401712299295</v>
+        <v>0.9919487541916007</v>
       </c>
       <c r="GN2">
-        <v>0.9969981175850098</v>
+        <v>0.9970066717596063</v>
       </c>
       <c r="GO2">
-        <v>0.9983523624997573</v>
+        <v>0.9983594903089565</v>
       </c>
       <c r="GP2">
-        <v>0.9986398998528886</v>
+        <v>0.998645198778456</v>
       </c>
       <c r="GQ2">
-        <v>0.9989358221361111</v>
+        <v>0.9989392953420698</v>
       </c>
       <c r="GR2">
-        <v>0.9989408880884663</v>
+        <v>0.9989424258212333</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.636492387965275E-05</v>
+        <v>7.175872144828085E-06</v>
       </c>
       <c r="C3">
-        <v>3.670857183243739E-05</v>
+        <v>7.175872144828085E-06</v>
       </c>
       <c r="D3">
-        <v>3.672699640935329E-05</v>
+        <v>7.175872144828085E-06</v>
       </c>
       <c r="E3">
-        <v>0.0001523943458813697</v>
+        <v>0.0001039673452401758</v>
       </c>
       <c r="F3">
-        <v>0.000216551120588515</v>
+        <v>0.0001490676007427135</v>
       </c>
       <c r="G3">
-        <v>0.0002241976625536111</v>
+        <v>0.0001490676007427135</v>
       </c>
       <c r="H3">
-        <v>0.0003404873860227865</v>
+        <v>0.000246483630443343</v>
       </c>
       <c r="I3">
-        <v>0.0005464781950825059</v>
+        <v>0.0004339153191564637</v>
       </c>
       <c r="J3">
-        <v>0.0006615248505573556</v>
+        <v>0.0005300839215381269</v>
       </c>
       <c r="K3">
-        <v>0.0008262713198053419</v>
+        <v>0.0006761266303493181</v>
       </c>
       <c r="L3">
-        <v>0.001036011518847946</v>
+        <v>0.0008673208578096826</v>
       </c>
       <c r="M3">
-        <v>0.001112768008497578</v>
+        <v>0.0009250650142912406</v>
       </c>
       <c r="N3">
-        <v>0.001171933963227505</v>
+        <v>0.0009651569474718755</v>
       </c>
       <c r="O3">
-        <v>0.001261322922819474</v>
+        <v>0.001035577874801063</v>
       </c>
       <c r="P3">
-        <v>0.001321381270545327</v>
+        <v>0.001076565330517436</v>
       </c>
       <c r="Q3">
-        <v>0.001331891936997349</v>
+        <v>0.001076565330517436</v>
       </c>
       <c r="R3">
-        <v>0.001351106065909643</v>
+        <v>0.001076565330517436</v>
       </c>
       <c r="S3">
-        <v>0.001351106603626641</v>
+        <v>0.001076565330517436</v>
       </c>
       <c r="T3">
-        <v>0.001407463948369388</v>
+        <v>0.001113838804175083</v>
       </c>
       <c r="U3">
-        <v>0.00143963872822252</v>
+        <v>0.001126844906921664</v>
       </c>
       <c r="V3">
-        <v>0.001447625362186064</v>
+        <v>0.001126844906921664</v>
       </c>
       <c r="W3">
-        <v>0.001462351079118846</v>
+        <v>0.001126844906921664</v>
       </c>
       <c r="X3">
-        <v>0.00157134588362132</v>
+        <v>0.001216940435048569</v>
       </c>
       <c r="Y3">
-        <v>0.00170017449303326</v>
+        <v>0.001326939323406813</v>
       </c>
       <c r="Z3">
-        <v>0.001756966517774023</v>
+        <v>0.00136464900144508</v>
       </c>
       <c r="AA3">
-        <v>0.001794777447601428</v>
+        <v>0.001383311019623312</v>
       </c>
       <c r="AB3">
-        <v>0.001933973816966042</v>
+        <v>0.001503714026710769</v>
       </c>
       <c r="AC3">
-        <v>0.002263060215463871</v>
+        <v>0.001814672989724464</v>
       </c>
       <c r="AD3">
-        <v>0.002461739184556966</v>
+        <v>0.001994767196523555</v>
       </c>
       <c r="AE3">
-        <v>0.00256361409409194</v>
+        <v>0.002077717860868936</v>
       </c>
       <c r="AF3">
-        <v>0.002603404770910309</v>
+        <v>0.00209836656882797</v>
       </c>
       <c r="AG3">
-        <v>0.00265062159069478</v>
+        <v>0.002126467462550574</v>
       </c>
       <c r="AH3">
-        <v>0.00272467081535677</v>
+        <v>0.002181494859916234</v>
       </c>
       <c r="AI3">
-        <v>0.002766866320164161</v>
+        <v>0.002204556829373926</v>
       </c>
       <c r="AJ3">
-        <v>0.002766869032942549</v>
+        <v>0.002204556829373926</v>
       </c>
       <c r="AK3">
-        <v>0.002819975257700136</v>
+        <v>0.002238567781668914</v>
       </c>
       <c r="AL3">
-        <v>0.002902402237323884</v>
+        <v>0.002302002314009174</v>
       </c>
       <c r="AM3">
-        <v>0.002980429736967714</v>
+        <v>0.002361021937799583</v>
       </c>
       <c r="AN3">
-        <v>0.003100172361421128</v>
+        <v>0.002461902977489277</v>
       </c>
       <c r="AO3">
-        <v>0.003351093920275753</v>
+        <v>0.002694422983986817</v>
       </c>
       <c r="AP3">
-        <v>0.003679022918778864</v>
+        <v>0.003004220488110917</v>
       </c>
       <c r="AQ3">
-        <v>0.004129716136721597</v>
+        <v>0.003437212734453127</v>
       </c>
       <c r="AR3">
-        <v>0.004393617535516973</v>
+        <v>0.00368275809999121</v>
       </c>
       <c r="AS3">
-        <v>0.004496600821046888</v>
+        <v>0.003766821027303772</v>
       </c>
       <c r="AT3">
-        <v>0.00462177910047549</v>
+        <v>0.003873156784308589</v>
       </c>
       <c r="AU3">
-        <v>0.004694785215142242</v>
+        <v>0.003927137413588603</v>
       </c>
       <c r="AV3">
-        <v>0.004735269701957443</v>
+        <v>0.003948482364672045</v>
       </c>
       <c r="AW3">
-        <v>0.004791148666702374</v>
+        <v>0.003985275780697409</v>
       </c>
       <c r="AX3">
-        <v>0.004793928238489687</v>
+        <v>0.003985275780697409</v>
       </c>
       <c r="AY3">
-        <v>0.004801274944756151</v>
+        <v>0.003985275780697409</v>
       </c>
       <c r="AZ3">
-        <v>0.004801551439814889</v>
+        <v>0.003985275780697409</v>
       </c>
       <c r="BA3">
-        <v>0.004801608994624626</v>
+        <v>0.003985275780697409</v>
       </c>
       <c r="BB3">
-        <v>0.004812327712575699</v>
+        <v>0.003985275780697409</v>
       </c>
       <c r="BC3">
-        <v>0.004848209410411911</v>
+        <v>0.004002001801246047</v>
       </c>
       <c r="BD3">
-        <v>0.004893656147204462</v>
+        <v>0.004028326404459171</v>
       </c>
       <c r="BE3">
-        <v>0.004945758516966632</v>
+        <v>0.004061329981331994</v>
       </c>
       <c r="BF3">
-        <v>0.005103246916247748</v>
+        <v>0.004200089166795332</v>
       </c>
       <c r="BG3">
-        <v>0.005274438135466316</v>
+        <v>0.004352599226719983</v>
       </c>
       <c r="BH3">
-        <v>0.005454047944646457</v>
+        <v>0.004513557399823622</v>
       </c>
       <c r="BI3">
-        <v>0.005555922854181431</v>
+        <v>0.004596508064169003</v>
       </c>
       <c r="BJ3">
-        <v>0.005624602773867929</v>
+        <v>0.004646147326902558</v>
       </c>
       <c r="BK3">
-        <v>0.005760074353249546</v>
+        <v>0.004762812481512586</v>
       </c>
       <c r="BL3">
-        <v>0.005866371012764336</v>
+        <v>0.004850200402506549</v>
       </c>
       <c r="BM3">
-        <v>0.005931040298469142</v>
+        <v>0.004895814966335478</v>
       </c>
       <c r="BN3">
-        <v>0.005946325653399369</v>
+        <v>0.004895814966335478</v>
       </c>
       <c r="BO3">
-        <v>0.005949009710387117</v>
+        <v>0.004895814966335478</v>
       </c>
       <c r="BP3">
-        <v>0.005952344463671895</v>
+        <v>0.004895814966335478</v>
       </c>
       <c r="BQ3">
-        <v>0.005961672566629316</v>
+        <v>0.004895814966335478</v>
       </c>
       <c r="BR3">
-        <v>0.006014148948389779</v>
+        <v>0.004929193866832125</v>
       </c>
       <c r="BS3">
-        <v>0.006167598577689331</v>
+        <v>0.005063900118720614</v>
       </c>
       <c r="BT3">
-        <v>0.006201903829532738</v>
+        <v>0.005079044164825959</v>
       </c>
       <c r="BU3">
-        <v>0.006289661129132155</v>
+        <v>0.005147827710081708</v>
       </c>
       <c r="BV3">
-        <v>0.006589441987763753</v>
+        <v>0.005429378361407662</v>
       </c>
       <c r="BW3">
-        <v>0.006823271576696398</v>
+        <v>0.0056447464580234</v>
       </c>
       <c r="BX3">
-        <v>0.006915136202277065</v>
+        <v>0.005717651733273246</v>
       </c>
       <c r="BY3">
-        <v>0.006947276566130355</v>
+        <v>0.005730623299326251</v>
       </c>
       <c r="BZ3">
-        <v>0.007001228427884082</v>
+        <v>0.005765482854188217</v>
       </c>
       <c r="CA3">
-        <v>0.007075973027542898</v>
+        <v>0.005821208065166589</v>
       </c>
       <c r="CB3">
-        <v>0.007094064115460318</v>
+        <v>0.005821208065166589</v>
       </c>
       <c r="CC3">
-        <v>0.007122701551329598</v>
+        <v>0.005830664418790692</v>
       </c>
       <c r="CD3">
-        <v>0.007124609492920889</v>
+        <v>0.005830664418790692</v>
       </c>
       <c r="CE3">
-        <v>0.007140326006849148</v>
+        <v>0.005830664418790692</v>
       </c>
       <c r="CF3">
-        <v>0.007171169196708359</v>
+        <v>0.005842334261780234</v>
       </c>
       <c r="CG3">
-        <v>0.007298037496129246</v>
+        <v>0.005950365965521351</v>
       </c>
       <c r="CH3">
-        <v>0.007501221955201776</v>
+        <v>0.006134981462637085</v>
       </c>
       <c r="CI3">
-        <v>0.007517192656128875</v>
+        <v>0.006134981462637085</v>
       </c>
       <c r="CJ3">
-        <v>0.007539595595026613</v>
+        <v>0.006138181455484615</v>
       </c>
       <c r="CK3">
-        <v>0.007759161124024368</v>
+        <v>0.006339235469424769</v>
       </c>
       <c r="CL3">
-        <v>0.008031202892782587</v>
+        <v>0.00659294975245127</v>
       </c>
       <c r="CM3">
-        <v>0.008284878311624642</v>
+        <v>0.006828233276468856</v>
       </c>
       <c r="CN3">
-        <v>0.07749302799571209</v>
+        <v>0.0762598080380171</v>
       </c>
       <c r="CO3">
-        <v>0.09226589942827876</v>
+        <v>0.09106520505511749</v>
       </c>
       <c r="CP3">
-        <v>0.2346288787784384</v>
+        <v>0.2339081567134491</v>
       </c>
       <c r="CQ3">
-        <v>0.2918887245170659</v>
+        <v>0.2913495259312028</v>
       </c>
       <c r="CR3">
-        <v>0.313540441418233</v>
+        <v>0.3130578918925991</v>
       </c>
       <c r="CS3">
-        <v>0.32074423438535</v>
+        <v>0.3202676663851876</v>
       </c>
       <c r="CT3">
-        <v>0.3507445572484084</v>
+        <v>0.3503539160984666</v>
       </c>
       <c r="CU3">
-        <v>0.3648199341841589</v>
+        <v>0.3644593725699743</v>
       </c>
       <c r="CV3">
-        <v>0.3783252691225114</v>
+        <v>0.3779927879594511</v>
       </c>
       <c r="CW3">
-        <v>0.3937973635518864</v>
+        <v>0.393499860083826</v>
       </c>
       <c r="CX3">
-        <v>0.3938104510068267</v>
+        <v>0.393499860083826</v>
       </c>
       <c r="CY3">
-        <v>0.4831114605991968</v>
+        <v>0.4830947585574833</v>
       </c>
       <c r="CZ3">
-        <v>0.4834854925974895</v>
+        <v>0.4834508207403589</v>
       </c>
       <c r="DA3">
-        <v>0.4871473306807744</v>
+        <v>0.4871062190404895</v>
       </c>
       <c r="DB3">
-        <v>0.5049289025996073</v>
+        <v>0.5049308677785637</v>
       </c>
       <c r="DC3">
-        <v>0.5071071899896642</v>
+        <v>0.5070975127102127</v>
       </c>
       <c r="DD3">
-        <v>0.6026423635535774</v>
+        <v>0.6029484377926443</v>
       </c>
       <c r="DE3">
-        <v>0.6077227375303871</v>
+        <v>0.6080273466606555</v>
       </c>
       <c r="DF3">
-        <v>0.6329462274152501</v>
+        <v>0.6333200114836957</v>
       </c>
       <c r="DG3">
-        <v>0.6332361889939265</v>
+        <v>0.6335917084197585</v>
       </c>
       <c r="DH3">
-        <v>0.658229779879839</v>
+        <v>0.6586536680092934</v>
       </c>
       <c r="DI3">
-        <v>0.6631995448571536</v>
+        <v>0.6636215799822647</v>
       </c>
       <c r="DJ3">
-        <v>0.6643372525519603</v>
+        <v>0.6647439960017854</v>
       </c>
       <c r="DK3">
-        <v>0.667248594538671</v>
+        <v>0.6676462662848504</v>
       </c>
       <c r="DL3">
-        <v>0.6727513782135526</v>
+        <v>0.6731490662027289</v>
       </c>
       <c r="DM3">
-        <v>0.7079328080529609</v>
+        <v>0.7084345925559722</v>
       </c>
       <c r="DN3">
-        <v>0.709957464243719</v>
+        <v>0.7104470675178968</v>
       </c>
       <c r="DO3">
-        <v>0.7239233521799693</v>
+        <v>0.724442651022096</v>
       </c>
       <c r="DP3">
-        <v>0.7351252311288363</v>
+        <v>0.7356645324146903</v>
       </c>
       <c r="DQ3">
-        <v>0.7360542107245959</v>
+        <v>0.7365774883449995</v>
       </c>
       <c r="DR3">
-        <v>0.7383420137141528</v>
+        <v>0.7388540329372407</v>
       </c>
       <c r="DS3">
-        <v>0.7451754576829603</v>
+        <v>0.7456921596517898</v>
       </c>
       <c r="DT3">
-        <v>0.7458477244398917</v>
+        <v>0.7463475024750562</v>
       </c>
       <c r="DU3">
-        <v>0.7461778600683847</v>
+        <v>0.7466595143476178</v>
       </c>
       <c r="DV3">
-        <v>0.750297690049579</v>
+        <v>0.7507745106809414</v>
       </c>
       <c r="DW3">
-        <v>0.7595775970072193</v>
+        <v>0.7600676799040581</v>
       </c>
       <c r="DX3">
-        <v>0.7607151001020269</v>
+        <v>0.7611898906060663</v>
       </c>
       <c r="DY3">
-        <v>0.7618487083968524</v>
+        <v>0.7623081928493887</v>
       </c>
       <c r="DZ3">
-        <v>0.7638053090879211</v>
+        <v>0.7642523736472724</v>
       </c>
       <c r="EA3">
-        <v>0.763920355743396</v>
+        <v>0.7643485422496541</v>
       </c>
       <c r="EB3">
-        <v>0.7680639412244818</v>
+        <v>0.7684873773912132</v>
       </c>
       <c r="EC3">
-        <v>0.7682369482036921</v>
+        <v>0.7686417095788322</v>
       </c>
       <c r="ED3">
-        <v>0.7684924678725258</v>
+        <v>0.7688788438204557</v>
       </c>
       <c r="EE3">
-        <v>0.7699499370658729</v>
+        <v>0.7703221427125574</v>
       </c>
       <c r="EF3">
-        <v>0.7711218054605237</v>
+        <v>0.7714788392303412</v>
       </c>
       <c r="EG3">
-        <v>0.7716905145579277</v>
+        <v>0.7720302612269335</v>
       </c>
       <c r="EH3">
-        <v>0.772553587303988</v>
+        <v>0.7728770791783092</v>
       </c>
       <c r="EI3">
-        <v>0.780721543266704</v>
+        <v>0.7810543978970674</v>
       </c>
       <c r="EJ3">
-        <v>0.7873600272364014</v>
+        <v>0.787696880905797</v>
       </c>
       <c r="EK3">
-        <v>0.7873601863031406</v>
+        <v>0.787696880905797</v>
       </c>
       <c r="EL3">
-        <v>0.7874149904858905</v>
+        <v>0.7877325957706661</v>
       </c>
       <c r="EM3">
-        <v>0.790053627373846</v>
+        <v>0.790361204603383</v>
       </c>
       <c r="EN3">
-        <v>0.7900559902792352</v>
+        <v>0.790361204603383</v>
       </c>
       <c r="EO3">
-        <v>0.7929393360660737</v>
+        <v>0.7932353805064887</v>
       </c>
       <c r="EP3">
-        <v>0.7931981968248921</v>
+        <v>0.793475867554991</v>
       </c>
       <c r="EQ3">
-        <v>0.7933279421242999</v>
+        <v>0.7935867863480922</v>
       </c>
       <c r="ER3">
-        <v>0.7934014428639644</v>
+        <v>0.7936412633369742</v>
       </c>
       <c r="ES3">
-        <v>0.7934016647716134</v>
+        <v>0.7936412633369742</v>
       </c>
       <c r="ET3">
-        <v>0.79403553706872</v>
+        <v>0.7942580770545915</v>
       </c>
       <c r="EU3">
-        <v>0.7954592383622212</v>
+        <v>0.7956674896259416</v>
       </c>
       <c r="EV3">
-        <v>0.7993199115445985</v>
+        <v>0.7995224203214917</v>
       </c>
       <c r="EW3">
-        <v>0.8162037634675292</v>
+        <v>0.8164462008425557</v>
       </c>
       <c r="EX3">
-        <v>0.8397534023600328</v>
+        <v>0.840059144632411</v>
       </c>
       <c r="EY3">
-        <v>0.8533461872979862</v>
+        <v>0.85368031670056</v>
       </c>
       <c r="EZ3">
-        <v>0.85342421479763</v>
+        <v>0.8537393363243504</v>
       </c>
       <c r="FA3">
-        <v>0.8616995932598556</v>
+        <v>0.862024454263402</v>
       </c>
       <c r="FB3">
-        <v>0.8657506992413636</v>
+        <v>0.8660704855883201</v>
       </c>
       <c r="FC3">
-        <v>0.8723586122112007</v>
+        <v>0.8726822903875164</v>
       </c>
       <c r="FD3">
-        <v>0.8798892481768258</v>
+        <v>0.88022005408682</v>
       </c>
       <c r="FE3">
-        <v>0.8828143109634738</v>
+        <v>0.8831360932874005</v>
       </c>
       <c r="FF3">
-        <v>0.8828149285842111</v>
+        <v>0.8831360932874005</v>
       </c>
       <c r="FG3">
-        <v>0.8828665710209753</v>
+        <v>0.8831686353183329</v>
       </c>
       <c r="FH3">
-        <v>0.88800063519754</v>
+        <v>0.8883014226726705</v>
       </c>
       <c r="FI3">
-        <v>0.8952260021645586</v>
+        <v>0.8955328468231856</v>
       </c>
       <c r="FJ3">
-        <v>0.9077679111073089</v>
+        <v>0.9080994575710801</v>
       </c>
       <c r="FK3">
-        <v>0.9081016212757856</v>
+        <v>0.908415056519207</v>
       </c>
       <c r="FL3">
-        <v>0.9192363192249594</v>
+        <v>0.9195695213145472</v>
       </c>
       <c r="FM3">
-        <v>0.9314829501690576</v>
+        <v>0.9318398185511215</v>
       </c>
       <c r="FN3">
-        <v>0.9321748374658994</v>
+        <v>0.9325148507217196</v>
       </c>
       <c r="FO3">
-        <v>0.9337910817585218</v>
+        <v>0.9341174815227045</v>
       </c>
       <c r="FP3">
-        <v>0.9427591097175857</v>
+        <v>0.9430976780164034</v>
       </c>
       <c r="FQ3">
-        <v>0.9477496943948053</v>
+        <v>0.9480864827020442</v>
       </c>
       <c r="FR3">
-        <v>0.9482698710524309</v>
+        <v>0.9485892020600744</v>
       </c>
       <c r="FS3">
-        <v>0.948432845751687</v>
+        <v>0.9487334667854599</v>
       </c>
       <c r="FT3">
-        <v>0.9487985421300177</v>
+        <v>0.9490811641161243</v>
       </c>
       <c r="FU3">
-        <v>0.9498830759250672</v>
+        <v>0.9501502197599326</v>
       </c>
       <c r="FV3">
-        <v>0.9562604943959563</v>
+        <v>0.9565307217372628</v>
       </c>
       <c r="FW3">
-        <v>0.9588665775840604</v>
+        <v>0.9591266627073097</v>
       </c>
       <c r="FX3">
-        <v>0.9592960561120999</v>
+        <v>0.9595383658657908</v>
       </c>
       <c r="FY3">
-        <v>0.9631008975947321</v>
+        <v>0.9633372690649816</v>
       </c>
       <c r="FZ3">
-        <v>0.9664866278792773</v>
+        <v>0.9667155912818249</v>
       </c>
       <c r="GA3">
-        <v>0.9667393836981235</v>
+        <v>0.9669499519808945</v>
       </c>
       <c r="GB3">
-        <v>0.966741022476816</v>
+        <v>0.9669499519808945</v>
       </c>
       <c r="GC3">
-        <v>0.9672216417946221</v>
+        <v>0.9674129752751682</v>
       </c>
       <c r="GD3">
-        <v>0.9675966747929102</v>
+        <v>0.9677700419684538</v>
       </c>
       <c r="GE3">
-        <v>0.9678870252315849</v>
+        <v>0.9680421291282111</v>
       </c>
       <c r="GF3">
-        <v>0.9694049092246563</v>
+        <v>0.9695460546891594</v>
       </c>
       <c r="GG3">
-        <v>0.977311773188564</v>
+        <v>0.9774613657835854</v>
       </c>
       <c r="GH3">
-        <v>0.9787235066821199</v>
+        <v>0.9788587685850212</v>
       </c>
       <c r="GI3">
-        <v>0.9790732404505235</v>
+        <v>0.9791904473263598</v>
       </c>
       <c r="GJ3">
-        <v>0.9797378795474896</v>
+        <v>0.9798381357401621</v>
       </c>
       <c r="GK3">
-        <v>0.9812342144406593</v>
+        <v>0.9813204366305058</v>
       </c>
       <c r="GL3">
-        <v>0.9812512163055817</v>
+        <v>0.9813204366305058</v>
       </c>
       <c r="GM3">
-        <v>0.9841175195924979</v>
+        <v>0.9841775102672162</v>
       </c>
       <c r="GN3">
-        <v>0.9933307405504426</v>
+        <v>0.9934037596289959</v>
       </c>
       <c r="GO3">
-        <v>0.9992443465234488</v>
+        <v>0.999318822560853</v>
       </c>
       <c r="GP3">
-        <v>0.9995102278522352</v>
+        <v>0.9995663547998137</v>
       </c>
       <c r="GQ3">
-        <v>0.9995945014518505</v>
+        <v>0.9996316424280712</v>
       </c>
       <c r="GR3">
-        <v>0.999656185201569</v>
+        <v>0.9996742609859148</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.415775585004219E-05</v>
+        <v>1.128306807650396E-06</v>
       </c>
       <c r="C4">
-        <v>0.0002369145468316951</v>
+        <v>0.0001717929155709075</v>
       </c>
       <c r="D4">
-        <v>0.000338782502349037</v>
+        <v>0.0002410078330006697</v>
       </c>
       <c r="E4">
-        <v>0.0004665795992707452</v>
+        <v>0.000336296035744009</v>
       </c>
       <c r="F4">
-        <v>0.0006850119511014132</v>
+        <v>0.0005227233481036867</v>
       </c>
       <c r="G4">
-        <v>0.001060532371440238</v>
+        <v>0.000867112004639697</v>
       </c>
       <c r="H4">
-        <v>0.001303344714591368</v>
+        <v>0.001078054840275972</v>
       </c>
       <c r="I4">
-        <v>0.00163762653269664</v>
+        <v>0.001380975643125648</v>
       </c>
       <c r="J4">
-        <v>0.001952447219747864</v>
+        <v>0.00166432712763254</v>
       </c>
       <c r="K4">
-        <v>0.002006443686672405</v>
+        <v>0.001685404431826271</v>
       </c>
       <c r="L4">
-        <v>0.002020666478442735</v>
+        <v>0.001685404431826271</v>
       </c>
       <c r="M4">
-        <v>0.002100582782771138</v>
+        <v>0.001732545665610769</v>
       </c>
       <c r="N4">
-        <v>0.002167501886395591</v>
+        <v>0.001766617445341733</v>
       </c>
       <c r="O4">
-        <v>0.002169293655992637</v>
+        <v>0.001766617445341733</v>
       </c>
       <c r="P4">
-        <v>0.00220300406481845</v>
+        <v>0.001767295918257277</v>
       </c>
       <c r="Q4">
-        <v>0.002236039751607719</v>
+        <v>0.001767295918257277</v>
       </c>
       <c r="R4">
-        <v>0.002236977117598488</v>
+        <v>0.001767295918257277</v>
       </c>
       <c r="S4">
-        <v>0.002286637860288199</v>
+        <v>0.001784013395287711</v>
       </c>
       <c r="T4">
-        <v>0.00240997540696837</v>
+        <v>0.001874817256494071</v>
       </c>
       <c r="U4">
-        <v>0.002522224243047958</v>
+        <v>0.001954470763327338</v>
       </c>
       <c r="V4">
-        <v>0.002695907532454941</v>
+        <v>0.002095900246646239</v>
       </c>
       <c r="W4">
-        <v>0.002810020208635478</v>
+        <v>0.002177427954941601</v>
       </c>
       <c r="X4">
-        <v>0.00298102023789713</v>
+        <v>0.002316159261477526</v>
       </c>
       <c r="Y4">
-        <v>0.003244440472164419</v>
+        <v>0.00254782455052648</v>
       </c>
       <c r="Z4">
-        <v>0.003474844044643468</v>
+        <v>0.002746289633310152</v>
       </c>
       <c r="AA4">
-        <v>0.003645844073905121</v>
+        <v>0.002885020939846077</v>
       </c>
       <c r="AB4">
-        <v>0.00365728553352481</v>
+        <v>0.002885020939846077</v>
       </c>
       <c r="AC4">
-        <v>0.003658924372113572</v>
+        <v>0.002885020939846077</v>
       </c>
       <c r="AD4">
-        <v>0.003668657079140712</v>
+        <v>0.002885020939846077</v>
       </c>
       <c r="AE4">
-        <v>0.003706200381174121</v>
+        <v>0.002889553613586076</v>
       </c>
       <c r="AF4">
-        <v>0.003722239656042836</v>
+        <v>0.002889553613586076</v>
       </c>
       <c r="AG4">
-        <v>0.003862541913641845</v>
+        <v>0.00299741649503345</v>
       </c>
       <c r="AH4">
-        <v>0.004169639230274758</v>
+        <v>0.003273001673770373</v>
       </c>
       <c r="AI4">
-        <v>0.004324843748680899</v>
+        <v>0.00339584965988366</v>
       </c>
       <c r="AJ4">
-        <v>0.004407126593137477</v>
+        <v>0.003445370589740838</v>
       </c>
       <c r="AK4">
-        <v>0.00451166417479941</v>
+        <v>0.003517269974159422</v>
       </c>
       <c r="AL4">
-        <v>0.004617399350526207</v>
+        <v>0.003590373610244349</v>
       </c>
       <c r="AM4">
-        <v>0.004668225329279029</v>
+        <v>0.003608262801056484</v>
       </c>
       <c r="AN4">
-        <v>0.004758923878191417</v>
+        <v>0.003666246219507831</v>
       </c>
       <c r="AO4">
-        <v>0.004862567743804946</v>
+        <v>0.003737246919579101</v>
       </c>
       <c r="AP4">
-        <v>0.004913810906580362</v>
+        <v>0.003755555613601148</v>
       </c>
       <c r="AQ4">
-        <v>0.004969319759586816</v>
+        <v>0.003778153711453376</v>
       </c>
       <c r="AR4">
-        <v>0.005031087047932237</v>
+        <v>0.003807045036206745</v>
       </c>
       <c r="AS4">
-        <v>0.00505005567095961</v>
+        <v>0.003807045036206745</v>
       </c>
       <c r="AT4">
-        <v>0.005051570959341681</v>
+        <v>0.003807045036206745</v>
       </c>
       <c r="AU4">
-        <v>0.005052655004600394</v>
+        <v>0.003807045036206745</v>
       </c>
       <c r="AV4">
-        <v>0.005055689424764744</v>
+        <v>0.003807045036206745</v>
       </c>
       <c r="AW4">
-        <v>0.005059730145283596</v>
+        <v>0.003807045036206745</v>
       </c>
       <c r="AX4">
-        <v>0.005106751914830375</v>
+        <v>0.00382110886965456</v>
       </c>
       <c r="AY4">
-        <v>0.005116123656337964</v>
+        <v>0.00382110886965456</v>
       </c>
       <c r="AZ4">
-        <v>0.005127368433947001</v>
+        <v>0.00382110886965456</v>
       </c>
       <c r="BA4">
-        <v>0.005134717619945045</v>
+        <v>0.00382110886965456</v>
       </c>
       <c r="BB4">
-        <v>0.005156094317102844</v>
+        <v>0.00382110886965456</v>
       </c>
       <c r="BC4">
-        <v>0.00518275792154699</v>
+        <v>0.00382110886965456</v>
       </c>
       <c r="BD4">
-        <v>0.00524576368495949</v>
+        <v>0.003851245554339988</v>
       </c>
       <c r="BE4">
-        <v>0.005351309780676046</v>
+        <v>0.003924159059291098</v>
       </c>
       <c r="BF4">
-        <v>0.005363657411344814</v>
+        <v>0.003924159059291098</v>
       </c>
       <c r="BG4">
-        <v>0.005386266399569356</v>
+        <v>0.003924159059291098</v>
       </c>
       <c r="BH4">
-        <v>0.00541129725992507</v>
+        <v>0.003924159059291098</v>
       </c>
       <c r="BI4">
-        <v>0.005431214715003833</v>
+        <v>0.003924159059291098</v>
       </c>
       <c r="BJ4">
-        <v>0.005448733158952662</v>
+        <v>0.003924159059291098</v>
       </c>
       <c r="BK4">
-        <v>0.005491453101266446</v>
+        <v>0.00393389715101587</v>
       </c>
       <c r="BL4">
-        <v>0.005554458864678946</v>
+        <v>0.003964033835701297</v>
       </c>
       <c r="BM4">
-        <v>0.005554829242719006</v>
+        <v>0.003964033835701297</v>
       </c>
       <c r="BN4">
-        <v>0.005587635404495844</v>
+        <v>0.003964033835701297</v>
       </c>
       <c r="BO4">
-        <v>0.005588287590391167</v>
+        <v>0.003964033835701297</v>
       </c>
       <c r="BP4">
-        <v>0.005601469695105133</v>
+        <v>0.003964033835701297</v>
       </c>
       <c r="BQ4">
-        <v>0.005606677886387217</v>
+        <v>0.003964033835701297</v>
       </c>
       <c r="BR4">
-        <v>0.005648002858625448</v>
+        <v>0.003972369202506773</v>
       </c>
       <c r="BS4">
-        <v>0.005663233993450392</v>
+        <v>0.003972369202506773</v>
       </c>
       <c r="BT4">
-        <v>0.005717230460374932</v>
+        <v>0.003993446506700504</v>
       </c>
       <c r="BU4">
-        <v>0.005728537008987314</v>
+        <v>0.003993446506700504</v>
       </c>
       <c r="BV4">
-        <v>0.005761678513782315</v>
+        <v>0.003993552912964086</v>
       </c>
       <c r="BW4">
-        <v>0.005870133194656404</v>
+        <v>0.004069391172325246</v>
       </c>
       <c r="BX4">
-        <v>0.005874093903370923</v>
+        <v>0.004069391172325246</v>
       </c>
       <c r="BY4">
-        <v>0.005880747936131316</v>
+        <v>0.004069391172325246</v>
       </c>
       <c r="BZ4">
-        <v>0.005890629693666529</v>
+        <v>0.004069391172325246</v>
       </c>
       <c r="CA4">
-        <v>0.005973975408180675</v>
+        <v>0.004119980880890906</v>
       </c>
       <c r="CB4">
-        <v>0.005974054927924982</v>
+        <v>0.004119980880890906</v>
       </c>
       <c r="CC4">
-        <v>0.005983248744422935</v>
+        <v>0.004119980880890906</v>
       </c>
       <c r="CD4">
-        <v>0.006055525978337593</v>
+        <v>0.00415944057754612</v>
       </c>
       <c r="CE4">
-        <v>0.006262042029522854</v>
+        <v>0.004333885344793149</v>
       </c>
       <c r="CF4">
-        <v>0.006347264194138632</v>
+        <v>0.004386361934922434</v>
       </c>
       <c r="CG4">
-        <v>0.006347949085875727</v>
+        <v>0.004386361934922434</v>
       </c>
       <c r="CH4">
-        <v>0.006348925581728616</v>
+        <v>0.004386361934922434</v>
       </c>
       <c r="CI4">
-        <v>0.006349443956216692</v>
+        <v>0.004386361934922434</v>
       </c>
       <c r="CJ4">
-        <v>0.006349619342386191</v>
+        <v>0.004386361934922434</v>
       </c>
       <c r="CK4">
-        <v>0.006352827594559955</v>
+        <v>0.004386361934922434</v>
       </c>
       <c r="CL4">
-        <v>0.006355391960898846</v>
+        <v>0.004386361934922434</v>
       </c>
       <c r="CM4">
-        <v>0.006843770617350265</v>
+        <v>0.004844236223098187</v>
       </c>
       <c r="CN4">
-        <v>0.08247385471360434</v>
+        <v>0.08086153973906995</v>
       </c>
       <c r="CO4">
-        <v>0.1230680209122535</v>
+        <v>0.1216481555388074</v>
       </c>
       <c r="CP4">
-        <v>0.2411141623058334</v>
+        <v>0.2403173134506973</v>
       </c>
       <c r="CQ4">
-        <v>0.2413095041664134</v>
+        <v>0.2404805219083707</v>
       </c>
       <c r="CR4">
-        <v>0.2737917159257053</v>
+        <v>0.2731100877213901</v>
       </c>
       <c r="CS4">
-        <v>0.281445476640246</v>
+        <v>0.2807731774799819</v>
       </c>
       <c r="CT4">
-        <v>0.2845612491090015</v>
+        <v>0.283873051648948</v>
       </c>
       <c r="CU4">
-        <v>0.3317347296639975</v>
+        <v>0.3312755571808406</v>
       </c>
       <c r="CV4">
-        <v>0.3317347308063156</v>
+        <v>0.3312755571808406</v>
       </c>
       <c r="CW4">
-        <v>0.3480738716912713</v>
+        <v>0.3476723104151532</v>
       </c>
       <c r="CX4">
-        <v>0.3905867119938391</v>
+        <v>0.3903882665102396</v>
       </c>
       <c r="CY4">
-        <v>0.446814079039209</v>
+        <v>0.4468949904186229</v>
       </c>
       <c r="CZ4">
-        <v>0.4528361183653729</v>
+        <v>0.4529172878097417</v>
       </c>
       <c r="DA4">
-        <v>0.4572696086054983</v>
+        <v>0.4573422051369016</v>
       </c>
       <c r="DB4">
-        <v>0.4738912665057556</v>
+        <v>0.47402304594014</v>
       </c>
       <c r="DC4">
-        <v>0.5155214987605198</v>
+        <v>0.5158514874395226</v>
       </c>
       <c r="DD4">
-        <v>0.578765582185927</v>
+        <v>0.5794139346859086</v>
       </c>
       <c r="DE4">
-        <v>0.5905981228267976</v>
+        <v>0.5912790348228117</v>
       </c>
       <c r="DF4">
-        <v>0.6090242978247906</v>
+        <v>0.6097744242996351</v>
       </c>
       <c r="DG4">
-        <v>0.6190413618673318</v>
+        <v>0.6198139553368845</v>
       </c>
       <c r="DH4">
-        <v>0.637386892860957</v>
+        <v>0.6382282524974634</v>
       </c>
       <c r="DI4">
-        <v>0.637404656586919</v>
+        <v>0.6382282524974634</v>
       </c>
       <c r="DJ4">
-        <v>0.6392831680886624</v>
+        <v>0.6400839875837976</v>
       </c>
       <c r="DK4">
-        <v>0.6394813771293977</v>
+        <v>0.6402500791607023</v>
       </c>
       <c r="DL4">
-        <v>0.6673201466371929</v>
+        <v>0.6682103891440625</v>
       </c>
       <c r="DM4">
-        <v>0.6909289139158838</v>
+        <v>0.6919171816940253</v>
       </c>
       <c r="DN4">
-        <v>0.6915622021801838</v>
+        <v>0.6925207711638645</v>
       </c>
       <c r="DO4">
-        <v>0.7021974657562078</v>
+        <v>0.7031819383966919</v>
       </c>
       <c r="DP4">
-        <v>0.7047783318959919</v>
+        <v>0.705743932613761</v>
       </c>
       <c r="DQ4">
-        <v>0.7048108660147541</v>
+        <v>0.705743932613761</v>
       </c>
       <c r="DR4">
-        <v>0.7097007605795991</v>
+        <v>0.710627791484383</v>
       </c>
       <c r="DS4">
-        <v>0.7125259777326176</v>
+        <v>0.7134354950978941</v>
       </c>
       <c r="DT4">
-        <v>0.7129037649130792</v>
+        <v>0.7137821631158057</v>
       </c>
       <c r="DU4">
-        <v>0.7133243399958582</v>
+        <v>0.7141718569002744</v>
       </c>
       <c r="DV4">
-        <v>0.7236398395545632</v>
+        <v>0.7245114825005984</v>
       </c>
       <c r="DW4">
-        <v>0.7247311136136685</v>
+        <v>0.7255756037756099</v>
       </c>
       <c r="DX4">
-        <v>0.729065291848415</v>
+        <v>0.7299006570073521</v>
       </c>
       <c r="DY4">
-        <v>0.7298328898899894</v>
+        <v>0.730639302902264</v>
       </c>
       <c r="DZ4">
-        <v>0.7350507171725958</v>
+        <v>0.7358529175168386</v>
       </c>
       <c r="EA4">
-        <v>0.7359345609204663</v>
+        <v>0.7367084553450185</v>
       </c>
       <c r="EB4">
-        <v>0.7371170130845099</v>
+        <v>0.737864261597459</v>
       </c>
       <c r="EC4">
-        <v>0.7375557445382724</v>
+        <v>0.7382722126868468</v>
       </c>
       <c r="ED4">
-        <v>0.7375982034205721</v>
+        <v>0.7382816882672865</v>
       </c>
       <c r="EE4">
-        <v>0.7401122065567348</v>
+        <v>0.7407764477794667</v>
       </c>
       <c r="EF4">
-        <v>0.7401471141436254</v>
+        <v>0.740778330085736</v>
       </c>
       <c r="EG4">
-        <v>0.7408645922324852</v>
+        <v>0.7414665774037476</v>
       </c>
       <c r="EH4">
-        <v>0.7420082098944255</v>
+        <v>0.7425833332673779</v>
       </c>
       <c r="EI4">
-        <v>0.749795382116192</v>
+        <v>0.7503805761873786</v>
       </c>
       <c r="EJ4">
-        <v>0.7503030675436891</v>
+        <v>0.7508578645757789</v>
       </c>
       <c r="EK4">
-        <v>0.7503072265072144</v>
+        <v>0.7508578645757789</v>
       </c>
       <c r="EL4">
-        <v>0.7525604470292526</v>
+        <v>0.7530903917449421</v>
       </c>
       <c r="EM4">
-        <v>0.7530681324567498</v>
+        <v>0.7535676801333423</v>
       </c>
       <c r="EN4">
-        <v>0.7544224570301022</v>
+        <v>0.754896314259084</v>
       </c>
       <c r="EO4">
-        <v>0.7556642430973595</v>
+        <v>0.7561117842606294</v>
       </c>
       <c r="EP4">
-        <v>0.7558571440278073</v>
+        <v>0.7562725382186811</v>
       </c>
       <c r="EQ4">
-        <v>0.7559520617669483</v>
+        <v>0.7563347642824598</v>
       </c>
       <c r="ER4">
-        <v>0.7559715424860034</v>
+        <v>0.7563347642824598</v>
       </c>
       <c r="ES4">
-        <v>0.7561681105666499</v>
+        <v>0.7564992057769373</v>
       </c>
       <c r="ET4">
-        <v>0.7561760761340813</v>
+        <v>0.7564992057769373</v>
       </c>
       <c r="EU4">
-        <v>0.7563990065661557</v>
+        <v>0.75669015617503</v>
       </c>
       <c r="EV4">
-        <v>0.7614204523381257</v>
+        <v>0.7617062975652783</v>
       </c>
       <c r="EW4">
-        <v>0.7782384422490167</v>
+        <v>0.7785845618176626</v>
       </c>
       <c r="EX4">
-        <v>0.8015982805142253</v>
+        <v>0.8020410415211591</v>
       </c>
       <c r="EY4">
-        <v>0.8041055099500212</v>
+        <v>0.8045289896769763</v>
       </c>
       <c r="EZ4">
-        <v>0.8098100868589908</v>
+        <v>0.8102320598306497</v>
       </c>
       <c r="FA4">
-        <v>0.8236444281082823</v>
+        <v>0.8241100888798638</v>
       </c>
       <c r="FB4">
-        <v>0.8310498921093749</v>
+        <v>0.8315235016070724</v>
       </c>
       <c r="FC4">
-        <v>0.839978934592987</v>
+        <v>0.8404689626135839</v>
       </c>
       <c r="FD4">
-        <v>0.8448232598553639</v>
+        <v>0.8453069988552857</v>
       </c>
       <c r="FE4">
-        <v>0.8452496212484564</v>
+        <v>0.8457025111170177</v>
       </c>
       <c r="FF4">
-        <v>0.8459670993373162</v>
+        <v>0.8463907584350292</v>
       </c>
       <c r="FG4">
-        <v>0.8468780584166553</v>
+        <v>0.8472735623327919</v>
       </c>
       <c r="FH4">
-        <v>0.8509883702392768</v>
+        <v>0.8513735046461109</v>
       </c>
       <c r="FI4">
-        <v>0.8591246466799514</v>
+        <v>0.8595217925066985</v>
       </c>
       <c r="FJ4">
-        <v>0.8623489198545835</v>
+        <v>0.862730770552917</v>
       </c>
       <c r="FK4">
-        <v>0.8662437976655367</v>
+        <v>0.8666140812252234</v>
       </c>
       <c r="FL4">
-        <v>0.8922920330763535</v>
+        <v>0.8927739032693129</v>
       </c>
       <c r="FM4">
-        <v>0.9019711536005912</v>
+        <v>0.9024736121105554</v>
       </c>
       <c r="FN4">
-        <v>0.9029819779553392</v>
+        <v>0.9034568364494754</v>
       </c>
       <c r="FO4">
-        <v>0.9128545264900532</v>
+        <v>0.9133510485959426</v>
       </c>
       <c r="FP4">
-        <v>0.9233337820576275</v>
+        <v>0.9238553405488649</v>
       </c>
       <c r="FQ4">
-        <v>0.927221373968186</v>
+        <v>0.9277313248173852</v>
       </c>
       <c r="FR4">
-        <v>0.9273965999376765</v>
+        <v>0.9278743055567731</v>
       </c>
       <c r="FS4">
-        <v>0.9274141183816254</v>
+        <v>0.9278743055567731</v>
       </c>
       <c r="FT4">
-        <v>0.9275966192015099</v>
+        <v>0.9280246015885179</v>
       </c>
       <c r="FU4">
-        <v>0.9341605555570239</v>
+        <v>0.9345918084942434</v>
       </c>
       <c r="FV4">
-        <v>0.9432531300494933</v>
+        <v>0.943701710608092</v>
       </c>
       <c r="FW4">
-        <v>0.9449884717434823</v>
+        <v>0.9454134799846616</v>
       </c>
       <c r="FX4">
-        <v>0.9480120337072436</v>
+        <v>0.9484206310368792</v>
       </c>
       <c r="FY4">
-        <v>0.9545594203618613</v>
+        <v>0.954971196239488</v>
       </c>
       <c r="FZ4">
-        <v>0.9580907773531255</v>
+        <v>0.9584889652264234</v>
       </c>
       <c r="GA4">
-        <v>0.9581686190573415</v>
+        <v>0.9585340203270885</v>
       </c>
       <c r="GB4">
-        <v>0.9587477356887074</v>
+        <v>0.9590831370159217</v>
       </c>
       <c r="GC4">
-        <v>0.9595777362936616</v>
+        <v>0.9598845323792379</v>
       </c>
       <c r="GD4">
-        <v>0.9603233520840454</v>
+        <v>0.9606010738203929</v>
       </c>
       <c r="GE4">
-        <v>0.9603622728931535</v>
+        <v>0.9606069916589719</v>
       </c>
       <c r="GF4">
-        <v>0.9637313392756278</v>
+        <v>0.9639615678397628</v>
       </c>
       <c r="GG4">
-        <v>0.9688651392536831</v>
+        <v>0.9690906880296466</v>
       </c>
       <c r="GH4">
-        <v>0.9689758466296792</v>
+        <v>0.9691687915071932</v>
       </c>
       <c r="GI4">
-        <v>0.9699872558844588</v>
+        <v>0.97015260399769</v>
       </c>
       <c r="GJ4">
-        <v>0.9715797027707084</v>
+        <v>0.9717206841932753</v>
       </c>
       <c r="GK4">
-        <v>0.9718405841848382</v>
+        <v>0.9719497965485123</v>
       </c>
       <c r="GL4">
-        <v>0.9723901330446028</v>
+        <v>0.9724691810941547</v>
       </c>
       <c r="GM4">
-        <v>0.9824228965879943</v>
+        <v>0.9825244989080878</v>
       </c>
       <c r="GN4">
-        <v>0.9948015562584436</v>
+        <v>0.9949387540305463</v>
       </c>
       <c r="GO4">
-        <v>0.9990999954912544</v>
+        <v>0.9992278695819866</v>
       </c>
       <c r="GP4">
-        <v>0.9992675763203308</v>
+        <v>0.9993631626805008</v>
       </c>
       <c r="GQ4">
-        <v>0.9993823136865452</v>
+        <v>0.9994453185515738</v>
       </c>
       <c r="GR4">
-        <v>0.9997125345844305</v>
+        <v>0.999744155858951</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.054706575050563E-05</v>
+        <v>3.16965474021801E-05</v>
       </c>
       <c r="C5">
-        <v>0.000196234982471894</v>
+        <v>0.0001787285638718477</v>
       </c>
       <c r="D5">
-        <v>0.0004282193724871681</v>
+        <v>0.0004021860145930882</v>
       </c>
       <c r="E5">
-        <v>0.0005227747605693313</v>
+        <v>0.0004879821724909821</v>
       </c>
       <c r="F5">
-        <v>0.0005544480349367359</v>
+        <v>0.0005107899294860477</v>
       </c>
       <c r="G5">
-        <v>0.0005876820313715204</v>
+        <v>0.0005351610465762262</v>
       </c>
       <c r="H5">
-        <v>0.0005905592404957358</v>
+        <v>0.0005351610465762262</v>
       </c>
       <c r="I5">
-        <v>0.0005954346612062184</v>
+        <v>0.0005351610465762262</v>
       </c>
       <c r="J5">
-        <v>0.0005999329154004179</v>
+        <v>0.0005351610465762262</v>
       </c>
       <c r="K5">
-        <v>0.0006088369187848231</v>
+        <v>0.0005351610465762262</v>
       </c>
       <c r="L5">
-        <v>0.0006218354883459999</v>
+        <v>0.0005392625336387564</v>
       </c>
       <c r="M5">
-        <v>0.0006342481278818807</v>
+        <v>0.0005427771003012862</v>
       </c>
       <c r="N5">
-        <v>0.0006692422693926544</v>
+        <v>0.0005689113375721329</v>
       </c>
       <c r="O5">
-        <v>0.0007203434915988061</v>
+        <v>0.0006111798807096182</v>
       </c>
       <c r="P5">
-        <v>0.0007643385094981673</v>
+        <v>0.0006463302081999017</v>
       </c>
       <c r="Q5">
-        <v>0.0007728672068663698</v>
+        <v>0.0006463302081999017</v>
       </c>
       <c r="R5">
-        <v>0.0007919429276899105</v>
+        <v>0.0006565191184969195</v>
       </c>
       <c r="S5">
-        <v>0.0008336071694886471</v>
+        <v>0.0006893347302665</v>
       </c>
       <c r="T5">
-        <v>0.0009369804439514978</v>
+        <v>0.0007839636790750463</v>
       </c>
       <c r="U5">
-        <v>0.0009435556398353634</v>
+        <v>0.0007839636790750463</v>
       </c>
       <c r="V5">
-        <v>0.001008259816628784</v>
+        <v>0.0008398581693442165</v>
       </c>
       <c r="W5">
-        <v>0.00116372902334073</v>
+        <v>0.0009866711061274299</v>
       </c>
       <c r="X5">
-        <v>0.001242089460723722</v>
+        <v>0.001056244939631646</v>
       </c>
       <c r="Y5">
-        <v>0.001308568763593779</v>
+        <v>0.001113917556403933</v>
       </c>
       <c r="Z5">
-        <v>0.001425745628652561</v>
+        <v>0.001222373427480058</v>
       </c>
       <c r="AA5">
-        <v>0.001535338209383913</v>
+        <v>0.0013232321948083</v>
       </c>
       <c r="AB5">
-        <v>0.001560777803482196</v>
+        <v>0.001339795734987236</v>
       </c>
       <c r="AC5">
-        <v>0.001593282954885515</v>
+        <v>0.001363436775107574</v>
       </c>
       <c r="AD5">
-        <v>0.001613372185752811</v>
+        <v>0.001374640908544907</v>
       </c>
       <c r="AE5">
-        <v>0.001617641004337105</v>
+        <v>0.001374640908544907</v>
       </c>
       <c r="AF5">
-        <v>0.001617775996122933</v>
+        <v>0.001374640908544907</v>
       </c>
       <c r="AG5">
-        <v>0.001625296227047598</v>
+        <v>0.001374640908544907</v>
       </c>
       <c r="AH5">
-        <v>0.001633169123387488</v>
+        <v>0.001374640908544907</v>
       </c>
       <c r="AI5">
-        <v>0.001843563442470672</v>
+        <v>0.001576471795477916</v>
       </c>
       <c r="AJ5">
-        <v>0.002020803330122506</v>
+        <v>0.001745092211335221</v>
       </c>
       <c r="AK5">
-        <v>0.002113502970124552</v>
+        <v>0.001829029484454284</v>
       </c>
       <c r="AL5">
-        <v>0.002332731219589116</v>
+        <v>0.002039709233417189</v>
       </c>
       <c r="AM5">
-        <v>0.002657162253595514</v>
+        <v>0.002355769587091853</v>
       </c>
       <c r="AN5">
-        <v>0.003117284723460009</v>
+        <v>0.002807750730574577</v>
       </c>
       <c r="AO5">
-        <v>0.003396069395495754</v>
+        <v>0.003078087568010501</v>
       </c>
       <c r="AP5">
-        <v>0.003503845370148679</v>
+        <v>0.003177126658721803</v>
       </c>
       <c r="AQ5">
-        <v>0.00356119852662474</v>
+        <v>0.003225657703530233</v>
       </c>
       <c r="AR5">
-        <v>0.003571458664067693</v>
+        <v>0.00322701612980937</v>
       </c>
       <c r="AS5">
-        <v>0.003576870785301346</v>
+        <v>0.00322701612980937</v>
       </c>
       <c r="AT5">
-        <v>0.003584926154649114</v>
+        <v>0.00322701612980937</v>
       </c>
       <c r="AU5">
-        <v>0.003606009812559342</v>
+        <v>0.003239216371130939</v>
       </c>
       <c r="AV5">
-        <v>0.003685832206005449</v>
+        <v>0.003310254631785674</v>
       </c>
       <c r="AW5">
-        <v>0.003725573800721181</v>
+        <v>0.003341144346696756</v>
       </c>
       <c r="AX5">
-        <v>0.003751989929861623</v>
+        <v>0.003358686072517005</v>
       </c>
       <c r="AY5">
-        <v>0.003803357862079289</v>
+        <v>0.003401221776475551</v>
       </c>
       <c r="AZ5">
-        <v>0.003986986520006941</v>
+        <v>0.00357624176129828</v>
       </c>
       <c r="BA5">
-        <v>0.004164722827680207</v>
+        <v>0.003745359436256447</v>
       </c>
       <c r="BB5">
-        <v>0.004207097475509613</v>
+        <v>0.003778886654828346</v>
       </c>
       <c r="BC5">
-        <v>0.004234365269686823</v>
+        <v>0.00379728148522161</v>
       </c>
       <c r="BD5">
-        <v>0.00424847313629589</v>
+        <v>0.003802494144333633</v>
       </c>
       <c r="BE5">
-        <v>0.004321120839432251</v>
+        <v>0.003866345587578984</v>
       </c>
       <c r="BF5">
-        <v>0.004376084201805139</v>
+        <v>0.003912482798908332</v>
       </c>
       <c r="BG5">
-        <v>0.004406893783135257</v>
+        <v>0.003934425402999403</v>
       </c>
       <c r="BH5">
-        <v>0.004453283005137981</v>
+        <v>0.003971973981423011</v>
       </c>
       <c r="BI5">
-        <v>0.004480837690327577</v>
+        <v>0.003990656187749366</v>
       </c>
       <c r="BJ5">
-        <v>0.004486209093959472</v>
+        <v>0.003990656187749366</v>
       </c>
       <c r="BK5">
-        <v>0.004489844420616416</v>
+        <v>0.003990656187749366</v>
       </c>
       <c r="BL5">
-        <v>0.004490015354553796</v>
+        <v>0.003990656187749366</v>
       </c>
       <c r="BM5">
-        <v>0.004535779692529543</v>
+        <v>0.00402757882592886</v>
       </c>
       <c r="BN5">
-        <v>0.004603524899454252</v>
+        <v>0.004086519486464125</v>
       </c>
       <c r="BO5">
-        <v>0.00464494897624262</v>
+        <v>0.004119094527281773</v>
       </c>
       <c r="BP5">
-        <v>0.004744634110546246</v>
+        <v>0.004210029102011406</v>
       </c>
       <c r="BQ5">
-        <v>0.004928129138468128</v>
+        <v>0.004384915230958771</v>
       </c>
       <c r="BR5">
-        <v>0.005196940390073299</v>
+        <v>0.004645261790279949</v>
       </c>
       <c r="BS5">
-        <v>0.005323997645558639</v>
+        <v>0.00476361475222181</v>
       </c>
       <c r="BT5">
-        <v>0.00542560683494533</v>
+        <v>0.004856476634189889</v>
       </c>
       <c r="BU5">
-        <v>0.005598857082424923</v>
+        <v>0.005021100666341533</v>
       </c>
       <c r="BV5">
-        <v>0.005812843341663178</v>
+        <v>0.005226529564746182</v>
       </c>
       <c r="BW5">
-        <v>0.005971278188503158</v>
+        <v>0.00537631315436345</v>
       </c>
       <c r="BX5">
-        <v>0.006082205667292139</v>
+        <v>0.005478509076075526</v>
       </c>
       <c r="BY5">
-        <v>0.006116554500775054</v>
+        <v>0.005503996914579483</v>
       </c>
       <c r="BZ5">
-        <v>0.006117522512516845</v>
+        <v>0.005503996914579483</v>
       </c>
       <c r="CA5">
-        <v>0.00611776816826745</v>
+        <v>0.005503996914579483</v>
       </c>
       <c r="CB5">
-        <v>0.006118556679461492</v>
+        <v>0.005503996914579483</v>
       </c>
       <c r="CC5">
-        <v>0.006136264930225996</v>
+        <v>0.005512816043436075</v>
       </c>
       <c r="CD5">
-        <v>0.006206826103272277</v>
+        <v>0.005574577429810789</v>
       </c>
       <c r="CE5">
-        <v>0.006341517909087217</v>
+        <v>0.00570057784646537</v>
       </c>
       <c r="CF5">
-        <v>0.006539140667619024</v>
+        <v>0.005889615585575551</v>
       </c>
       <c r="CG5">
-        <v>0.006864243241654414</v>
+        <v>0.006206348614357167</v>
       </c>
       <c r="CH5">
-        <v>0.007142735273677525</v>
+        <v>0.006476392317142439</v>
       </c>
       <c r="CI5">
-        <v>0.007295822320286628</v>
+        <v>0.006620819067350353</v>
       </c>
       <c r="CJ5">
-        <v>0.007474289907991465</v>
+        <v>0.00679066925839425</v>
       </c>
       <c r="CK5">
-        <v>0.007763863460492989</v>
+        <v>0.007071813212320466</v>
       </c>
       <c r="CL5">
-        <v>0.007926240197503149</v>
+        <v>0.007225545354931365</v>
       </c>
       <c r="CM5">
-        <v>0.008012553901229499</v>
+        <v>0.007303085897875326</v>
       </c>
       <c r="CN5">
-        <v>0.008863041037946892</v>
+        <v>0.008146091526405828</v>
       </c>
       <c r="CO5">
-        <v>0.09547681477725321</v>
+        <v>0.09489734610109335</v>
       </c>
       <c r="CP5">
-        <v>0.1001744805800617</v>
+        <v>0.09959403313199823</v>
       </c>
       <c r="CQ5">
-        <v>0.3020481892953919</v>
+        <v>0.3018000420623709</v>
       </c>
       <c r="CR5">
-        <v>0.3311643745524014</v>
+        <v>0.3309565222200092</v>
       </c>
       <c r="CS5">
-        <v>0.3499018153613377</v>
+        <v>0.3497167151420008</v>
       </c>
       <c r="CT5">
-        <v>0.3499333900287009</v>
+        <v>0.34973942412532</v>
       </c>
       <c r="CU5">
-        <v>0.3658446107156231</v>
+        <v>0.3656686198754833</v>
       </c>
       <c r="CV5">
-        <v>0.3757039491412724</v>
+        <v>0.3755357041034584</v>
       </c>
       <c r="CW5">
-        <v>0.3857134825734058</v>
+        <v>0.3855532372066885</v>
       </c>
       <c r="CX5">
-        <v>0.4019302842735207</v>
+        <v>0.4017885304817311</v>
       </c>
       <c r="CY5">
-        <v>0.4038799444576918</v>
+        <v>0.4037325670471137</v>
       </c>
       <c r="CZ5">
-        <v>0.4760198775721307</v>
+        <v>0.4759855164277629</v>
       </c>
       <c r="DA5">
-        <v>0.4767547338438561</v>
+        <v>0.4767126957449532</v>
       </c>
       <c r="DB5">
-        <v>0.4771905036626692</v>
+        <v>0.4771402830750468</v>
       </c>
       <c r="DC5">
-        <v>0.4994635126242438</v>
+        <v>0.4994420201828436</v>
       </c>
       <c r="DD5">
-        <v>0.507573597974374</v>
+        <v>0.5075568946409452</v>
       </c>
       <c r="DE5">
-        <v>0.5928191366546105</v>
+        <v>0.5929376014821242</v>
       </c>
       <c r="DF5">
-        <v>0.5931141625673474</v>
+        <v>0.5932242070121979</v>
       </c>
       <c r="DG5">
-        <v>0.6228571558514175</v>
+        <v>0.6230085546660961</v>
       </c>
       <c r="DH5">
-        <v>0.6228575057604326</v>
+        <v>0.6230085546660961</v>
       </c>
       <c r="DI5">
-        <v>0.6423549886021817</v>
+        <v>0.6425300742903509</v>
       </c>
       <c r="DJ5">
-        <v>0.6449086584124292</v>
+        <v>0.6450791414157596</v>
       </c>
       <c r="DK5">
-        <v>0.6473181590164526</v>
+        <v>0.6474837956513492</v>
       </c>
       <c r="DL5">
-        <v>0.6527041089489759</v>
+        <v>0.6528699301918303</v>
       </c>
       <c r="DM5">
-        <v>0.6585073081995128</v>
+        <v>0.6586740193105987</v>
       </c>
       <c r="DN5">
-        <v>0.6981814799123336</v>
+        <v>0.6984063316774077</v>
       </c>
       <c r="DO5">
-        <v>0.6982499849452911</v>
+        <v>0.6984660334482802</v>
       </c>
       <c r="DP5">
-        <v>0.7130623525847735</v>
+        <v>0.7132945188024888</v>
       </c>
       <c r="DQ5">
-        <v>0.720725656415615</v>
+        <v>0.7209618565638983</v>
       </c>
       <c r="DR5">
-        <v>0.7211296334030556</v>
+        <v>0.7213575973244346</v>
       </c>
       <c r="DS5">
-        <v>0.7242799915390634</v>
+        <v>0.7245043613346446</v>
       </c>
       <c r="DT5">
-        <v>0.7300547570883726</v>
+        <v>0.7302799686918076</v>
       </c>
       <c r="DU5">
-        <v>0.7300583924150296</v>
+        <v>0.7302799686918076</v>
       </c>
       <c r="DV5">
-        <v>0.730225339542237</v>
+        <v>0.7304382789497683</v>
       </c>
       <c r="DW5">
-        <v>0.7336393479896273</v>
+        <v>0.733849138909215</v>
       </c>
       <c r="DX5">
-        <v>0.7392775155330393</v>
+        <v>0.7394879173741907</v>
       </c>
       <c r="DY5">
-        <v>0.7419107142467203</v>
+        <v>0.7421166478276413</v>
       </c>
       <c r="DZ5">
-        <v>0.7447313116684916</v>
+        <v>0.744933093741921</v>
       </c>
       <c r="EA5">
-        <v>0.7462880982357015</v>
+        <v>0.7464835926313668</v>
       </c>
       <c r="EB5">
-        <v>0.7471337979722122</v>
+        <v>0.7473218027677344</v>
       </c>
       <c r="EC5">
-        <v>0.7522647405937263</v>
+        <v>0.7524524989682789</v>
       </c>
       <c r="ED5">
-        <v>0.752613291948774</v>
+        <v>0.7527927204126342</v>
       </c>
       <c r="EE5">
-        <v>0.7532582403066178</v>
+        <v>0.7534298398480973</v>
       </c>
       <c r="EF5">
-        <v>0.7554389506007638</v>
+        <v>0.7556053170584581</v>
       </c>
       <c r="EG5">
-        <v>0.7560361121565446</v>
+        <v>0.7561945689196875</v>
       </c>
       <c r="EH5">
-        <v>0.7566103063813339</v>
+        <v>0.7567608146291401</v>
       </c>
       <c r="EI5">
-        <v>0.7578419556345068</v>
+        <v>0.7579856266376086</v>
       </c>
       <c r="EJ5">
-        <v>0.7666062480128806</v>
+        <v>0.7667558139046176</v>
       </c>
       <c r="EK5">
-        <v>0.770042126661215</v>
+        <v>0.7701885810313573</v>
       </c>
       <c r="EL5">
-        <v>0.7700845013090444</v>
+        <v>0.7702221082499292</v>
       </c>
       <c r="EM5">
-        <v>0.7701082615330701</v>
+        <v>0.7702369895814618</v>
       </c>
       <c r="EN5">
-        <v>0.7710106547720283</v>
+        <v>0.7711319890470965</v>
       </c>
       <c r="EO5">
-        <v>0.7714966131930082</v>
+        <v>0.7716098498111966</v>
       </c>
       <c r="EP5">
-        <v>0.7757508240766718</v>
+        <v>0.7758623323683757</v>
       </c>
       <c r="EQ5">
-        <v>0.7766208866142343</v>
+        <v>0.776724946485289</v>
       </c>
       <c r="ER5">
-        <v>0.7766378691779675</v>
+        <v>0.7767330387005137</v>
       </c>
       <c r="ES5">
-        <v>0.7766473007373746</v>
+        <v>0.7767335671482438</v>
       </c>
       <c r="ET5">
-        <v>0.776941085610058</v>
+        <v>0.7770189295405824</v>
       </c>
       <c r="EU5">
-        <v>0.7790298467002345</v>
+        <v>0.7791023021288148</v>
       </c>
       <c r="EV5">
-        <v>0.7814286003037939</v>
+        <v>0.7814961911987039</v>
       </c>
       <c r="EW5">
-        <v>0.7861544765078203</v>
+        <v>0.7862211363137693</v>
       </c>
       <c r="EX5">
-        <v>0.8033426592498718</v>
+        <v>0.8034294525182964</v>
       </c>
       <c r="EY5">
-        <v>0.8277712643045082</v>
+        <v>0.8278904292392884</v>
       </c>
       <c r="EZ5">
-        <v>0.8369648337014147</v>
+        <v>0.8370906191150578</v>
       </c>
       <c r="FA5">
-        <v>0.8390033621894225</v>
+        <v>0.8391236741949103</v>
       </c>
       <c r="FB5">
-        <v>0.852273026762303</v>
+        <v>0.8524068489115992</v>
       </c>
       <c r="FC5">
-        <v>0.8580887556133807</v>
+        <v>0.8582234888092044</v>
       </c>
       <c r="FD5">
-        <v>0.8677091750287153</v>
+        <v>0.8678512501913658</v>
       </c>
       <c r="FE5">
-        <v>0.8762517343975162</v>
+        <v>0.8763993296621306</v>
       </c>
       <c r="FF5">
-        <v>0.8798435178525814</v>
+        <v>0.8799882651154248</v>
       </c>
       <c r="FG5">
-        <v>0.8801819139871907</v>
+        <v>0.8803183141743681</v>
       </c>
       <c r="FH5">
-        <v>0.8811496463689699</v>
+        <v>0.8812787632230323</v>
       </c>
       <c r="FI5">
-        <v>0.8893686597238026</v>
+        <v>0.8895027498026011</v>
       </c>
       <c r="FJ5">
-        <v>0.8992542401505847</v>
+        <v>0.8993961203875419</v>
       </c>
       <c r="FK5">
-        <v>0.9127744107342801</v>
+        <v>0.9129302245356006</v>
       </c>
       <c r="FL5">
-        <v>0.912792892825078</v>
+        <v>0.9129398188124822</v>
       </c>
       <c r="FM5">
-        <v>0.9297234235560061</v>
+        <v>0.929890047506725</v>
       </c>
       <c r="FN5">
-        <v>0.9438731281668798</v>
+        <v>0.944054749758813</v>
       </c>
       <c r="FO5">
-        <v>0.9447733496657443</v>
+        <v>0.9449475738135462</v>
       </c>
       <c r="FP5">
-        <v>0.9466439821465036</v>
+        <v>0.9468124490980674</v>
       </c>
       <c r="FQ5">
-        <v>0.9541878314721881</v>
+        <v>0.9543601304450214</v>
       </c>
       <c r="FR5">
-        <v>0.959292040692548</v>
+        <v>0.9594640480579848</v>
       </c>
       <c r="FS5">
-        <v>0.9601444144293468</v>
+        <v>0.9603089434754434</v>
       </c>
       <c r="FT5">
-        <v>0.9608198857585084</v>
+        <v>0.960976637474014</v>
       </c>
       <c r="FU5">
-        <v>0.9614847180872107</v>
+        <v>0.961633674489437</v>
       </c>
       <c r="FV5">
-        <v>0.9630024463527344</v>
+        <v>0.9631450490584702</v>
       </c>
       <c r="FW5">
-        <v>0.9670757015285857</v>
+        <v>0.9672162700454509</v>
       </c>
       <c r="FX5">
-        <v>0.9682616292797848</v>
+        <v>0.968395283270671</v>
       </c>
       <c r="FY5">
-        <v>0.9686815317679128</v>
+        <v>0.9688069764501485</v>
       </c>
       <c r="FZ5">
-        <v>0.9718993571068334</v>
+        <v>0.972021321700457</v>
       </c>
       <c r="GA5">
-        <v>0.9730404278560959</v>
+        <v>0.973155402103697</v>
       </c>
       <c r="GB5">
-        <v>0.9730857041780506</v>
+        <v>0.9731918359009809</v>
       </c>
       <c r="GC5">
-        <v>0.9731317209300373</v>
+        <v>0.9732290113798169</v>
       </c>
       <c r="GD5">
-        <v>0.9733616234599627</v>
+        <v>0.9734503834515612</v>
       </c>
       <c r="GE5">
-        <v>0.9735256242070429</v>
+        <v>0.9736057423492432</v>
       </c>
       <c r="GF5">
-        <v>0.9735857064896368</v>
+        <v>0.9736570071331051</v>
       </c>
       <c r="GG5">
-        <v>0.9754539696702939</v>
+        <v>0.9755195091127883</v>
       </c>
       <c r="GH5">
-        <v>0.9835033720178041</v>
+        <v>0.9835735979981538</v>
       </c>
       <c r="GI5">
-        <v>0.9838931580946321</v>
+        <v>0.9839551238617338</v>
       </c>
       <c r="GJ5">
-        <v>0.984559856723415</v>
+        <v>0.9846140303317719</v>
       </c>
       <c r="GK5">
-        <v>0.9860194464864286</v>
+        <v>0.9860671681290484</v>
       </c>
       <c r="GL5">
-        <v>0.9885125595940617</v>
+        <v>0.9885555761952065</v>
       </c>
       <c r="GM5">
-        <v>0.9886858098415413</v>
+        <v>0.9887202002273582</v>
       </c>
       <c r="GN5">
-        <v>0.9912594004526488</v>
+        <v>0.9912892218249808</v>
       </c>
       <c r="GO5">
-        <v>0.9971471443068356</v>
+        <v>0.9971779984498504</v>
       </c>
       <c r="GP5">
-        <v>0.9991639096939038</v>
+        <v>0.9991892536434414</v>
       </c>
       <c r="GQ5">
-        <v>0.999316536050493</v>
+        <v>0.999333218924943</v>
       </c>
       <c r="GR5">
-        <v>0.9998709709744291</v>
+        <v>0.9998796719351658</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001080381888216451</v>
+        <v>3.078472182016956E-05</v>
       </c>
       <c r="C6">
-        <v>0.0002662924070955922</v>
+        <v>0.0001124230480131257</v>
       </c>
       <c r="D6">
-        <v>0.0004130277754951734</v>
+        <v>0.0001823962736250627</v>
       </c>
       <c r="E6">
-        <v>0.0005278178042431773</v>
+        <v>0.0002200185610621947</v>
       </c>
       <c r="F6">
-        <v>0.0005368008461452008</v>
+        <v>0.0002200185610621947</v>
       </c>
       <c r="G6">
-        <v>0.0005753946127242649</v>
+        <v>0.0002200185610621947</v>
       </c>
       <c r="H6">
-        <v>0.0006535044918723332</v>
+        <v>0.0002204949841919638</v>
       </c>
       <c r="I6">
-        <v>0.0007311439210255326</v>
+        <v>0.0002204949841919638</v>
       </c>
       <c r="J6">
-        <v>0.0008650132995654411</v>
+        <v>0.0002774388650842121</v>
       </c>
       <c r="K6">
-        <v>0.001310769994703645</v>
+        <v>0.0006502299840032156</v>
       </c>
       <c r="L6">
-        <v>0.001737597450048308</v>
+        <v>0.001003851525358291</v>
       </c>
       <c r="M6">
-        <v>0.002385698942979571</v>
+        <v>0.001581556541415133</v>
       </c>
       <c r="N6">
-        <v>0.002885926667523668</v>
+        <v>0.002009510288869251</v>
       </c>
       <c r="O6">
-        <v>0.003077359685435739</v>
+        <v>0.002124748674022739</v>
       </c>
       <c r="P6">
-        <v>0.003234355583723411</v>
+        <v>0.002205112703791737</v>
       </c>
       <c r="Q6">
-        <v>0.003375096002188378</v>
+        <v>0.002269014863739291</v>
       </c>
       <c r="R6">
-        <v>0.003507734570741711</v>
+        <v>0.002324712307491883</v>
       </c>
       <c r="S6">
-        <v>0.003582120599930395</v>
+        <v>0.002324712307491883</v>
       </c>
       <c r="T6">
-        <v>0.003619238395525557</v>
+        <v>0.002324712307491883</v>
       </c>
       <c r="U6">
-        <v>0.003619386550463941</v>
+        <v>0.002324712307491883</v>
       </c>
       <c r="V6">
-        <v>0.003625790976394089</v>
+        <v>0.002324712307491883</v>
       </c>
       <c r="W6">
-        <v>0.003626164887690011</v>
+        <v>0.002324712307491883</v>
       </c>
       <c r="X6">
-        <v>0.003648409956447387</v>
+        <v>0.002324712307491883</v>
       </c>
       <c r="Y6">
-        <v>0.00374643996537819</v>
+        <v>0.002345361779149672</v>
       </c>
       <c r="Z6">
-        <v>0.003909764053596841</v>
+        <v>0.002432134345608166</v>
       </c>
       <c r="AA6">
-        <v>0.004037463932204039</v>
+        <v>0.002482830394639196</v>
       </c>
       <c r="AB6">
-        <v>0.004258649459791605</v>
+        <v>0.00262819904641546</v>
       </c>
       <c r="AC6">
-        <v>0.004523418786903809</v>
+        <v>0.002817704865591511</v>
       </c>
       <c r="AD6">
-        <v>0.004826339013599907</v>
+        <v>0.003045845972644077</v>
       </c>
       <c r="AE6">
-        <v>0.004993431811777454</v>
+        <v>0.003136435099020504</v>
       </c>
       <c r="AF6">
-        <v>0.005066618050979224</v>
+        <v>0.003136435099020504</v>
       </c>
       <c r="AG6">
-        <v>0.00519949004953001</v>
+        <v>0.00319236893654753</v>
       </c>
       <c r="AH6">
-        <v>0.005346225417929592</v>
+        <v>0.003262342162159467</v>
       </c>
       <c r="AI6">
-        <v>0.005460444986683817</v>
+        <v>0.003299386746676824</v>
       </c>
       <c r="AJ6">
-        <v>0.005542553135788277</v>
+        <v>0.003303912204363</v>
       </c>
       <c r="AK6">
-        <v>0.005547862117730373</v>
+        <v>0.003303912204363</v>
       </c>
       <c r="AL6">
-        <v>0.005551239065393541</v>
+        <v>0.003303912204363</v>
       </c>
       <c r="AM6">
-        <v>0.005551250777462913</v>
+        <v>0.003303912204363</v>
       </c>
       <c r="AN6">
-        <v>0.005557013737400057</v>
+        <v>0.003303912204363</v>
       </c>
       <c r="AO6">
-        <v>0.005599336588938449</v>
+        <v>0.003303912204363</v>
       </c>
       <c r="AP6">
-        <v>0.005681986672036998</v>
+        <v>0.003308986476784873</v>
       </c>
       <c r="AQ6">
-        <v>0.005767817105100859</v>
+        <v>0.003317281478935221</v>
       </c>
       <c r="AR6">
-        <v>0.006045420732073082</v>
+        <v>0.003519784550474742</v>
       </c>
       <c r="AS6">
-        <v>0.006544456826630176</v>
+        <v>0.003946531538243183</v>
       </c>
       <c r="AT6">
-        <v>0.006725702504653359</v>
+        <v>0.004051453238505988</v>
       </c>
       <c r="AU6">
-        <v>0.006813270297698271</v>
+        <v>0.004061507659274118</v>
       </c>
       <c r="AV6">
-        <v>0.006977017055912312</v>
+        <v>0.004148708262217381</v>
       </c>
       <c r="AW6">
-        <v>0.007233712023112581</v>
+        <v>0.004330037204228839</v>
       </c>
       <c r="AX6">
-        <v>0.007310648432273448</v>
+        <v>0.004330037204228839</v>
       </c>
       <c r="AY6">
-        <v>0.00745973087064743</v>
+        <v>0.004402387299721076</v>
       </c>
       <c r="AZ6">
-        <v>0.007499829393210082</v>
+        <v>0.004402387299721076</v>
       </c>
       <c r="BA6">
-        <v>0.007578884447347841</v>
+        <v>0.004403820898388478</v>
       </c>
       <c r="BB6">
-        <v>0.007669217556362593</v>
+        <v>0.004416675745351784</v>
       </c>
       <c r="BC6">
-        <v>0.007690714695128127</v>
+        <v>0.004416675745351784</v>
       </c>
       <c r="BD6">
-        <v>0.007817812853741888</v>
+        <v>0.004466762434566372</v>
       </c>
       <c r="BE6">
-        <v>0.007845651549438256</v>
+        <v>0.004466762434566372</v>
       </c>
       <c r="BF6">
-        <v>0.007866535181210482</v>
+        <v>0.004466762434566372</v>
       </c>
       <c r="BG6">
-        <v>0.008147595908144997</v>
+        <v>0.00467276649962683</v>
       </c>
       <c r="BH6">
-        <v>0.008573740803497104</v>
+        <v>0.005025696814769864</v>
       </c>
       <c r="BI6">
-        <v>0.008646927042698873</v>
+        <v>0.005025696814769864</v>
       </c>
       <c r="BJ6">
-        <v>0.008646927045256731</v>
+        <v>0.005025696814769864</v>
       </c>
       <c r="BK6">
-        <v>0.008680212674893691</v>
+        <v>0.005025696814769864</v>
       </c>
       <c r="BL6">
-        <v>0.008897058952528583</v>
+        <v>0.00516667112269269</v>
       </c>
       <c r="BM6">
-        <v>0.00908840347044162</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BN6">
-        <v>0.00912515838504074</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BO6">
-        <v>0.009134545326938357</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BP6">
-        <v>0.009145371963820273</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BQ6">
-        <v>0.009148322444588092</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BR6">
-        <v>0.00916024923545801</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BS6">
-        <v>0.009179141175251959</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BT6">
-        <v>0.009207295798944881</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BU6">
-        <v>0.009215516016855226</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BV6">
-        <v>0.009237917252610899</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BW6">
-        <v>0.009304474421884971</v>
+        <v>0.005281819884194387</v>
       </c>
       <c r="BX6">
-        <v>0.009412025530711928</v>
+        <v>0.005312111341739824</v>
       </c>
       <c r="BY6">
-        <v>0.009583362398843186</v>
+        <v>0.00540699842350441</v>
       </c>
       <c r="BZ6">
-        <v>0.009758558796932347</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CA6">
-        <v>0.009784090224653879</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CB6">
-        <v>0.009818498580278593</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CC6">
-        <v>0.009873040369683714</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CD6">
-        <v>0.009877766831232163</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CE6">
-        <v>0.009878326275826061</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CF6">
-        <v>0.009893902321656175</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CG6">
-        <v>0.009894461766250074</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CH6">
-        <v>0.009912524202053069</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CI6">
-        <v>0.009914827853027944</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CJ6">
-        <v>0.00991501989022585</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CK6">
-        <v>0.009960658459728077</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CL6">
-        <v>0.0100062970292303</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CM6">
-        <v>0.01004639555179296</v>
+        <v>0.005505794038294902</v>
       </c>
       <c r="CN6">
-        <v>0.05558779705508032</v>
+        <v>0.05154679319798716</v>
       </c>
       <c r="CO6">
-        <v>0.08026214678596121</v>
+        <v>0.07645579911101368</v>
       </c>
       <c r="CP6">
-        <v>0.1675551458338707</v>
+        <v>0.1647785008788895</v>
       </c>
       <c r="CQ6">
-        <v>0.2842422785611831</v>
+        <v>0.2828685431019282</v>
       </c>
       <c r="CR6">
-        <v>0.2918582121781174</v>
+        <v>0.290502548308079</v>
       </c>
       <c r="CS6">
-        <v>0.3264500718008296</v>
+        <v>0.3254549831800088</v>
       </c>
       <c r="CT6">
-        <v>0.346443186582768</v>
+        <v>0.3456233181824507</v>
       </c>
       <c r="CU6">
-        <v>0.3465068956670731</v>
+        <v>0.3456233181824507</v>
       </c>
       <c r="CV6">
-        <v>0.37058198540449</v>
+        <v>0.3699254555127471</v>
       </c>
       <c r="CW6">
-        <v>0.3725720368827848</v>
+        <v>0.3718621487719618</v>
       </c>
       <c r="CX6">
-        <v>0.3789926575127562</v>
+        <v>0.3782856645307459</v>
       </c>
       <c r="CY6">
-        <v>0.4441539818020522</v>
+        <v>0.4441956936011366</v>
       </c>
       <c r="CZ6">
-        <v>0.4558426426745659</v>
+        <v>0.4559541360205129</v>
       </c>
       <c r="DA6">
-        <v>0.4599082546302229</v>
+        <v>0.4599927424042574</v>
       </c>
       <c r="DB6">
-        <v>0.472444609493491</v>
+        <v>0.4726096416810392</v>
       </c>
       <c r="DC6">
-        <v>0.4742782351734919</v>
+        <v>0.4743879230596871</v>
       </c>
       <c r="DD6">
-        <v>0.5412292444432683</v>
+        <v>0.5421103600990455</v>
       </c>
       <c r="DE6">
-        <v>0.567176746160263</v>
+        <v>0.5683086827524519</v>
       </c>
       <c r="DF6">
-        <v>0.5886424269261403</v>
+        <v>0.5899682803811274</v>
       </c>
       <c r="DG6">
-        <v>0.6011578977896361</v>
+        <v>0.6025640305014801</v>
       </c>
       <c r="DH6">
-        <v>0.6153362351349954</v>
+        <v>0.6168437599231786</v>
       </c>
       <c r="DI6">
-        <v>0.6369593578991555</v>
+        <v>0.6386627985347366</v>
       </c>
       <c r="DJ6">
-        <v>0.6369773343389594</v>
+        <v>0.6386627985347366</v>
       </c>
       <c r="DK6">
-        <v>0.6457682702430781</v>
+        <v>0.6474867246108031</v>
       </c>
       <c r="DL6">
-        <v>0.6469914468297372</v>
+        <v>0.6486468062428538</v>
       </c>
       <c r="DM6">
-        <v>0.6975157762786766</v>
+        <v>0.6997339997976442</v>
       </c>
       <c r="DN6">
-        <v>0.7065843871797667</v>
+        <v>0.7088391264105555</v>
       </c>
       <c r="DO6">
-        <v>0.7179667220556214</v>
+        <v>0.7202873535219295</v>
       </c>
       <c r="DP6">
-        <v>0.7287790749376928</v>
+        <v>0.731158361782518</v>
       </c>
       <c r="DQ6">
-        <v>0.7293500592314651</v>
+        <v>0.7316579704699894</v>
       </c>
       <c r="DR6">
-        <v>0.7296951811277009</v>
+        <v>0.7319288490660479</v>
       </c>
       <c r="DS6">
-        <v>0.7339895657808628</v>
+        <v>0.7361991327922087</v>
       </c>
       <c r="DT6">
-        <v>0.7347164445329348</v>
+        <v>0.7368566152740192</v>
       </c>
       <c r="DU6">
-        <v>0.7349160772807575</v>
+        <v>0.7369801574981139</v>
       </c>
       <c r="DV6">
-        <v>0.7360023221689099</v>
+        <v>0.7380015688589803</v>
       </c>
       <c r="DW6">
-        <v>0.74869435253048</v>
+        <v>0.7507761201900471</v>
       </c>
       <c r="DX6">
-        <v>0.7486958928385632</v>
+        <v>0.7507761201900471</v>
       </c>
       <c r="DY6">
-        <v>0.7516791528060253</v>
+        <v>0.753718632350491</v>
       </c>
       <c r="DZ6">
-        <v>0.752124774441165</v>
+        <v>0.7540912866946031</v>
       </c>
       <c r="EA6">
-        <v>0.7521827141705331</v>
+        <v>0.7540912866946031</v>
       </c>
       <c r="EB6">
-        <v>0.7547967175420226</v>
+        <v>0.756659853940476</v>
       </c>
       <c r="EC6">
-        <v>0.754802275038462</v>
+        <v>0.756659853940476</v>
       </c>
       <c r="ED6">
-        <v>0.7548024154983505</v>
+        <v>0.756659853940476</v>
       </c>
       <c r="EE6">
-        <v>0.7552698143932526</v>
+        <v>0.7570545620424093</v>
       </c>
       <c r="EF6">
-        <v>0.7555784397598865</v>
+        <v>0.7572884807255158</v>
       </c>
       <c r="EG6">
-        <v>0.7574246426397503</v>
+        <v>0.7590794989922235</v>
       </c>
       <c r="EH6">
-        <v>0.7574249541949969</v>
+        <v>0.7590794989922235</v>
       </c>
       <c r="EI6">
-        <v>0.762551362139084</v>
+        <v>0.7641923699107039</v>
       </c>
       <c r="EJ6">
-        <v>0.7701911350557583</v>
+        <v>0.7718505170956357</v>
       </c>
       <c r="EK6">
-        <v>0.7706959998502518</v>
+        <v>0.7722831667882537</v>
       </c>
       <c r="EL6">
-        <v>0.7720974835349661</v>
+        <v>0.7736238194196497</v>
       </c>
       <c r="EM6">
-        <v>0.7737980595164182</v>
+        <v>0.7752673618154327</v>
       </c>
       <c r="EN6">
-        <v>0.7740577526735858</v>
+        <v>0.7754517270143544</v>
       </c>
       <c r="EO6">
-        <v>0.7765104560468346</v>
+        <v>0.7778569462937447</v>
       </c>
       <c r="EP6">
-        <v>0.7776312337346104</v>
+        <v>0.7789133289048091</v>
       </c>
       <c r="EQ6">
-        <v>0.7781922239284917</v>
+        <v>0.7794028166008867</v>
       </c>
       <c r="ER6">
-        <v>0.7796412448126875</v>
+        <v>0.7807916099945411</v>
       </c>
       <c r="ES6">
-        <v>0.7797293121917269</v>
+        <v>0.7808021703443681</v>
       </c>
       <c r="ET6">
-        <v>0.780420702144186</v>
+        <v>0.7814237134380019</v>
       </c>
       <c r="EU6">
-        <v>0.7812114484355615</v>
+        <v>0.782145874362362</v>
       </c>
       <c r="EV6">
-        <v>0.7820286471266484</v>
+        <v>0.7828948235430681</v>
       </c>
       <c r="EW6">
-        <v>0.7895033420451232</v>
+        <v>0.7903857967936475</v>
       </c>
       <c r="EX6">
-        <v>0.8066708208578803</v>
+        <v>0.8076926197401683</v>
       </c>
       <c r="EY6">
-        <v>0.8222759666876776</v>
+        <v>0.823417273322035</v>
       </c>
       <c r="EZ6">
-        <v>0.8223498936318713</v>
+        <v>0.823417273322035</v>
       </c>
       <c r="FA6">
-        <v>0.8351630534921203</v>
+        <v>0.8363144920895932</v>
       </c>
       <c r="FB6">
-        <v>0.8429550184071346</v>
+        <v>0.844126763600098</v>
       </c>
       <c r="FC6">
-        <v>0.8488630079426971</v>
+        <v>0.8500311395712766</v>
       </c>
       <c r="FD6">
-        <v>0.8570191338537395</v>
+        <v>0.8582121956994024</v>
       </c>
       <c r="FE6">
-        <v>0.8629189307893914</v>
+        <v>0.8641082750521669</v>
       </c>
       <c r="FF6">
-        <v>0.8633192003350257</v>
+        <v>0.8644350014875547</v>
       </c>
       <c r="FG6">
-        <v>0.8634153916239766</v>
+        <v>0.8644537888936642</v>
       </c>
       <c r="FH6">
-        <v>0.8668921581860561</v>
+        <v>0.8678960735250054</v>
       </c>
       <c r="FI6">
-        <v>0.8721820741283599</v>
+        <v>0.8731745284441284</v>
       </c>
       <c r="FJ6">
-        <v>0.8814523285272508</v>
+        <v>0.8824838587500305</v>
       </c>
       <c r="FK6">
-        <v>0.881704347224502</v>
+        <v>0.8826604520491702</v>
       </c>
       <c r="FL6">
-        <v>0.8952170410771212</v>
+        <v>0.8962660865413747</v>
       </c>
       <c r="FM6">
-        <v>0.9163598008465206</v>
+        <v>0.9175986631614665</v>
       </c>
       <c r="FN6">
-        <v>0.9196287788108664</v>
+        <v>0.9208305209777534</v>
       </c>
       <c r="FO6">
-        <v>0.9206079835001864</v>
+        <v>0.9217435330887631</v>
       </c>
       <c r="FP6">
-        <v>0.9326538003688046</v>
+        <v>0.9338636661858646</v>
       </c>
       <c r="FQ6">
-        <v>0.9416711062704544</v>
+        <v>0.9429168363981535</v>
       </c>
       <c r="FR6">
-        <v>0.9431679617541284</v>
+        <v>0.9443540717300442</v>
       </c>
       <c r="FS6">
-        <v>0.9433036134826489</v>
+        <v>0.9444128205907756</v>
       </c>
       <c r="FT6">
-        <v>0.9444978394696236</v>
+        <v>0.9455435840477583</v>
       </c>
       <c r="FU6">
-        <v>0.9444981814923499</v>
+        <v>0.9455435840477583</v>
       </c>
       <c r="FV6">
-        <v>0.9512213087190218</v>
+        <v>0.9522734472210345</v>
       </c>
       <c r="FW6">
-        <v>0.9566340686599857</v>
+        <v>0.9576763058450216</v>
       </c>
       <c r="FX6">
-        <v>0.9574063648515624</v>
+        <v>0.9583797824152813</v>
       </c>
       <c r="FY6">
-        <v>0.9604349288185303</v>
+        <v>0.9613681737838685</v>
       </c>
       <c r="FZ6">
-        <v>0.9655785277624299</v>
+        <v>0.966498453970122</v>
       </c>
       <c r="GA6">
-        <v>0.9669962643469669</v>
+        <v>0.9678555658585821</v>
       </c>
       <c r="GB6">
-        <v>0.967089405755951</v>
+        <v>0.9678712646614925</v>
       </c>
       <c r="GC6">
-        <v>0.9684981238405864</v>
+        <v>0.9692192435453915</v>
       </c>
       <c r="GD6">
-        <v>0.9694119295306197</v>
+        <v>0.9700660263094699</v>
       </c>
       <c r="GE6">
-        <v>0.9703755488201097</v>
+        <v>0.9709632551384162</v>
       </c>
       <c r="GF6">
-        <v>0.9704800151989703</v>
+        <v>0.9709904227002849</v>
       </c>
       <c r="GG6">
-        <v>0.9753907111454102</v>
+        <v>0.9758848428032296</v>
       </c>
       <c r="GH6">
-        <v>0.9769082634288585</v>
+        <v>0.9773430377147402</v>
       </c>
       <c r="GI6">
-        <v>0.9773802839537102</v>
+        <v>0.9777424261258014</v>
       </c>
       <c r="GJ6">
-        <v>0.9781407732454157</v>
+        <v>0.9784339458882158</v>
       </c>
       <c r="GK6">
-        <v>0.9802490638224209</v>
+        <v>0.9804903794855813</v>
       </c>
       <c r="GL6">
-        <v>0.9803917080108652</v>
+        <v>0.9805562095869929</v>
       </c>
       <c r="GM6">
-        <v>0.9825181022876729</v>
+        <v>0.9826309767403461</v>
       </c>
       <c r="GN6">
-        <v>0.9921819341822711</v>
+        <v>0.9923388816542974</v>
       </c>
       <c r="GO6">
-        <v>0.9985999061122713</v>
+        <v>0.9987597150835166</v>
       </c>
       <c r="GP6">
-        <v>0.999182413045918</v>
+        <v>0.9992709927096892</v>
       </c>
       <c r="GQ6">
-        <v>0.9991872561198653</v>
+        <v>0.9992709927096892</v>
       </c>
       <c r="GR6">
-        <v>0.999984762941167</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.004319649857380383</v>
+        <v>0.004313274104676097</v>
       </c>
       <c r="F2">
-        <v>0.5003572360651602</v>
+        <v>0.5003566240046479</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>105</v>
       </c>
       <c r="E3">
-        <v>0.007759161124024368</v>
+        <v>0.006828233276468856</v>
       </c>
       <c r="F3">
-        <v>0.5049289025996073</v>
+        <v>0.5049308677785637</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.006349619342386191</v>
+        <v>0.004844236223098187</v>
       </c>
       <c r="F4">
-        <v>0.5155214987605198</v>
+        <v>0.5158514874395226</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.007763863460492989</v>
+        <v>0.007303085897875326</v>
       </c>
       <c r="F5">
-        <v>0.507573597974374</v>
+        <v>0.5075568946409452</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.009960658459728077</v>
+        <v>0.05154679319798716</v>
       </c>
       <c r="F6">
-        <v>0.5412292444432683</v>
+        <v>0.5421103600990455</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>116</v>
       </c>
       <c r="E2">
-        <v>0.004319649857380383</v>
+        <v>0.004313274104676097</v>
       </c>
       <c r="F2">
-        <v>0.7256446120810083</v>
+        <v>0.725703825393247</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>116</v>
       </c>
       <c r="E3">
-        <v>0.007759161124024368</v>
+        <v>0.006828233276468856</v>
       </c>
       <c r="F3">
-        <v>0.7079328080529609</v>
+        <v>0.7084345925559722</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>118</v>
       </c>
       <c r="E4">
-        <v>0.006349619342386191</v>
+        <v>0.004844236223098187</v>
       </c>
       <c r="F4">
-        <v>0.7021974657562078</v>
+        <v>0.7031819383966919</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>119</v>
       </c>
       <c r="E5">
-        <v>0.007763863460492989</v>
+        <v>0.007303085897875326</v>
       </c>
       <c r="F5">
-        <v>0.7130623525847735</v>
+        <v>0.7132945188024888</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.009960658459728077</v>
+        <v>0.05154679319798716</v>
       </c>
       <c r="F6">
-        <v>0.7065843871797667</v>
+        <v>0.7088391264105555</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.004319649857380383</v>
+        <v>0.004313274104676097</v>
       </c>
       <c r="F2">
-        <v>0.8030809940282796</v>
+        <v>0.8031016192103837</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.007759161124024368</v>
+        <v>0.006828233276468856</v>
       </c>
       <c r="F3">
-        <v>0.8162037634675292</v>
+        <v>0.8164462008425557</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>153</v>
       </c>
       <c r="E4">
-        <v>0.006349619342386191</v>
+        <v>0.004844236223098187</v>
       </c>
       <c r="F4">
-        <v>0.8015982805142253</v>
+        <v>0.8020410415211591</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.007763863460492989</v>
+        <v>0.007303085897875326</v>
       </c>
       <c r="F5">
-        <v>0.8033426592498718</v>
+        <v>0.8034294525182964</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.009960658459728077</v>
+        <v>0.05154679319798716</v>
       </c>
       <c r="F6">
-        <v>0.8066708208578803</v>
+        <v>0.8076926197401683</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.004319649857380383</v>
+        <v>0.004313274104676097</v>
       </c>
       <c r="F2">
-        <v>0.9009624573791951</v>
+        <v>0.9009987065440259</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>165</v>
       </c>
       <c r="E3">
-        <v>0.007759161124024368</v>
+        <v>0.006828233276468856</v>
       </c>
       <c r="F3">
-        <v>0.9077679111073089</v>
+        <v>0.9080994575710801</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.006349619342386191</v>
+        <v>0.004844236223098187</v>
       </c>
       <c r="F4">
-        <v>0.9019711536005912</v>
+        <v>0.9024736121105554</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.007763863460492989</v>
+        <v>0.007303085897875326</v>
       </c>
       <c r="F5">
-        <v>0.9127744107342801</v>
+        <v>0.9129302245356006</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>168</v>
       </c>
       <c r="E6">
-        <v>0.009960658459728077</v>
+        <v>0.05154679319798716</v>
       </c>
       <c r="F6">
-        <v>0.9163598008465206</v>
+        <v>0.9175986631614665</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>38</v>

--- a/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
@@ -1997,46 +1997,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.596086667715688E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.1741894665745E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.079348161164613E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.921249924149695E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.504736153718929E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.74117747276761E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.843781176416181E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.182445525663927E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.559167245646893E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.338300101409424E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.91449660655129E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.412638683324566E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.431281700822149E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.647725761679641E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2048,121 +2048,121 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1.143217938871242E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1.450887296345431E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.044133762841024E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1.957820018935326E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.246116303670398E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.433069319919456E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>4.969656428586428E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.613463037268559E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.0050803761013E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.303654147365302E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.986384193768448E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.246116303670398E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.828821673760881E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.192532300692231E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.374485306228114E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.709217742445773E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.469030655218122E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.80408322712264E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.26400644688016E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.37315740532407E-07</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.60801716807851E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>7.833417882153795E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>6.447466580634905E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.444067938908914E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>2.955309186738843E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>3.455972244317509E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>5.157004399037406E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>6.947138164214779E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.966604722217932E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>6.288787424488617E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>7.02514959128954E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>8.761302494079853E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>6.69015922792411E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>5.615394810743049E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>2.768721002890712E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>2.02404950168482E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
         <v>0</v>
@@ -2171,427 +2171,427 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>5.801053243875331E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>4.66554151190036E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>4.816445134999517E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.859984558720053E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001132010071096219</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0001595990191323353</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001302547000171454</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.000128146084615941</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001611629690775996</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001436323462649968</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>5.305736302931661E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>5.305736302931661E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>2.613463037268559E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.450887296345431E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>2.913771017921528E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.48843586022421E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>8.874699669186973E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>8.516454533774406E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>4.631799784016943E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>8.965745613076041E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001062043618705995</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0001375580049327752</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0001640840909683801</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001890811702398102</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0001605443257160892</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0001613276411943801</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0001463927275220109</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>8.703313619810885E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>6.338300101409424E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001466459816532495</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1379770603527348</v>
+        <v>0.337698815947952</v>
       </c>
       <c r="CO2">
-        <v>0.004456078945493685</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1508084205333274</v>
+        <v>0.3778324489619604</v>
       </c>
       <c r="CQ2">
-        <v>0.02097259152057734</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01387017838432533</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.003034795116017845</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01156593869071775</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.03224976844004465</v>
+        <v>0.007007425988629932</v>
       </c>
       <c r="CV2">
-        <v>0.0004997564615971293</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02773307567611388</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.01712069152640261</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.06474461598158467</v>
+        <v>0.1086440621459431</v>
       </c>
       <c r="CZ2">
-        <v>0.009543918454502153</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.001435368088268491</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.03467461912992038</v>
+        <v>0.01459181815996275</v>
       </c>
       <c r="DC2">
-        <v>0.02687102949942836</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.07931770316760224</v>
+        <v>0.1542254287955518</v>
       </c>
       <c r="DE2">
-        <v>0.003238364505430191</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02386336496347029</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.001530649930001455</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.01442716748892971</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>3.887775026772528E-06</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001692607122672049</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.002973247099187175</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.00812016539359536</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.02719902722506646</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>8.274404829012717E-05</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01450993470996094</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.004144961887495395</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0002506326883912302</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.003142995830942616</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.004270400504814258</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0001595990191323353</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0002848866094815704</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004232372860219081</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.002900049688031077</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.004140180483878579</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0005408316557734978</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.001411039111015115</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.001645664115068868</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.003565168180654651</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0001041651886640274</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001318674869844634</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.002767005501778085</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0001155176509822709</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0005490272472729462</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002360069799556919</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.008869630102870885</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.001306435753067093</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0001589833268840289</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0004919372120594865</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0006033056218860581</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.00227350594637937</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.003764775975694467</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0003830527992336617</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0001049315717551691</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0001176626501079593</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>1.596086667715688E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0003933574563041253</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.001032175397967292</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.005386157485001977</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.02223287291753237</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.02363634132676576</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.006914105449781819</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.002318492515984935</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0146454848414939</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.007464636518318592</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01080646170466197</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.006675227741544568</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.001610969427714914</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>2.437452543483012E-05</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001568120364408631</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.005560049379620293</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.007332634325120935</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0107109566787406</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0001827718802814598</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.01533846224291372</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.006993449379496466</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0001745243091745275</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.003613757909425638</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.008839074576870378</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.004442606163359157</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0006404147199917874</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0006303430708153795</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0001265479417726051</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.002814034941984935</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.005293255641039698</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.000633882355886539</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0002637627712544777</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.00230225979275943</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.000699732925704419</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.000151291445391514</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>3.797322606769528E-05</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>2.37486133314418E-05</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0001406852545780216</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>7.76219661642925E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001549231739337305</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.005163243298443389</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>1.321847920766805E-05</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0007226793514387252</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001486519683413714</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.002234993418879124</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>9.592612476614147E-06</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.00274672755263298</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.005057917568005682</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001352818549350202</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0002857084694994369</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0002940965636137451</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>3.130479163468809E-06</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.001057574178766535</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.175872144828085E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2776,40 +2776,40 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.679147309534773E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.510025550253772E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9.741602970062942E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001874316887131207</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.616860238166319E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001460427088111912</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001911942274603645</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.77441564815579E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.009193318063493E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.042092732918762E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.098745571637249E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2821,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3.727347365764684E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.300610274658108E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2833,82 +2833,82 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>9.00955281269055E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0001099988883582437</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.77096780382666E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.866201817823208E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001204030070874567</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0003109589630136955</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001800942067990903</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>8.29506643453818E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.064870795903365E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.8100893722604E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.502739736565987E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.306196945769255E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.401095229498808E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.343453234025979E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>5.901962379040928E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0001008810396896934</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002325200064975398</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0003097975041241002</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0004329922463422096</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0002455453655380836</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>8.40629273125618E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0001063357570048165</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>5.398062928001463E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.134495108344193E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.67934160253636E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2926,37 +2926,37 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.672602054863831E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.632460321312446E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>3.300357687282223E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0001387591854633379</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001525100599246521</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001609581731036382</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>8.29506643453818E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>4.963926273355447E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0001166651546100281</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>8.738792099396334E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>4.561456382892913E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -2971,40 +2971,40 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>3.337890049664748E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0001347062518884882</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1.514404610534555E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>6.87835452557496E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0002815506513259538</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0002153680966157382</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>7.290527524984513E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.297156605300555E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>3.485955486196643E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>5.572521097837145E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>9.456353624102423E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
         <v>0</v>
@@ -3013,358 +3013,358 @@
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>1.166984298954265E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0001080317037411168</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0001846154971157336</v>
+        <v>0</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>3.199992847529436E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0002010540139401537</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0002537142830265019</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0002352835240175856</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.06943157476154825</v>
+        <v>0.1269492892298152</v>
       </c>
       <c r="CO3">
-        <v>0.01480539701710039</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1428429516583316</v>
+        <v>0.3638121278147523</v>
       </c>
       <c r="CQ3">
-        <v>0.05744136921775376</v>
+        <v>0.08826272264609465</v>
       </c>
       <c r="CR3">
-        <v>0.02170836596139624</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.007209774492588487</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.03008624971327901</v>
+        <v>1.045375415724287E-06</v>
       </c>
       <c r="CU3">
-        <v>0.0141054564715078</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01353341538947677</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.01550707212437492</v>
+        <v>0</v>
       </c>
       <c r="CX3">
         <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.08959489847365724</v>
+        <v>0.1920065363711145</v>
       </c>
       <c r="CZ3">
-        <v>0.0003560621828756248</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.003655398300130539</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.01782464873807412</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.002166644931649104</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.09585092508243151</v>
+        <v>0.2121916940872083</v>
       </c>
       <c r="DE3">
-        <v>0.005078908868011262</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.02529266482304016</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0002716969360629281</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.02506195958953482</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.004967911972971299</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001122416019520653</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.002902270283065008</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.005502799917878469</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.03528552635324335</v>
+        <v>0.01677658447559936</v>
       </c>
       <c r="DN3">
-        <v>0.002012474961924547</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01399558350419926</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01122188139259431</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0009129559303091895</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.002276544592241267</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.006838126714549131</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0006553428232664469</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0003120118725615874</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.004114996333323615</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.009293169223116717</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.001122210702008289</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001118302243322272</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.001944180797883717</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>9.616860238166319E-05</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.004138835141559128</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0001543321876189425</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.000237134241623544</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001443298892101736</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.00115669651778383</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0005514219965922691</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0008468179513756077</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.008177318718758287</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.006642483008729613</v>
+        <v>0</v>
       </c>
       <c r="EK3">
         <v>0</v>
       </c>
       <c r="EL3">
-        <v>3.571486486908481E-05</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.002628608832716822</v>
+        <v>0</v>
       </c>
       <c r="EN3">
         <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.002874175903105712</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0002404870485022706</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0001109187931012048</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>5.4476988881938E-05</v>
+        <v>0</v>
       </c>
       <c r="ES3">
         <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0006168137176173946</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.00140941257135008</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.003854930695550084</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.01692378052106398</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.02361294378985537</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01362117206814889</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>5.901962379040928E-05</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.008285117939051668</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.004046031324918093</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.006611804799196331</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.007537763699303551</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.002916039200580439</v>
+        <v>0</v>
       </c>
       <c r="FF3">
         <v>0</v>
       </c>
       <c r="FG3">
-        <v>3.254203093237964E-05</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.005132787354337641</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.007231424150514986</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01256661074789452</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0003155989481268321</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0111544647953402</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01227029723657437</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0006750321705981052</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001602630800984916</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.00898019649369896</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.004988804685640824</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0005027193580301875</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0001442647253855662</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0003476973306643851</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.00106905564380832</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.00638050197733022</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002595940970046855</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.000411703158481047</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.003798903199190812</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.003378322216843329</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0002343606990695366</v>
+        <v>0</v>
       </c>
       <c r="GB3">
         <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0004630232942737109</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0003570666932855824</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0002720871597572499</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001503925560948397</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.007915311094425965</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001397402801435703</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0003316787413386172</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0006476884138022938</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001482300890343784</v>
+        <v>0</v>
       </c>
       <c r="GL3">
         <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.002857073636710404</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.009226249361779619</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.005915062931857225</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0002475322389606484</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>6.528762825757842E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>4.261855784361121E-05</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0003257390140846444</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,49 +3540,49 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.128306807650396E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001706646087632571</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.921491742976222E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>9.528820274333927E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001864273123596778</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0003443886565360103</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002109428356362753</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.000302920802849676</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002833514845068921</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.107730419373086E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.714123378449732E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.407177973096434E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>6.784729155439533E-07</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3591,31 +3591,31 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1.671747703043414E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>9.080386120635957E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>7.965350683326754E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0001414294833189005</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>8.152770829536223E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001387313065359255</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0002316652890489535</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001984650827836718</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001387313065359255</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3627,46 +3627,46 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>4.532673739999079E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001078628814473739</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0002755851787369235</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001228479861132867</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.95209298571782E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>7.18993844185842E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>7.31036360849267E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1.788919081213501E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>5.798341845134723E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.100070007127038E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.830869402204708E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>2.259809785222705E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.889132475336903E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.406383344781526E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.013668468542741E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>7.291350495111004E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>9.738091724771254E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.013668468542741E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -3744,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>8.335366805476571E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>2.107730419373086E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.06406263582679E-07</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>7.583825936115953E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>5.058970856565993E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -3780,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>3.945969665521393E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0001744447672470292</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>5.247659012928531E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -3807,337 +3807,337 @@
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0004578742881757526</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.07601730351597177</v>
+        <v>0.1843337327300076</v>
       </c>
       <c r="CO4">
-        <v>0.04078661579973746</v>
+        <v>0.04279769014757057</v>
       </c>
       <c r="CP4">
-        <v>0.1186691579118899</v>
+        <v>0.3556836288383037</v>
       </c>
       <c r="CQ4">
-        <v>0.0001632084576733944</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.03262956581301931</v>
+        <v>0.01002749322248459</v>
       </c>
       <c r="CS4">
-        <v>0.007663089758591868</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.003099874168966104</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.04740250553189255</v>
+        <v>0.06937641771579582</v>
       </c>
       <c r="CV4">
         <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01639675323431264</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.04271595609508632</v>
+        <v>0.05054863706061302</v>
       </c>
       <c r="CY4">
-        <v>0.05650672390838329</v>
+        <v>0.1059517763972281</v>
       </c>
       <c r="CZ4">
-        <v>0.00602229739111879</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.004424917327159957</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.01668084080323841</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.04182844149938258</v>
+        <v>0.04698312892685681</v>
       </c>
       <c r="DD4">
-        <v>0.06356244724638606</v>
+        <v>0.1342974949611402</v>
       </c>
       <c r="DE4">
-        <v>0.01186510013690307</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01849538947682342</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01003953103724938</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.01841429716057891</v>
+        <v>0</v>
       </c>
       <c r="DI4">
         <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.001855735086334242</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0001660915769047063</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.02796030998336022</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.02370679254996283</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0006035894698391755</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01066116723282744</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002561994217069133</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
         <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004883858870622001</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.002807703613511046</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0003466680179115671</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0003896937844687613</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01033962560032398</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.001064121275011591</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.004325053231742139</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0007386458949119281</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.005213614614574622</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0008555378281799225</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.001155806252440455</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0004079510893878165</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>9.475580439631738E-06</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.002494759512180282</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>1.882306269258644E-06</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0006882473180114903</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.00111675586363041</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.007797242920000703</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0004772883884001954</v>
+        <v>0</v>
       </c>
       <c r="EK4">
         <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.002232527169163257</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0004772883884001954</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.001328634125741662</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.00121547000154541</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0001607539580517151</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>6.222606377865816E-05</v>
+        <v>0</v>
       </c>
       <c r="ER4">
         <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0001644414944774386</v>
+        <v>0</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0001909503980926907</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.005016141390248315</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01687826425238424</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.02345647970349652</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.002487948155817187</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.005703070153673471</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.01387802904921413</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.007413412727208658</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.008945461006511529</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.004838036241701799</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0003955122617319024</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0006882473180114903</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0008828038977627084</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.004099942313318953</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.008148287860587551</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.003208978046218603</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.003883310672306364</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.02615982204408956</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.00969970884124254</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0009832243389199318</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.009894212146467265</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.01050429195292226</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.003875984268520269</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0001429807393878464</v>
+        <v>0</v>
       </c>
       <c r="FS4">
         <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0001502960317447652</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.006567206905725579</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.009109902113848677</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.001711769376569561</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.003007151052217628</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.006550565202608773</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.003517768986935396</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>4.50551006650978E-05</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0005491166888332673</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0008013953633161102</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0007165414411550977</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>5.917838578958245E-06</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.003354576180790973</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.005129120189883733</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>7.810347754654741E-05</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0009838124904968802</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.001568080195585289</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0002291123552370409</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0005193845456423932</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.01005531781393309</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.01241425512245852</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.004289115551440288</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.00013529309851421</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>8.215587107293751E-05</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.000298837307377184</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.000255844141049302</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,22 +4313,22 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.16965474021801E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001470320164696676</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002234574507212405</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>8.57961578978939E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.28077569950656E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.437111709017856E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4343,61 +4343,61 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.101487062530234E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.51456666252976E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.613423727084662E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.226854313748534E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.515032749028352E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.018891029701776E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3.281561176958053E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9.462894880854633E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>5.589449026917009E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001468129367832134</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>6.957383350421604E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>5.767261677228692E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001084558710761253</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001008587673282421</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.656354017893577E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2.364104012033857E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.120413343733227E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -4412,34 +4412,34 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0002018308869330095</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001686204158573047</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>8.393727311906352E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0002106797489629042</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0003160603536746646</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.000451981143482724</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0002703368374359234</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>9.903909071130277E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.853104480842993E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.358426279136147E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -4448,49 +4448,49 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.220024132156976E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>7.103826065473416E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>3.088971491108256E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.754172582024866E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>4.25357039585461E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001750199848227289</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.000169117674958167</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>3.352721857189946E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.839483039326319E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>5.212659112023048E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>6.385144324535182E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>4.613721132934756E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>2.194260409107091E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>3.754857842360787E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.868220632635508E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
@@ -4502,43 +4502,43 @@
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>3.692263817949355E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>5.894066053526575E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>3.257504081764751E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>9.093457472963288E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001748861289473648</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0002603465593211781</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001183529619418613</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>9.286188196807932E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001646240321516438</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0002054288984046489</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0001497835896172677</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001021959217120761</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.548783850395722E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -4550,367 +4550,367 @@
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>8.819128856592034E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>6.176138637471371E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001260004166545805</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0001890377391101807</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0003167330287816165</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0002700437027852721</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.000144426750207914</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0001698501910438979</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.000281143953926216</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.000153732142610898</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>7.754054294396167E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0008430056285305026</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.08675125457468752</v>
+        <v>0.1687207827424375</v>
       </c>
       <c r="CP5">
-        <v>0.004696687030904886</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.2022060089303727</v>
+        <v>0.5122192843181331</v>
       </c>
       <c r="CR5">
-        <v>0.02915648015763833</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.01876019292199155</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>2.270898331922916E-05</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01592919575016328</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.009867084227975191</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01001753310323003</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.01623529327504261</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.001944036565382551</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.07225294938064923</v>
+        <v>0.1255857370067133</v>
       </c>
       <c r="DA5">
-        <v>0.0007271793171902423</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0004275873300936306</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.02230173710779681</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.008114874458101608</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.08538070684117899</v>
+        <v>0.164643158607984</v>
       </c>
       <c r="DF5">
-        <v>0.0002866055300737875</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.02978434765389812</v>
+        <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0195215196242549</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.002549067125408708</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.002404654235589534</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.005386134540481057</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.005804089118768425</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.03973231236680905</v>
+        <v>0.02883103732473226</v>
       </c>
       <c r="DO5">
-        <v>5.970177087242338E-05</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01482848535420861</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.007667337761409493</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0003957407605362653</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.003146764010209968</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.005775607357162954</v>
+        <v>0</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0001583102579607832</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.003410859959446644</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.005638778464975723</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.00262873045345062</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.002816445914279676</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.00155049888944579</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0008382101363676808</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.005130696200544476</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0003402214443553593</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0006371194354630623</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.002175477210360875</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.000589251861229378</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0005662457094526421</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001224812008468414</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.008770187267009002</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.003432767126739819</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>3.352721857189946E-05</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>1.488133153259781E-05</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0008949994656347039</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0004778607641001908</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.004252482557179065</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0008626141169133628</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>8.092215224733035E-06</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>5.284477301770696E-07</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0002853623923385348</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.002083372588232424</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.002393889069889186</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.004724945115065405</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01720831620452712</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.02446097672099194</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.009200189875769442</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.002033055079852474</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.01328317471668889</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.005816639897605225</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.009627761382161334</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.008548079470764903</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.003588935453294174</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0003300490589432916</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0009604490486642243</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.008223986579568767</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.009893370584940721</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.01353410414805871</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>9.594276881674154E-06</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01695022869424275</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.01416470225208803</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.000892824054733236</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001864875284521156</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.007547681346954087</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.005103917612963412</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0008448954174586016</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0006676939985706049</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0006570370154231213</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001511374569033218</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.004071220986980636</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.001179013225220208</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0004116931794774486</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.003214345250308465</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.001134080403240071</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>3.643379728394865E-05</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>3.717547883596399E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0002213720717443235</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0001553588976819897</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>5.126478386185217E-05</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.00186250197968317</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.008054088885365568</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0003815258635800235</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0006589064700380427</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.001453137797276477</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0024884080661581</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0001646240321516438</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.002569021597622674</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.005888776624869632</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.002011255193590889</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0001439652815016245</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0005464530102228205</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0001203280648331775</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,16 +5086,16 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.078472182016956E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.16383261929561E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.997322561193701E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.762228743713201E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5104,37 +5104,37 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.764231297690725E-07</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.694388089224833E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0003727911189190035</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003536215413550756</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000577705016056842</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0004279537474541184</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001152383851534874</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>8.036402976899814E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>6.390215994755383E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5.569744375259254E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5155,40 +5155,40 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.064947165778844E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>8.6772566458494E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>5.06960490310298E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001453686517762646</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0001895058191760501</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002281411070525657</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>9.058912637642786E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.593383752702552E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>6.997322561193701E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>3.704458451735718E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>4.525457686176298E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -5206,49 +5206,49 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>5.074272421872486E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>8.295002150347462E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0002025030715395216</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0004267469877684414</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0001049217002628049</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.005442076812956E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>8.720060294326283E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0001813289420114584</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>7.235009549223692E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.433598667402154E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.285484696330542E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>5.008668921458885E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0002060040650604582</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0003529303151430336</v>
+        <v>0</v>
       </c>
       <c r="BI6">
         <v>0</v>
@@ -5272,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001409743079228255</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001151487615016975</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -5308,13 +5308,13 @@
         <v>0</v>
       </c>
       <c r="BX6">
-        <v>3.029145754543702E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>9.488708176458606E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>9.87956147904923E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -5356,127 +5356,127 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.04604099915969226</v>
+        <v>0.06053124875961696</v>
       </c>
       <c r="CO6">
-        <v>0.02490900591302652</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.08832270176787584</v>
+        <v>0.2231469778848415</v>
       </c>
       <c r="CQ6">
-        <v>0.1180900422230387</v>
+        <v>0.3376323811121516</v>
       </c>
       <c r="CR6">
-        <v>0.00763400520615078</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.03495243487192977</v>
+        <v>0.01788455159805515</v>
       </c>
       <c r="CT6">
-        <v>0.02016833500244196</v>
+        <v>0</v>
       </c>
       <c r="CU6">
         <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02430213733029634</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001936693259214672</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.0064235157587841</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0659100290703908</v>
+        <v>0.1369476791924297</v>
       </c>
       <c r="CZ6">
-        <v>0.01175844241937626</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.004038606383744489</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.01261689927678185</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.001778281378647916</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.06772243703935829</v>
+        <v>0.1439182131389263</v>
       </c>
       <c r="DE6">
-        <v>0.02619832265340647</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.02165959762867539</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01259575012035269</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0142797294216985</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.02181903861155796</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
         <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.008823926076066505</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.001160081632050593</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0510871935547904</v>
+        <v>0.07993894831397884</v>
       </c>
       <c r="DN6">
-        <v>0.009105126612911284</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01144822711137405</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01087100826058856</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0004996086874713871</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0002708785960585842</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.004270283726160729</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0006574824818105495</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0001235422240946317</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001021411360866409</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01277455133106682</v>
+        <v>0</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.002942512160443797</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0003726543441121024</v>
+        <v>0</v>
       </c>
       <c r="EA6">
         <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.002568567245872886</v>
+        <v>0</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -5485,202 +5485,202 @@
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0003947081019333262</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0002339186831064943</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001791018266707714</v>
+        <v>0</v>
       </c>
       <c r="EH6">
         <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.005112870918480399</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.007658147184931742</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0004326496926180215</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001340652631395999</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.001643542395782924</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0001843651989217407</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.002405219279390261</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001056382611064495</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0004894876960775621</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001388793393654385</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>1.05603498269218E-05</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0006215430936338069</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0007221609243601322</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0007489491807059782</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.007490973250579487</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.01730682294652071</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01572465358186666</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
         <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01289721876755819</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.007812271510504734</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.005904375971178701</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.008181056128125806</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.005896079352764531</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0003267264353877566</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>1.878740610954956E-05</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.003442284631341218</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.005278454919122935</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.009309330305902227</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0001765932991396437</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01360563449220454</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.02133257662009178</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.003231857816286838</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0009130121110096613</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.01212013309710142</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.009053170212288896</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.001437235331890652</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>5.874886073143187E-05</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.001130763456982695</v>
+        <v>0</v>
       </c>
       <c r="FU6">
         <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.006729863173276182</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.00540285862398711</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0007034765702596913</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.002988391368587187</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.005130280186253509</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.001357111888460136</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>1.569880291044214E-05</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001347978883898924</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0008467827640784946</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0008972288289463116</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>2.716756186876036E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.004894420102944752</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0014581949115106</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0003993884110612561</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0006915197624142873</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.002056433597365544</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>6.583010141159985E-05</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002074767153353216</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0097079049139513</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.006420833429219175</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0005112776261726355</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
         <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0007290072903108125</v>
+        <v>0</v>
       </c>
       <c r="GS6">
         <v>0</v>
@@ -6648,769 +6648,769 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.596086667715688E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.770276134290189E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.849624295454802E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.770874219604496E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001427561037332343</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002101678784609104</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002786056902250722</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0003504301454817114</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004360218179381803</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0004994048189522745</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0005385497850177875</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0005626761718510331</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0005769889888592546</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0005772537614354226</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0005772537614354226</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0005772537614354226</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0005772537614354226</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0005886859408241351</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0005886859408241351</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0006031948137875894</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0006136361514159997</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.000633214351605353</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.000645675514642057</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0006900062078412515</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0007397027721271158</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0007658374024998014</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0008058882062608144</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0008789247477344673</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0008987885896721518</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0009112497527088558</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0009395379694464646</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.000991463292453387</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001025208145515668</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001042300322940126</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001066990629492307</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001085031461763533</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.001085031461763533</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.001089295468210413</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.001089632783950946</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.001089632783950946</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.001091240801119024</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001099074219001178</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.001105521685581813</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.001129962364970902</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.001159515456838291</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.001194075179281466</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.00124564522327184</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.001315116604913988</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001394782652136167</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001457670526381053</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001527922022293949</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001615535047234747</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001682436639513988</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001738590587621419</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001766277797650326</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001768301847152011</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001768301847152011</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001768301847152011</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001774102900395886</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.00182075831551489</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001868922766864885</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001917522612452086</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.002030723619561707</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.002190322638694043</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.002320577338711188</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.002448723423327129</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.002609886392404729</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.002753518738669726</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.002806576101699043</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.002859633464728359</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.002885768095101045</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.002900276968064499</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.002929414678243715</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.002944299036845957</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.002953173736515144</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.002953173736515144</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.002961690191048918</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.003008008188889088</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.003097665645019848</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.003203870006890448</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.003341428011823223</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.003505512102791603</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.003694593273031413</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.003855137598747503</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.004016465239941883</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.004162857967463894</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.004249891103662002</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.004313274104676097</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.005779733921208592</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1437567942739434</v>
+        <v>0.337698815947952</v>
       </c>
       <c r="CO2">
-        <v>0.1482128732194371</v>
+        <v>0.337698815947952</v>
       </c>
       <c r="CP2">
-        <v>0.2990212937527645</v>
+        <v>0.7155312649099124</v>
       </c>
       <c r="CQ2">
-        <v>0.3199938852733418</v>
+        <v>0.7155312649099124</v>
       </c>
       <c r="CR2">
-        <v>0.3338640636576672</v>
+        <v>0.7155312649099124</v>
       </c>
       <c r="CS2">
-        <v>0.336898858773685</v>
+        <v>0.7155312649099124</v>
       </c>
       <c r="CT2">
-        <v>0.3484647974644028</v>
+        <v>0.7155312649099124</v>
       </c>
       <c r="CU2">
-        <v>0.3807145659044474</v>
+        <v>0.7225386908985423</v>
       </c>
       <c r="CV2">
-        <v>0.3812143223660445</v>
+        <v>0.7225386908985423</v>
       </c>
       <c r="CW2">
-        <v>0.4089473980421584</v>
+        <v>0.7225386908985423</v>
       </c>
       <c r="CX2">
-        <v>0.426068089568561</v>
+        <v>0.7225386908985423</v>
       </c>
       <c r="CY2">
-        <v>0.4908127055501457</v>
+        <v>0.8311827530444853</v>
       </c>
       <c r="CZ2">
-        <v>0.5003566240046479</v>
+        <v>0.8311827530444853</v>
       </c>
       <c r="DA2">
-        <v>0.5017919920929164</v>
+        <v>0.8311827530444853</v>
       </c>
       <c r="DB2">
-        <v>0.5364666112228368</v>
+        <v>0.8457745712044481</v>
       </c>
       <c r="DC2">
-        <v>0.5633376407222651</v>
+        <v>0.8457745712044481</v>
       </c>
       <c r="DD2">
-        <v>0.6426553438898673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE2">
-        <v>0.6458937083952976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF2">
-        <v>0.6697570733587679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.6712877232887693</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.685714890777699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.6857187785527258</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.6874113856753978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.6903846327745851</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.6985047981681805</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.725703825393247</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.7257865694415371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.7402965041514981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.7444414660389934</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7446920987273846</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.7478350945583272</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7521054950631415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.7522650940822738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.7525499806917554</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.7567823535519744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.7596824032400055</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.763822583723884</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.7643634153796575</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.7657744544906726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.7674201186057414</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.7709852867863961</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.7710894519750602</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.7724081268449048</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.7751751323466829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.7752906499976652</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.7758396772449381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.778199747044495</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.7870693771473659</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.788375812900433</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.788534796227317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.7890267334393766</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.7896300390612626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.7919035450076419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.7956683209833364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.7960513737825701</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.7961563053543252</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.7962739680044332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.7962899288711104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.7966832863274145</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.7977154617253818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8031016192103837</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8253344921279161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8489708334546818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8558849389044636</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.8582034314204485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8728489162619424</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.880313552780261</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.891120014484923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8977952422264676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8994062116541824</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8994305861796172</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.9009987065440259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.9065587559236462</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.9138913902487671</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.9246023469275076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.9247851188077891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.9401235810507028</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9471170304301992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9472915547393738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.9509053126487994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.9597443872256698</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9641869933890289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9648274081090207</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.965457751179836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9655842991216086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9683983340635935</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9736915897046332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9743254720605198</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9745892348317743</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9768914946245337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9775912275502382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9777425189956297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9777804922216974</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9778042408350288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9779449260896068</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9780225480557712</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9795717797951085</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9847350230935519</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9847482415727595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9854709209241983</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.986957440607612</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9891924340264912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9892020266389677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9919487541916007</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9970066717596063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9983594903089565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.998645198778456</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9989392953420698</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9989424258212333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.175872144828085E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.175872144828085E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7.175872144828085E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001039673452401758</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001490676007427135</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001490676007427135</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.000246483630443343</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004339153191564637</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0005300839215381269</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0006761266303493181</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0008673208578096826</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0009250650142912406</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0009651569474718755</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001035577874801063</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001076565330517436</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001076565330517436</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001076565330517436</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001076565330517436</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001113838804175083</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001126844906921664</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001126844906921664</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001126844906921664</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001216940435048569</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001326939323406813</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.00136464900144508</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001383311019623312</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001503714026710769</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001814672989724464</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.001994767196523555</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002077717860868936</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.00209836656882797</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002126467462550574</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002181494859916234</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002204556829373926</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002204556829373926</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002238567781668914</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002302002314009174</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002361021937799583</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.002461902977489277</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.002694422983986817</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003004220488110917</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.003437212734453127</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.00368275809999121</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003766821027303772</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003873156784308589</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003927137413588603</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003948482364672045</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.003985275780697409</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.003985275780697409</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.003985275780697409</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.003985275780697409</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.003985275780697409</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.003985275780697409</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.004002001801246047</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.004028326404459171</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.004061329981331994</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.004200089166795332</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.004352599226719983</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.004513557399823622</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.004596508064169003</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.004646147326902558</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.004762812481512586</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.004850200402506549</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.004895814966335478</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.004895814966335478</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.004895814966335478</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.004895814966335478</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.004895814966335478</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.004929193866832125</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005063900118720614</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.005079044164825959</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.005147827710081708</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.005429378361407662</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0056447464580234</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.005717651733273246</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.005730623299326251</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.005765482854188217</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.005821208065166589</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.005821208065166589</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.005830664418790692</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.005830664418790692</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.005830664418790692</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.005842334261780234</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.005950365965521351</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.006134981462637085</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.006134981462637085</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.006138181455484615</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.006339235469424769</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.00659294975245127</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.006828233276468856</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0762598080380171</v>
+        <v>0.1269492892298152</v>
       </c>
       <c r="CO3">
-        <v>0.09106520505511749</v>
+        <v>0.1269492892298152</v>
       </c>
       <c r="CP3">
-        <v>0.2339081567134491</v>
+        <v>0.4907614170445674</v>
       </c>
       <c r="CQ3">
-        <v>0.2913495259312028</v>
+        <v>0.5790241396906621</v>
       </c>
       <c r="CR3">
-        <v>0.3130578918925991</v>
+        <v>0.5790241396906621</v>
       </c>
       <c r="CS3">
-        <v>0.3202676663851876</v>
+        <v>0.5790241396906621</v>
       </c>
       <c r="CT3">
-        <v>0.3503539160984666</v>
+        <v>0.5790251850660778</v>
       </c>
       <c r="CU3">
-        <v>0.3644593725699743</v>
+        <v>0.5790251850660778</v>
       </c>
       <c r="CV3">
-        <v>0.3779927879594511</v>
+        <v>0.5790251850660778</v>
       </c>
       <c r="CW3">
-        <v>0.393499860083826</v>
+        <v>0.5790251850660778</v>
       </c>
       <c r="CX3">
-        <v>0.393499860083826</v>
+        <v>0.5790251850660778</v>
       </c>
       <c r="CY3">
-        <v>0.4830947585574833</v>
+        <v>0.7710317214371923</v>
       </c>
       <c r="CZ3">
-        <v>0.4834508207403589</v>
+        <v>0.7710317214371923</v>
       </c>
       <c r="DA3">
-        <v>0.4871062190404895</v>
+        <v>0.7710317214371923</v>
       </c>
       <c r="DB3">
-        <v>0.5049308677785637</v>
+        <v>0.7710317214371923</v>
       </c>
       <c r="DC3">
-        <v>0.5070975127102127</v>
+        <v>0.7710317214371923</v>
       </c>
       <c r="DD3">
-        <v>0.6029484377926443</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DE3">
-        <v>0.6080273466606555</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DF3">
-        <v>0.6333200114836957</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DG3">
-        <v>0.6335917084197585</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DH3">
-        <v>0.6586536680092934</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DI3">
-        <v>0.6636215799822647</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DJ3">
-        <v>0.6647439960017854</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DK3">
-        <v>0.6676462662848504</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DL3">
-        <v>0.6731490662027289</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="DM3">
-        <v>0.7084345925559722</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.7104470675178968</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.724442651022096</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.7356645324146903</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7365774883449995</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7388540329372407</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7456921596517898</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7463475024750562</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7466595143476178</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7507745106809414</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7600676799040581</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7611898906060663</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7623081928493887</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7642523736472724</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7643485422496541</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7684873773912132</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7686417095788322</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7688788438204557</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7703221427125574</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7714788392303412</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.7720302612269335</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.7728770791783092</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7810543978970674</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.787696880905797</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.787696880905797</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.7877325957706661</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.790361204603383</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.790361204603383</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7932353805064887</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.793475867554991</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7935867863480922</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7936412633369742</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7936412633369742</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7942580770545915</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7956674896259416</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.7995224203214917</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8164462008425557</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.840059144632411</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.85368031670056</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8537393363243504</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.862024454263402</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8660704855883201</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8726822903875164</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.88022005408682</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8831360932874005</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8831360932874005</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8831686353183329</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8883014226726705</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8955328468231856</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9080994575710801</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.908415056519207</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9195695213145472</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9318398185511215</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9325148507217196</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9341174815227045</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9430976780164034</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9480864827020442</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9485892020600744</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9487334667854599</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9490811641161243</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9501502197599326</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9565307217372628</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9591266627073097</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9595383658657908</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9633372690649816</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9667155912818249</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9669499519808945</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9669499519808945</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9674129752751682</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9677700419684538</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9680421291282111</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9695460546891594</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9774613657835854</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9788587685850212</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9791904473263598</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9798381357401621</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9813204366305058</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9813204366305058</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9841775102672162</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9934037596289959</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.999318822560853</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9995663547998137</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9996316424280712</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9996742609859148</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.128306807650396E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001717929155709075</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002410078330006697</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.000336296035744009</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0005227233481036867</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000867112004639697</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001078054840275972</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001380975643125648</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00166432712763254</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001685404431826271</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001685404431826271</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001732545665610769</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001766617445341733</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001766617445341733</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001767295918257277</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001767295918257277</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001767295918257277</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001784013395287711</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001874817256494071</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001954470763327338</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.002095900246646239</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002177427954941601</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.002316159261477526</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.00254782455052648</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002746289633310152</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002885020939846077</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002885020939846077</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002885020939846077</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002885020939846077</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002889553613586076</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002889553613586076</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.00299741649503345</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003273001673770373</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00339584965988366</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.003445370589740838</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.003517269974159422</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.003590373610244349</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.003608262801056484</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.003666246219507831</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003737246919579101</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003755555613601148</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.003778153711453376</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.003807045036206745</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.003807045036206745</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.003807045036206745</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.003807045036206745</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003807045036206745</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003807045036206745</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00382110886965456</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.00382110886965456</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.00382110886965456</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.00382110886965456</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.00382110886965456</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.00382110886965456</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003851245554339988</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.003924159059291098</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.003924159059291098</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.003924159059291098</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.003924159059291098</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.003924159059291098</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.003924159059291098</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.00393389715101587</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.003964033835701297</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.003964033835701297</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.003964033835701297</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003964033835701297</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.003964033835701297</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003964033835701297</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.003972369202506773</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003972369202506773</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.003993446506700504</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.003993446506700504</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003993552912964086</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.004069391172325246</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.004069391172325246</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.004069391172325246</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.004069391172325246</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.004119980880890906</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.004119980880890906</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.004119980880890906</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.00415944057754612</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.004333885344793149</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.004386361934922434</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.004386361934922434</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.004386361934922434</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.004386361934922434</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.004386361934922434</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.004386361934922434</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004386361934922434</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.004844236223098187</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.08086153973906995</v>
+        <v>0.1843337327300076</v>
       </c>
       <c r="CO4">
-        <v>0.1216481555388074</v>
+        <v>0.2271314228775781</v>
       </c>
       <c r="CP4">
-        <v>0.2403173134506973</v>
+        <v>0.5828150517158818</v>
       </c>
       <c r="CQ4">
-        <v>0.2404805219083707</v>
+        <v>0.5828150517158818</v>
       </c>
       <c r="CR4">
-        <v>0.2731100877213901</v>
+        <v>0.5928425449383664</v>
       </c>
       <c r="CS4">
-        <v>0.2807731774799819</v>
+        <v>0.5928425449383664</v>
       </c>
       <c r="CT4">
-        <v>0.283873051648948</v>
+        <v>0.5928425449383664</v>
       </c>
       <c r="CU4">
-        <v>0.3312755571808406</v>
+        <v>0.6622189626541622</v>
       </c>
       <c r="CV4">
-        <v>0.3312755571808406</v>
+        <v>0.6622189626541622</v>
       </c>
       <c r="CW4">
-        <v>0.3476723104151532</v>
+        <v>0.6622189626541622</v>
       </c>
       <c r="CX4">
-        <v>0.3903882665102396</v>
+        <v>0.7127675997147752</v>
       </c>
       <c r="CY4">
-        <v>0.4468949904186229</v>
+        <v>0.8187193761120033</v>
       </c>
       <c r="CZ4">
-        <v>0.4529172878097417</v>
+        <v>0.8187193761120033</v>
       </c>
       <c r="DA4">
-        <v>0.4573422051369016</v>
+        <v>0.8187193761120033</v>
       </c>
       <c r="DB4">
-        <v>0.47402304594014</v>
+        <v>0.8187193761120033</v>
       </c>
       <c r="DC4">
-        <v>0.5158514874395226</v>
+        <v>0.8657025050388601</v>
       </c>
       <c r="DD4">
-        <v>0.5794139346859086</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.5912790348228117</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.6097744242996351</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.6198139553368845</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.6382282524974634</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.6382282524974634</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.6400839875837976</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.6402500791607023</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.6682103891440625</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.6919171816940253</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.6925207711638645</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7031819383966919</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.705743932613761</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.705743932613761</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.710627791484383</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7134354950978941</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7137821631158057</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7141718569002744</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7245114825005984</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.7255756037756099</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7299006570073521</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.730639302902264</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.7358529175168386</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.7367084553450185</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.737864261597459</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.7382722126868468</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7382816882672865</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.7407764477794667</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.740778330085736</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7414665774037476</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7425833332673779</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7503805761873786</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7508578645757789</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7508578645757789</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7530903917449421</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7535676801333423</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.754896314259084</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7561117842606294</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7562725382186811</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.7563347642824598</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7563347642824598</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7564992057769373</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7564992057769373</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.75669015617503</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7617062975652783</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.7785845618176626</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8020410415211591</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8045289896769763</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8102320598306497</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8241100888798638</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8315235016070724</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8404689626135839</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8453069988552857</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8457025111170177</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8463907584350292</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8472735623327919</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8513735046461109</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8595217925066985</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.862730770552917</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8666140812252234</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8927739032693129</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9024736121105554</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9034568364494754</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9133510485959426</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9238553405488649</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9277313248173852</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9278743055567731</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9278743055567731</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9280246015885179</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9345918084942434</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.943701710608092</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9454134799846616</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9484206310368792</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.954971196239488</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9584889652264234</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9585340203270885</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9590831370159217</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9598845323792379</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9606010738203929</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9606069916589719</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9639615678397628</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9690906880296466</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9691687915071932</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.97015260399769</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9717206841932753</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9719497965485123</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9724691810941547</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9825244989080878</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9949387540305463</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9992278695819866</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9993631626805008</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9994453185515738</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.999744155858951</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.16965474021801E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001787285638718477</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0004021860145930882</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0004879821724909821</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0005107899294860477</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0005351610465762262</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0005351610465762262</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005351610465762262</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0005351610465762262</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005351610465762262</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0005392625336387564</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0005427771003012862</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0005689113375721329</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0006111798807096182</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0006463302081999017</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0006463302081999017</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0006565191184969195</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0006893347302665</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0007839636790750463</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0007839636790750463</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0008398581693442165</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0009866711061274299</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001056244939631646</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001113917556403933</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001222373427480058</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0013232321948083</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001339795734987236</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001363436775107574</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001374640908544907</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001374640908544907</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001374640908544907</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001374640908544907</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001374640908544907</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001576471795477916</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001745092211335221</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001829029484454284</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.002039709233417189</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002355769587091853</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.002807750730574577</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003078087568010501</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003177126658721803</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003225657703530233</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.00322701612980937</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.00322701612980937</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.00322701612980937</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.003239216371130939</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.003310254631785674</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.003341144346696756</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.003358686072517005</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.003401221776475551</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.00357624176129828</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.003745359436256447</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.003778886654828346</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.00379728148522161</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.003802494144333633</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.003866345587578984</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.003912482798908332</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.003934425402999403</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.003971973981423011</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.003990656187749366</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.003990656187749366</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.003990656187749366</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.003990656187749366</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.00402757882592886</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.004086519486464125</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.004119094527281773</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.004210029102011406</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.004384915230958771</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.004645261790279949</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00476361475222181</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.004856476634189889</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.005021100666341533</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.005226529564746182</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00537631315436345</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.005478509076075526</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.005503996914579483</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.005503996914579483</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.005503996914579483</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.005503996914579483</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.005512816043436075</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.005574577429810789</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.00570057784646537</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.005889615585575551</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.006206348614357167</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.006476392317142439</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.006620819067350353</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.00679066925839425</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.007071813212320466</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.007225545354931365</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.007303085897875326</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.008146091526405828</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.09489734610109335</v>
+        <v>0.1687207827424375</v>
       </c>
       <c r="CP5">
-        <v>0.09959403313199823</v>
+        <v>0.1687207827424375</v>
       </c>
       <c r="CQ5">
-        <v>0.3018000420623709</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CR5">
-        <v>0.3309565222200092</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CS5">
-        <v>0.3497167151420008</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CT5">
-        <v>0.34973942412532</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CU5">
-        <v>0.3656686198754833</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CV5">
-        <v>0.3755357041034584</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CW5">
-        <v>0.3855532372066885</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CX5">
-        <v>0.4017885304817311</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CY5">
-        <v>0.4037325670471137</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="CZ5">
-        <v>0.4759855164277629</v>
+        <v>0.806525804067284</v>
       </c>
       <c r="DA5">
-        <v>0.4767126957449532</v>
+        <v>0.806525804067284</v>
       </c>
       <c r="DB5">
-        <v>0.4771402830750468</v>
+        <v>0.806525804067284</v>
       </c>
       <c r="DC5">
-        <v>0.4994420201828436</v>
+        <v>0.806525804067284</v>
       </c>
       <c r="DD5">
-        <v>0.5075568946409452</v>
+        <v>0.806525804067284</v>
       </c>
       <c r="DE5">
-        <v>0.5929376014821242</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DF5">
-        <v>0.5932242070121979</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DG5">
-        <v>0.6230085546660961</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DH5">
-        <v>0.6230085546660961</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DI5">
-        <v>0.6425300742903509</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DJ5">
-        <v>0.6450791414157596</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DK5">
-        <v>0.6474837956513492</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DL5">
-        <v>0.6528699301918303</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DM5">
-        <v>0.6586740193105987</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="DN5">
-        <v>0.6984063316774077</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.6984660334482802</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7132945188024888</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7209618565638983</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7213575973244346</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7245043613346446</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7302799686918076</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7302799686918076</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7304382789497683</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.733849138909215</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7394879173741907</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7421166478276413</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.744933093741921</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7464835926313668</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7473218027677344</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7524524989682789</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7527927204126342</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.7534298398480973</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.7556053170584581</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.7561945689196875</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.7567608146291401</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.7579856266376086</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.7667558139046176</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.7701885810313573</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.7702221082499292</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.7702369895814618</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.7711319890470965</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.7716098498111966</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.7758623323683757</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.776724946485289</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.7767330387005137</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.7767335671482438</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.7770189295405824</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7791023021288148</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.7814961911987039</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.7862211363137693</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8034294525182964</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8278904292392884</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8370906191150578</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8391236741949103</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8524068489115992</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8582234888092044</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8678512501913658</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8763993296621306</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8799882651154248</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8803183141743681</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8812787632230323</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8895027498026011</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8993961203875419</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9129302245356006</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9129398188124822</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.929890047506725</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.944054749758813</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9449475738135462</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9468124490980674</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9543601304450214</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9594640480579848</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9603089434754434</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.960976637474014</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.961633674489437</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9631450490584702</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9672162700454509</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.968395283270671</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9688069764501485</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.972021321700457</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.973155402103697</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9731918359009809</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9732290113798169</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9734503834515612</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9736057423492432</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9736570071331051</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9755195091127883</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9835735979981538</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9839551238617338</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9846140303317719</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9860671681290484</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9885555761952065</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9887202002273582</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9912892218249808</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9971779984498504</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9991892536434414</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.999333218924943</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9998796719351658</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.078472182016956E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001124230480131257</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001823962736250627</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002200185610621947</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002200185610621947</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002200185610621947</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002204949841919638</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002204949841919638</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002774388650842121</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0006502299840032156</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001003851525358291</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001581556541415133</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.002009510288869251</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.002124748674022739</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.002205112703791737</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.002269014863739291</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.002324712307491883</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002324712307491883</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002324712307491883</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002324712307491883</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002324712307491883</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.002324712307491883</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.002324712307491883</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.002345361779149672</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.002432134345608166</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002482830394639196</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.00262819904641546</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.002817704865591511</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.003045845972644077</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003136435099020504</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.003136435099020504</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00319236893654753</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.003262342162159467</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.003299386746676824</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.003303912204363</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.003303912204363</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.003303912204363</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.003303912204363</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.003303912204363</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.003303912204363</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.003308986476784873</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.003317281478935221</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.003519784550474742</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.003946531538243183</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.004051453238505988</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.004061507659274118</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.004148708262217381</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.004330037204228839</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.004330037204228839</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.004402387299721076</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.004402387299721076</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.004403820898388478</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.004416675745351784</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.004416675745351784</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.004466762434566372</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.004466762434566372</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.004466762434566372</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.00467276649962683</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.005025696814769864</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.005025696814769864</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.005025696814769864</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.005025696814769864</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.00516667112269269</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.005281819884194387</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.005312111341739824</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.00540699842350441</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.005505794038294902</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05154679319798716</v>
+        <v>0.06053124875961696</v>
       </c>
       <c r="CO6">
-        <v>0.07645579911101368</v>
+        <v>0.06053124875961696</v>
       </c>
       <c r="CP6">
-        <v>0.1647785008788895</v>
+        <v>0.2836782266444584</v>
       </c>
       <c r="CQ6">
-        <v>0.2828685431019282</v>
+        <v>0.62131060775661</v>
       </c>
       <c r="CR6">
-        <v>0.290502548308079</v>
+        <v>0.62131060775661</v>
       </c>
       <c r="CS6">
-        <v>0.3254549831800088</v>
+        <v>0.6391951593546651</v>
       </c>
       <c r="CT6">
-        <v>0.3456233181824507</v>
+        <v>0.6391951593546651</v>
       </c>
       <c r="CU6">
-        <v>0.3456233181824507</v>
+        <v>0.6391951593546651</v>
       </c>
       <c r="CV6">
-        <v>0.3699254555127471</v>
+        <v>0.6391951593546651</v>
       </c>
       <c r="CW6">
-        <v>0.3718621487719618</v>
+        <v>0.6391951593546651</v>
       </c>
       <c r="CX6">
-        <v>0.3782856645307459</v>
+        <v>0.6391951593546651</v>
       </c>
       <c r="CY6">
-        <v>0.4441956936011366</v>
+        <v>0.7761428385470948</v>
       </c>
       <c r="CZ6">
-        <v>0.4559541360205129</v>
+        <v>0.7761428385470948</v>
       </c>
       <c r="DA6">
-        <v>0.4599927424042574</v>
+        <v>0.7761428385470948</v>
       </c>
       <c r="DB6">
-        <v>0.4726096416810392</v>
+        <v>0.7761428385470948</v>
       </c>
       <c r="DC6">
-        <v>0.4743879230596871</v>
+        <v>0.7761428385470948</v>
       </c>
       <c r="DD6">
-        <v>0.5421103600990455</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DE6">
-        <v>0.5683086827524519</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DF6">
-        <v>0.5899682803811274</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DG6">
-        <v>0.6025640305014801</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DH6">
-        <v>0.6168437599231786</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DI6">
-        <v>0.6386627985347366</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DJ6">
-        <v>0.6386627985347366</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DK6">
-        <v>0.6474867246108031</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DL6">
-        <v>0.6486468062428538</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="DM6">
-        <v>0.6997339997976442</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN6">
-        <v>0.7088391264105555</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO6">
-        <v>0.7202873535219295</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP6">
-        <v>0.731158361782518</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ6">
-        <v>0.7316579704699894</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR6">
-        <v>0.7319288490660479</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS6">
-        <v>0.7361991327922087</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT6">
-        <v>0.7368566152740192</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU6">
-        <v>0.7369801574981139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV6">
-        <v>0.7380015688589803</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW6">
-        <v>0.7507761201900471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX6">
-        <v>0.7507761201900471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY6">
-        <v>0.753718632350491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ6">
-        <v>0.7540912866946031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA6">
-        <v>0.7540912866946031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB6">
-        <v>0.756659853940476</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC6">
-        <v>0.756659853940476</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED6">
-        <v>0.756659853940476</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE6">
-        <v>0.7570545620424093</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF6">
-        <v>0.7572884807255158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG6">
-        <v>0.7590794989922235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH6">
-        <v>0.7590794989922235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI6">
-        <v>0.7641923699107039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ6">
-        <v>0.7718505170956357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK6">
-        <v>0.7722831667882537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL6">
-        <v>0.7736238194196497</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.7752673618154327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.7754517270143544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.7778569462937447</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.7789133289048091</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.7794028166008867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.7807916099945411</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.7808021703443681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.7814237134380019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.782145874362362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.7828948235430681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.7903857967936475</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.8076926197401683</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.823417273322035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.823417273322035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.8363144920895932</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.844126763600098</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.8500311395712766</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.8582121956994024</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.8641082750521669</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.8644350014875547</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.8644537888936642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.8678960735250054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.8731745284441284</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.8824838587500305</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.8826604520491702</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.8962660865413747</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.9175986631614665</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9208305209777534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.9217435330887631</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9338636661858646</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9429168363981535</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9443540717300442</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9444128205907756</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9455435840477583</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9455435840477583</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9522734472210345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9576763058450216</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9583797824152813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9613681737838685</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.966498453970122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9678555658585821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9678712646614925</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9692192435453915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9700660263094699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9709632551384162</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9709904227002849</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9758848428032296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9773430377147402</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9777424261258014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9784339458882158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9804903794855813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9805562095869929</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9826309767403461</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9923388816542974</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9987597150835166</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9992709927096892</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9992709927096892</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.004313274104676097</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5003566240046479</v>
+        <v>0.7155312649099124</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.006828233276468856</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5049308677785637</v>
+        <v>0.5790241396906621</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.004844236223098187</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5158514874395226</v>
+        <v>0.5828150517158818</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.007303085897875326</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5075568946409452</v>
+        <v>0.6809400670605706</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -10734,16 +10734,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.05154679319798716</v>
+        <v>0.06053124875961696</v>
       </c>
       <c r="F6">
-        <v>0.5421103600990455</v>
+        <v>0.62131060775661</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.004313274104676097</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.725703825393247</v>
+        <v>0.7155312649099124</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.006828233276468856</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7084345925559722</v>
+        <v>0.7710317214371923</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.004844236223098187</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7031819383966919</v>
+        <v>0.7127675997147752</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.007303085897875326</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7132945188024888</v>
+        <v>0.806525804067284</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -10993,16 +10993,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.05154679319798716</v>
+        <v>0.06053124875961696</v>
       </c>
       <c r="F6">
-        <v>0.7088391264105555</v>
+        <v>0.7761428385470948</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.004313274104676097</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8031016192103837</v>
+        <v>0.8311827530444853</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.006828233276468856</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8164462008425557</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.004844236223098187</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8020410415211591</v>
+        <v>0.8187193761120033</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.007303085897875326</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8034294525182964</v>
+        <v>0.806525804067284</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -11252,16 +11252,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.05154679319798716</v>
+        <v>0.06053124875961696</v>
       </c>
       <c r="F6">
-        <v>0.8076926197401683</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.004313274104676097</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9009987065440259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.006828233276468856</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9080994575710801</v>
+        <v>0.9832234155244006</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.004844236223098187</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9024736121105554</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.007303085897875326</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9129302245356006</v>
+        <v>0.971168962675268</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -11511,16 +11511,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.05154679319798716</v>
+        <v>0.06053124875961696</v>
       </c>
       <c r="F6">
-        <v>0.9175986631614665</v>
+        <v>0.920061051686021</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>38</v>

--- a/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
@@ -674,67 +674,67 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3029481586064466</v>
+        <v>0.2245404626637236</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3365784514906227</v>
+        <v>0.2466157559167747</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02324395745814104</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01102484346084033</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.007060589769431676</v>
       </c>
       <c r="K2">
-        <v>0.02584271204182863</v>
+        <v>0.04264540703636369</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0140047074670232</v>
+        <v>0.03487481094254402</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01661708230569666</v>
       </c>
       <c r="O2">
-        <v>0.111009929286772</v>
+        <v>0.09855010292181238</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.003581871297669349</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03219811300892636</v>
+        <v>0.04681716196495131</v>
       </c>
       <c r="S2">
-        <v>0.01174533161024793</v>
+        <v>0.03339173183945819</v>
       </c>
       <c r="T2">
-        <v>0.1492051933425404</v>
+        <v>0.1236218933404306</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003862407444920008</v>
+        <v>0.02821729392300886</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.01198309711827357</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.001132421987768114</v>
       </c>
       <c r="AC2">
-        <v>0.01260499570067202</v>
+        <v>0.03395602478096149</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01212549127215041</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -784,40 +784,40 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1272648686718318</v>
+        <v>0.1092139080824761</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01307609815153977</v>
       </c>
       <c r="F3">
-        <v>0.3249242462101307</v>
+        <v>0.2384122025684675</v>
       </c>
       <c r="G3">
-        <v>0.09498136351874262</v>
+        <v>0.08811208201302653</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02522478480193096</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02132798549611662</v>
+        <v>0.0399692064147693</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01184425741302176</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01083750974939677</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01431099158325683</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1815544104637297</v>
+        <v>0.1446997843171115</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.01838974556510289</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1983986977884582</v>
+        <v>0.1557099029428532</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.008421307462903992</v>
+        <v>0.03153287108811483</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.007800135993615124</v>
+        <v>0.03112684788084287</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03532698439447129</v>
+        <v>0.04911952756170425</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0116508895647884</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.006769390301596481</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1620276971623723</v>
+        <v>0.125873389343547</v>
       </c>
       <c r="E4">
-        <v>0.05778919319166807</v>
+        <v>0.06156130028295294</v>
       </c>
       <c r="F4">
-        <v>0.2882235162623813</v>
+        <v>0.2037324956035076</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03365458945420133</v>
+        <v>0.04667096009309056</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001095743268650196</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.07736390185672794</v>
+        <v>0.07363831941742092</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01703866631914146</v>
       </c>
       <c r="N4">
-        <v>0.06349761272799435</v>
+        <v>0.06508322712985615</v>
       </c>
       <c r="O4">
-        <v>0.104300932181875</v>
+        <v>0.09025767433243059</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -936,25 +936,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01755725582783682</v>
       </c>
       <c r="S4">
-        <v>0.06087168630687338</v>
+        <v>0.0634631078128218</v>
       </c>
       <c r="T4">
-        <v>0.1251769948664442</v>
+        <v>0.1031375905962124</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.008766330566296488</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.02086963555883503</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.005433833526532619</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.02072160506035448</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -966,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01983946764163805</v>
+        <v>0.03814743653367505</v>
       </c>
       <c r="AC4">
-        <v>0.007254408347824038</v>
+        <v>0.03038282534581596</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.006568603381021787</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1007,40 +1007,40 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1650892481949174</v>
+        <v>0.1405605563332582</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4579294324759122</v>
+        <v>0.3445986138953814</v>
       </c>
       <c r="H5">
-        <v>0.01900549055293076</v>
+        <v>0.03877587051962689</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02040297400915234</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01539987849240836</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.004686578147048289</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.004952459759639437</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.01594083104780113</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1283156533050573</v>
+        <v>0.1149383457431167</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1049,25 +1049,25 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001619076029624356</v>
+        <v>0.02666178769313428</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.001589975673797462</v>
       </c>
       <c r="U5">
-        <v>0.1616129820758966</v>
+        <v>0.1381384482191156</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02059801772372466</v>
+        <v>0.0398854728487659</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.02174843286328864</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1082,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0458300996419365</v>
+        <v>0.05746606888438464</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.01345464191568728</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.0007990639543934017</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1114,31 +1114,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07346823272080995</v>
+        <v>0.07042739895204872</v>
       </c>
       <c r="E6">
-        <v>0.009116196076124792</v>
+        <v>0.03205829710783797</v>
       </c>
       <c r="F6">
-        <v>0.202226255869943</v>
+        <v>0.1471977695736653</v>
       </c>
       <c r="G6">
-        <v>0.2928750158532308</v>
+        <v>0.2012459657955551</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0006922894745774078</v>
       </c>
       <c r="I6">
-        <v>0.03970086931813481</v>
+        <v>0.05029402830891892</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02345071888012836</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00726813428571501</v>
+        <v>0.030956413239855</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1147,58 +1147,58 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1339742401751404</v>
+        <v>0.1065033537041897</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.008180979710140991</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.009739669333319502</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.139493461323506</v>
+        <v>0.1097941207006038</v>
       </c>
       <c r="U6">
-        <v>0.01304247776451346</v>
+        <v>0.03439929375418554</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.02615838620306033</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.009701269068494625</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01275884970287586</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.02644788124685264</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.002852814253826621</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.08883511661288192</v>
+        <v>0.0795897124362136</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.003363386631496033</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.007617725567125018</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.006569676355028987</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1347,85 +1347,85 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3029481586064466</v>
+        <v>0.2245404626637236</v>
       </c>
       <c r="E2">
-        <v>0.3029481586064466</v>
+        <v>0.2245404626637236</v>
       </c>
       <c r="F2">
-        <v>0.6395266100970693</v>
+        <v>0.4711562185804984</v>
       </c>
       <c r="G2">
-        <v>0.6395266100970693</v>
+        <v>0.4944001760386394</v>
       </c>
       <c r="H2">
-        <v>0.6395266100970693</v>
+        <v>0.5054250194994798</v>
       </c>
       <c r="I2">
-        <v>0.6395266100970693</v>
+        <v>0.5054250194994798</v>
       </c>
       <c r="J2">
-        <v>0.6395266100970693</v>
+        <v>0.5124856092689115</v>
       </c>
       <c r="K2">
-        <v>0.665369322138898</v>
+        <v>0.5551310163052752</v>
       </c>
       <c r="L2">
-        <v>0.665369322138898</v>
+        <v>0.5551310163052752</v>
       </c>
       <c r="M2">
-        <v>0.6793740296059212</v>
+        <v>0.5900058272478192</v>
       </c>
       <c r="N2">
-        <v>0.6793740296059212</v>
+        <v>0.6066229095535159</v>
       </c>
       <c r="O2">
-        <v>0.7903839588926932</v>
+        <v>0.7051730124753284</v>
       </c>
       <c r="P2">
-        <v>0.7903839588926932</v>
+        <v>0.7087548837729978</v>
       </c>
       <c r="Q2">
-        <v>0.7903839588926932</v>
+        <v>0.7087548837729978</v>
       </c>
       <c r="R2">
-        <v>0.8225820719016196</v>
+        <v>0.7555720457379491</v>
       </c>
       <c r="S2">
-        <v>0.8343274035118675</v>
+        <v>0.7889637775774073</v>
       </c>
       <c r="T2">
-        <v>0.983532596854408</v>
+        <v>0.9125856709178379</v>
       </c>
       <c r="U2">
-        <v>0.983532596854408</v>
+        <v>0.9125856709178379</v>
       </c>
       <c r="V2">
-        <v>0.987395004299328</v>
+        <v>0.9408029648408468</v>
       </c>
       <c r="W2">
-        <v>0.987395004299328</v>
+        <v>0.9408029648408468</v>
       </c>
       <c r="X2">
-        <v>0.987395004299328</v>
+        <v>0.9527860619591204</v>
       </c>
       <c r="Y2">
-        <v>0.987395004299328</v>
+        <v>0.9527860619591204</v>
       </c>
       <c r="Z2">
-        <v>0.987395004299328</v>
+        <v>0.9527860619591204</v>
       </c>
       <c r="AA2">
-        <v>0.987395004299328</v>
+        <v>0.9527860619591204</v>
       </c>
       <c r="AB2">
-        <v>0.987395004299328</v>
+        <v>0.9539184839468885</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.98787450872785</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.98787450872785</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1272648686718318</v>
+        <v>0.1092139080824761</v>
       </c>
       <c r="E3">
-        <v>0.1272648686718318</v>
+        <v>0.1222900062340158</v>
       </c>
       <c r="F3">
-        <v>0.4521891148819625</v>
+        <v>0.3607022088024833</v>
       </c>
       <c r="G3">
-        <v>0.5471704784007051</v>
+        <v>0.4488142908155098</v>
       </c>
       <c r="H3">
-        <v>0.5471704784007051</v>
+        <v>0.4740390756174408</v>
       </c>
       <c r="I3">
-        <v>0.5471704784007051</v>
+        <v>0.4740390756174408</v>
       </c>
       <c r="J3">
-        <v>0.5684984638968217</v>
+        <v>0.5140082820322101</v>
       </c>
       <c r="K3">
-        <v>0.5684984638968217</v>
+        <v>0.5258525394452318</v>
       </c>
       <c r="L3">
-        <v>0.5684984638968217</v>
+        <v>0.5366900491946286</v>
       </c>
       <c r="M3">
-        <v>0.5684984638968217</v>
+        <v>0.5510010407778855</v>
       </c>
       <c r="N3">
-        <v>0.5684984638968217</v>
+        <v>0.5510010407778855</v>
       </c>
       <c r="O3">
-        <v>0.7500528743605513</v>
+        <v>0.695700825094997</v>
       </c>
       <c r="P3">
-        <v>0.7500528743605513</v>
+        <v>0.695700825094997</v>
       </c>
       <c r="Q3">
-        <v>0.7500528743605513</v>
+        <v>0.695700825094997</v>
       </c>
       <c r="R3">
-        <v>0.7500528743605513</v>
+        <v>0.7140905706600998</v>
       </c>
       <c r="S3">
-        <v>0.7500528743605513</v>
+        <v>0.7140905706600998</v>
       </c>
       <c r="T3">
-        <v>0.9484515721490095</v>
+        <v>0.869800473602953</v>
       </c>
       <c r="U3">
-        <v>0.9484515721490095</v>
+        <v>0.869800473602953</v>
       </c>
       <c r="V3">
-        <v>0.9568728796119136</v>
+        <v>0.9013333446910679</v>
       </c>
       <c r="W3">
-        <v>0.9568728796119136</v>
+        <v>0.9013333446910679</v>
       </c>
       <c r="X3">
-        <v>0.9646730156055288</v>
+        <v>0.9324601925719107</v>
       </c>
       <c r="Y3">
-        <v>0.9646730156055288</v>
+        <v>0.9324601925719107</v>
       </c>
       <c r="Z3">
-        <v>0.9646730156055288</v>
+        <v>0.9324601925719107</v>
       </c>
       <c r="AA3">
-        <v>0.9646730156055288</v>
+        <v>0.9324601925719107</v>
       </c>
       <c r="AB3">
-        <v>0.9646730156055288</v>
+        <v>0.9324601925719107</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9815797201336149</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9815797201336149</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9932306096984034</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1620276971623723</v>
+        <v>0.125873389343547</v>
       </c>
       <c r="E4">
-        <v>0.2198168903540404</v>
+        <v>0.1874346896265</v>
       </c>
       <c r="F4">
-        <v>0.5080404066164217</v>
+        <v>0.3911671852300076</v>
       </c>
       <c r="G4">
-        <v>0.5080404066164217</v>
+        <v>0.3911671852300076</v>
       </c>
       <c r="H4">
-        <v>0.541694996070623</v>
+        <v>0.4378381453230982</v>
       </c>
       <c r="I4">
-        <v>0.541694996070623</v>
+        <v>0.4389338885917484</v>
       </c>
       <c r="J4">
-        <v>0.541694996070623</v>
+        <v>0.4389338885917484</v>
       </c>
       <c r="K4">
-        <v>0.6190588979273509</v>
+        <v>0.5125722080091693</v>
       </c>
       <c r="L4">
-        <v>0.6190588979273509</v>
+        <v>0.5125722080091693</v>
       </c>
       <c r="M4">
-        <v>0.6190588979273509</v>
+        <v>0.5296108743283107</v>
       </c>
       <c r="N4">
-        <v>0.6825565106553453</v>
+        <v>0.5946941014581668</v>
       </c>
       <c r="O4">
-        <v>0.7868574428372203</v>
+        <v>0.6849517757905974</v>
       </c>
       <c r="P4">
-        <v>0.7868574428372203</v>
+        <v>0.6849517757905974</v>
       </c>
       <c r="Q4">
-        <v>0.7868574428372203</v>
+        <v>0.6849517757905974</v>
       </c>
       <c r="R4">
-        <v>0.7868574428372203</v>
+        <v>0.7025090316184343</v>
       </c>
       <c r="S4">
-        <v>0.8477291291440936</v>
+        <v>0.7659721394312561</v>
       </c>
       <c r="T4">
-        <v>0.9729061240105379</v>
+        <v>0.8691097300274685</v>
       </c>
       <c r="U4">
-        <v>0.9729061240105379</v>
+        <v>0.877876060593765</v>
       </c>
       <c r="V4">
-        <v>0.9729061240105379</v>
+        <v>0.8987456961526</v>
       </c>
       <c r="W4">
-        <v>0.9729061240105379</v>
+        <v>0.9041795296791326</v>
       </c>
       <c r="X4">
-        <v>0.9729061240105379</v>
+        <v>0.9249011347394871</v>
       </c>
       <c r="Y4">
-        <v>0.9729061240105379</v>
+        <v>0.9249011347394871</v>
       </c>
       <c r="Z4">
-        <v>0.9729061240105379</v>
+        <v>0.9249011347394871</v>
       </c>
       <c r="AA4">
-        <v>0.9729061240105379</v>
+        <v>0.9249011347394871</v>
       </c>
       <c r="AB4">
-        <v>0.9927455916521759</v>
+        <v>0.9630485712731621</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9934313966189781</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9934313966189781</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1680,100 +1680,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1650892481949174</v>
+        <v>0.1405605563332582</v>
       </c>
       <c r="F5">
-        <v>0.1650892481949174</v>
+        <v>0.1405605563332582</v>
       </c>
       <c r="G5">
-        <v>0.6230186806708295</v>
+        <v>0.4851591702286396</v>
       </c>
       <c r="H5">
-        <v>0.6420241712237603</v>
+        <v>0.5239350407482666</v>
       </c>
       <c r="I5">
-        <v>0.6420241712237603</v>
+        <v>0.5443380147574189</v>
       </c>
       <c r="J5">
-        <v>0.6420241712237603</v>
+        <v>0.5443380147574189</v>
       </c>
       <c r="K5">
-        <v>0.6420241712237603</v>
+        <v>0.5597378932498273</v>
       </c>
       <c r="L5">
-        <v>0.6420241712237603</v>
+        <v>0.5644244713968756</v>
       </c>
       <c r="M5">
-        <v>0.6420241712237603</v>
+        <v>0.569376931156515</v>
       </c>
       <c r="N5">
-        <v>0.6420241712237603</v>
+        <v>0.5853177622043161</v>
       </c>
       <c r="O5">
-        <v>0.6420241712237603</v>
+        <v>0.5853177622043161</v>
       </c>
       <c r="P5">
-        <v>0.7703398245288177</v>
+        <v>0.7002561079474329</v>
       </c>
       <c r="Q5">
-        <v>0.7703398245288177</v>
+        <v>0.7002561079474329</v>
       </c>
       <c r="R5">
-        <v>0.7703398245288177</v>
+        <v>0.7002561079474329</v>
       </c>
       <c r="S5">
-        <v>0.7719589005584421</v>
+        <v>0.7269178956405672</v>
       </c>
       <c r="T5">
-        <v>0.7719589005584421</v>
+        <v>0.7285078713143647</v>
       </c>
       <c r="U5">
-        <v>0.9335718826343387</v>
+        <v>0.8666463195334803</v>
       </c>
       <c r="V5">
-        <v>0.9335718826343387</v>
+        <v>0.8666463195334803</v>
       </c>
       <c r="W5">
-        <v>0.9541699003580633</v>
+        <v>0.9065317923822461</v>
       </c>
       <c r="X5">
-        <v>0.9541699003580633</v>
+        <v>0.9065317923822461</v>
       </c>
       <c r="Y5">
-        <v>0.9541699003580633</v>
+        <v>0.9282802252455348</v>
       </c>
       <c r="Z5">
-        <v>0.9541699003580633</v>
+        <v>0.9282802252455348</v>
       </c>
       <c r="AA5">
-        <v>0.9541699003580633</v>
+        <v>0.9282802252455348</v>
       </c>
       <c r="AB5">
-        <v>0.9541699003580633</v>
+        <v>0.9282802252455348</v>
       </c>
       <c r="AC5">
-        <v>0.9541699003580633</v>
+        <v>0.9282802252455348</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999998</v>
+        <v>0.9857462941299194</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999998</v>
+        <v>0.9857462941299194</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999998</v>
+        <v>0.9992009360456067</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,88 +1787,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07346823272080995</v>
+        <v>0.07042739895204872</v>
       </c>
       <c r="E6">
-        <v>0.08258442879693474</v>
+        <v>0.1024856960598867</v>
       </c>
       <c r="F6">
-        <v>0.2848106846668778</v>
+        <v>0.249683465633552</v>
       </c>
       <c r="G6">
-        <v>0.5776857005201086</v>
+        <v>0.4509294314291071</v>
       </c>
       <c r="H6">
-        <v>0.5776857005201086</v>
+        <v>0.4516217209036845</v>
       </c>
       <c r="I6">
-        <v>0.6173865698382434</v>
+        <v>0.5019157492126034</v>
       </c>
       <c r="J6">
-        <v>0.6173865698382434</v>
+        <v>0.5253664680927318</v>
       </c>
       <c r="K6">
-        <v>0.6173865698382434</v>
+        <v>0.5253664680927318</v>
       </c>
       <c r="L6">
-        <v>0.6246547041239584</v>
+        <v>0.5563228813325868</v>
       </c>
       <c r="M6">
-        <v>0.6246547041239584</v>
+        <v>0.5563228813325868</v>
       </c>
       <c r="N6">
-        <v>0.6246547041239584</v>
+        <v>0.5563228813325868</v>
       </c>
       <c r="O6">
-        <v>0.7586289442990988</v>
+        <v>0.6628262350367765</v>
       </c>
       <c r="P6">
-        <v>0.7586289442990988</v>
+        <v>0.6710072147469175</v>
       </c>
       <c r="Q6">
-        <v>0.7586289442990988</v>
+        <v>0.6710072147469175</v>
       </c>
       <c r="R6">
-        <v>0.7586289442990988</v>
+        <v>0.680746884080237</v>
       </c>
       <c r="S6">
-        <v>0.7586289442990988</v>
+        <v>0.680746884080237</v>
       </c>
       <c r="T6">
-        <v>0.8981224056226047</v>
+        <v>0.7905410047808408</v>
       </c>
       <c r="U6">
-        <v>0.9111648833871182</v>
+        <v>0.8249402985350263</v>
       </c>
       <c r="V6">
-        <v>0.9111648833871182</v>
+        <v>0.8510986847380866</v>
       </c>
       <c r="W6">
-        <v>0.9111648833871182</v>
+        <v>0.8607999538065813</v>
       </c>
       <c r="X6">
-        <v>0.9111648833871182</v>
+        <v>0.8735588035094571</v>
       </c>
       <c r="Y6">
-        <v>0.9111648833871182</v>
+        <v>0.9000066847563097</v>
       </c>
       <c r="Z6">
-        <v>0.9111648833871182</v>
+        <v>0.9000066847563097</v>
       </c>
       <c r="AA6">
-        <v>0.9111648833871182</v>
+        <v>0.9028594990101364</v>
       </c>
       <c r="AB6">
-        <v>0.9111648833871182</v>
+        <v>0.9028594990101364</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.98244921144635</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.985812598077846</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9934303236449711</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1951,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6395266100970693</v>
+        <v>0.5054250194994798</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5471704784007051</v>
+        <v>0.5140082820322101</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -2033,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5080404066164217</v>
+        <v>0.5125722080091693</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -2074,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6230186806708295</v>
+        <v>0.5239350407482666</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -2115,16 +2115,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5776857005201086</v>
+        <v>0.5019157492126034</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7903839588926932</v>
+        <v>0.7051730124753284</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2251,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7500528743605513</v>
+        <v>0.7140905706600998</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7868574428372203</v>
+        <v>0.7025090316184343</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7703398245288177</v>
+        <v>0.7002561079474329</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2374,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7586289442990988</v>
+        <v>0.7905410047808408</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8225820719016196</v>
+        <v>0.9125856709178379</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9484515721490095</v>
+        <v>0.869800473602953</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8691097300274685</v>
+      </c>
+      <c r="G4">
         <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8477291291440936</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9335718826343387</v>
+        <v>0.8666463195334803</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2633,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8249402985350263</v>
+      </c>
+      <c r="G6">
         <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8981224056226047</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.983532596854408</v>
+        <v>0.9125856709178379</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9484515721490095</v>
+        <v>0.9013333446910679</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9729061240105379</v>
+        <v>0.9041795296791326</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9065317923822461</v>
+      </c>
+      <c r="G5">
         <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9335718826343387</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -2892,16 +2892,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9111648833871182</v>
+        <v>0.9000066847563097</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>38</v>
